--- a/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\Radium Sorption\Sorption Experiments\RaFHY_pH9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaFHY_pH9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -2646,7 +2646,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3541,16 +3541,23 @@
       <c r="B38" s="19" t="s">
         <v>119</v>
       </c>
+      <c r="C38">
+        <v>0.11</v>
+      </c>
+      <c r="D38">
+        <f>C38*0.023</f>
+        <v>2.5300000000000001E-3</v>
+      </c>
       <c r="E38" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F38" s="1">
         <f>(C38-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
+        <v>78.712940764196873</v>
       </c>
       <c r="G38" s="22">
         <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F38-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+        <v>1143.0368988343</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -5561,8 +5568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6930,88 +6937,91 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="33">
         <v>0.158</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="33">
         <v>2E-3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="33">
         <v>8.91</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="34">
         <v>0.03</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="35">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="34">
         <v>100</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="34">
         <v>5</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16">
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="33">
         <v>10</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="33">
         <v>0.02</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="34">
         <f>'Count-&gt;Actual Activity'!F38</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N16" s="1">
+        <v>78.712940764196873</v>
+      </c>
+      <c r="N16" s="34">
         <f>'Count-&gt;Actual Activity'!G38</f>
-        <v>74.035276446395159</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16">
+        <v>1143.0368988343</v>
+      </c>
+      <c r="O16" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R16" t="e">
+      <c r="R16" s="33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S16" t="e">
+      <c r="S16" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" t="e">
+        <v>2623.7646921398959</v>
+      </c>
+      <c r="T16" s="33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16">
+        <v>38101.229961143334</v>
+      </c>
+      <c r="U16" s="33">
         <f>Parameters!$B$6*'Bottle Results'!B16</f>
         <v>99.780548394793726</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="33">
         <f>SQRT((C16/B16)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.165627094523759E-2</v>
       </c>
-      <c r="W16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="W16" s="33">
+        <f>(U16-S16*O16)/G16</f>
+        <v>0.21067607630596855</v>
+      </c>
+      <c r="X16" s="33">
         <v>2.3297930026256426E-2</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="33">
         <f t="shared" si="5"/>
         <v>3326.0182798264577</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AB16">
-        <f t="shared" si="6"/>
+      <c r="AB16" s="33">
+        <f>Y16*E16/U16</f>
         <v>1</v>
       </c>
     </row>
@@ -7645,7 +7655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -7839,11 +7849,11 @@
       </c>
       <c r="B6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>0.14045071753731236</v>
+        <v>0.21067607630596855</v>
       </c>
       <c r="C6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>0.12163388936706508</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!Y14:Y16)</f>

--- a/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -2646,7 +2646,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,16 +3432,23 @@
       <c r="B33" s="19" t="s">
         <v>119</v>
       </c>
+      <c r="C33" s="21">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D33" s="21">
+        <f>C33*3.8/100</f>
+        <v>2.2040000000000002E-3</v>
+      </c>
       <c r="E33" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F33" s="1">
         <f>(C33-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
+        <v>39.146000743058828</v>
       </c>
       <c r="G33" s="22">
         <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F33-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+        <v>567.79850308782375</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3451,16 +3458,23 @@
       <c r="B34" s="19" t="s">
         <v>119</v>
       </c>
+      <c r="C34" s="21">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D34" s="21">
+        <f>3.2/100*C34</f>
+        <v>1.8240000000000001E-3</v>
+      </c>
       <c r="E34" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F34" s="1">
         <f>(C34-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
+        <v>38.385098050344638</v>
       </c>
       <c r="G34" s="22">
         <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F34-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+        <v>556.73647081686329</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3470,16 +3484,23 @@
       <c r="B35" s="19" t="s">
         <v>119</v>
       </c>
+      <c r="C35" s="21">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D35" s="21">
+        <f>3.6/100*C35</f>
+        <v>2.0880000000000004E-3</v>
+      </c>
       <c r="E35" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F35" s="1">
         <f>(C35-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
+        <v>39.146000743058828</v>
       </c>
       <c r="G35" s="22">
         <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F35-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+        <v>567.79850308782375</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -5566,10 +5587,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6494,262 +6515,283 @@
         <v>0.64413205376649052</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="33">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="33">
         <v>2E-3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="33">
         <v>8.94</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="34">
         <v>0.03</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="35">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="34">
         <v>100</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="34">
         <v>5</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11">
+      <c r="I11" s="34">
+        <f>'Count-&gt;Actual Activity'!F11</f>
+        <v>0.25716654128242811</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="33">
         <v>10</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="33">
         <v>0.02</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="34">
         <f>'Count-&gt;Actual Activity'!F33</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N11" s="1">
+        <v>39.146000743058828</v>
+      </c>
+      <c r="N11" s="34">
         <f>'Count-&gt;Actual Activity'!G33</f>
-        <v>74.035276446395159</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11">
+        <v>567.79850308782375</v>
+      </c>
+      <c r="O11" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="P11" s="33">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="Q11" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" t="e">
+        <v>2.5716654128242811E-2</v>
+      </c>
+      <c r="R11" s="33">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" t="e">
+        <v>5.1433308256485625E-5</v>
+      </c>
+      <c r="S11" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" t="e">
+        <v>1304.8666914352943</v>
+      </c>
+      <c r="T11" s="33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11">
+        <v>18926.75171217525</v>
+      </c>
+      <c r="U11" s="33">
         <f>Parameters!$B$6*'Bottle Results'!B11</f>
         <v>49.953426443216358</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="33">
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.8486259533798084E-2</v>
       </c>
-      <c r="W11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="W11" s="33">
+        <f t="shared" ref="W11:W19" si="7">(U11-S11*O11)/G11</f>
+        <v>0.1080742570015753</v>
+      </c>
+      <c r="X11" s="33">
         <v>2.3297919246001962E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="33">
         <f t="shared" si="5"/>
-        <v>1665.1142147738788</v>
-      </c>
-      <c r="AA11" s="38" t="s">
+        <v>1579.3920343464026</v>
+      </c>
+      <c r="AA11" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AB11">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="AB11" s="33">
+        <f>S11*E11/U11</f>
+        <v>0.78364996218141969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="33">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="33">
         <v>2E-3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="33">
         <v>8.89</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="34">
         <v>0.03</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="35">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="34">
         <v>100</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="34">
         <v>5</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12">
+      <c r="I12" s="34">
+        <f>'Count-&gt;Actual Activity'!F12</f>
+        <v>0.25363929010379288</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="33">
         <v>10</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="33">
         <v>0.02</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="34">
         <f>'Count-&gt;Actual Activity'!F34</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N12" s="1">
+        <v>38.385098050344638</v>
+      </c>
+      <c r="N12" s="34">
         <f>'Count-&gt;Actual Activity'!G34</f>
-        <v>74.035276446395159</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12">
+        <v>556.73647081686329</v>
+      </c>
+      <c r="O12" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="P12" s="33">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="Q12" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" t="e">
+        <v>2.5363929010379288E-2</v>
+      </c>
+      <c r="R12" s="33">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" t="e">
+        <v>5.072785802075858E-5</v>
+      </c>
+      <c r="S12" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" t="e">
+        <v>1279.5032683448212</v>
+      </c>
+      <c r="T12" s="33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12">
+        <v>18558.014686229326</v>
+      </c>
+      <c r="U12" s="33">
         <f>Parameters!$B$6*'Bottle Results'!B12</f>
         <v>49.953426443216358</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="33">
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.8486259533798084E-2</v>
       </c>
-      <c r="W12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="W12" s="33">
+        <f t="shared" si="7"/>
+        <v>0.1156832839287172</v>
+      </c>
+      <c r="X12" s="33">
         <v>2.3297917690924E-2</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="33">
         <f t="shared" si="5"/>
-        <v>1665.1142147738788</v>
-      </c>
-      <c r="AA12" s="38" t="s">
+        <v>1580.567784739281</v>
+      </c>
+      <c r="AA12" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AB12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="AB12" s="33">
+        <f>S12*E12/U12</f>
+        <v>0.76841771993315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="33">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="33">
         <v>2E-3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="33">
         <v>8.92</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="34">
         <v>0.03</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="35">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="34">
         <v>100</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="34">
         <v>5</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13">
+      <c r="I13" s="34">
+        <f>'Count-&gt;Actual Activity'!F13</f>
+        <v>0.25911261089822724</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="33">
         <v>10</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="33">
         <v>0.02</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="34">
         <f>'Count-&gt;Actual Activity'!F35</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N13" s="1">
+        <v>39.146000743058828</v>
+      </c>
+      <c r="N13" s="34">
         <f>'Count-&gt;Actual Activity'!G35</f>
-        <v>74.035276446395159</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13">
+        <v>567.79850308782375</v>
+      </c>
+      <c r="O13" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="P13" s="33">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="Q13" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" t="e">
+        <v>2.5911261089822724E-2</v>
+      </c>
+      <c r="R13" s="33">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" t="e">
+        <v>5.182252217964545E-5</v>
+      </c>
+      <c r="S13" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" t="e">
+        <v>1304.8666914352943</v>
+      </c>
+      <c r="T13" s="33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13">
+        <v>18926.75171217525</v>
+      </c>
+      <c r="U13" s="33">
         <f>Parameters!$B$6*'Bottle Results'!B13</f>
         <v>49.953426443216358</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="33">
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.8486259533798084E-2</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="W13" s="33">
+        <f t="shared" si="7"/>
+        <v>0.1080742570015753</v>
+      </c>
+      <c r="X13" s="33">
         <v>2.3297920113197729E-2</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="33">
         <f t="shared" si="5"/>
-        <v>1665.1142147738788</v>
-      </c>
-      <c r="AA13" s="38" t="s">
+        <v>1578.7433444744695</v>
+      </c>
+      <c r="AA13" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AB13">
-        <f t="shared" si="6"/>
-        <v>1</v>
+      <c r="AB13" s="33">
+        <f>S13*E13/U13</f>
+        <v>0.78364996218141969</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -6828,7 +6870,7 @@
         <v>3.165627094523759E-2</v>
       </c>
       <c r="W14" s="33">
-        <f>(U14-S14*O14)/G14</f>
+        <f t="shared" si="7"/>
         <v>0.21067607630596855</v>
       </c>
       <c r="X14" s="33">
@@ -6872,7 +6914,10 @@
       <c r="H15" s="34">
         <v>5</v>
       </c>
-      <c r="I15" s="34"/>
+      <c r="I15" s="34">
+        <f>'Count-&gt;Actual Activity'!F15</f>
+        <v>0.27480279717560635</v>
+      </c>
       <c r="J15" s="34"/>
       <c r="K15" s="33">
         <v>10</v>
@@ -6894,11 +6939,11 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="33" t="e">
+        <v>2.7480279717560636E-2</v>
+      </c>
+      <c r="R15" s="33">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.496055943512127E-5</v>
       </c>
       <c r="S15" s="33">
         <f t="shared" si="2"/>
@@ -6917,7 +6962,7 @@
         <v>3.165627094523759E-2</v>
       </c>
       <c r="W15" s="33">
-        <f>(U15-S15*O15)/G15</f>
+        <f t="shared" si="7"/>
         <v>0.21067607630596855</v>
       </c>
       <c r="X15" s="33">
@@ -6925,15 +6970,15 @@
       </c>
       <c r="Y15" s="33">
         <f t="shared" si="5"/>
-        <v>3326.0182798264577</v>
+        <v>3234.4173474345889</v>
       </c>
       <c r="AA15" s="33">
         <f>(Q15*G15+S15*O15-U15)/U15</f>
-        <v>-0.21113942516371362</v>
+        <v>-0.1835987068978332</v>
       </c>
       <c r="AB15" s="33">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.97245928173411955</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -6961,7 +7006,10 @@
       <c r="H16" s="34">
         <v>5</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="34">
+        <f>'Count-&gt;Actual Activity'!F16</f>
+        <v>0.28039774732102907</v>
+      </c>
       <c r="J16" s="34"/>
       <c r="K16" s="33">
         <v>10</v>
@@ -6983,11 +7031,11 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="33" t="e">
+        <v>2.8039774732102906E-2</v>
+      </c>
+      <c r="R16" s="33">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.6079549464205813E-5</v>
       </c>
       <c r="S16" s="33">
         <f t="shared" si="2"/>
@@ -7006,7 +7054,7 @@
         <v>3.165627094523759E-2</v>
       </c>
       <c r="W16" s="33">
-        <f>(U16-S16*O16)/G16</f>
+        <f t="shared" si="7"/>
         <v>0.21067607630596855</v>
       </c>
       <c r="X16" s="33">
@@ -7014,7 +7062,7 @@
       </c>
       <c r="Y16" s="33">
         <f t="shared" si="5"/>
-        <v>3326.0182798264577</v>
+        <v>3232.5523640527813</v>
       </c>
       <c r="Z16" s="33"/>
       <c r="AA16" s="33" t="s">
@@ -7022,7 +7070,7 @@
       </c>
       <c r="AB16" s="33">
         <f>Y16*E16/U16</f>
-        <v>1</v>
+        <v>0.97189855619838827</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -7103,8 +7151,8 @@
         <v>2.9125000570302848E-2</v>
       </c>
       <c r="W17" s="33">
-        <f t="shared" si="4"/>
-        <v>6.6243553877254488E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.0187371518620041</v>
       </c>
       <c r="X17" s="33">
         <v>2.3298241351735846E-2</v>
@@ -7203,8 +7251,8 @@
         <v>2.9125000570302848E-2</v>
       </c>
       <c r="W18" s="33">
-        <f t="shared" si="4"/>
-        <v>5.5199608807595779E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3230982289476816</v>
       </c>
       <c r="X18" s="33">
         <v>2.3298125385430756E-2</v>
@@ -7303,8 +7351,8 @@
         <v>2.9125000570302848E-2</v>
       </c>
       <c r="W19" s="33">
-        <f t="shared" si="4"/>
-        <v>5.4895535430127172E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.86655661331916523</v>
       </c>
       <c r="X19" s="33">
         <v>2.3298122491261654E-2</v>
@@ -7644,6 +7692,12 @@
       <c r="AB23" s="38">
         <f t="shared" si="6"/>
         <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <f>Y11*0.03</f>
+        <v>47.381761030392077</v>
       </c>
     </row>
   </sheetData>
@@ -7655,8 +7709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7812,27 +7866,27 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>0</v>
+        <v>0.1106105993106226</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>0</v>
+        <v>4.3930737446564849E-3</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!Y11:Y13)</f>
-        <v>1665.1142147738785</v>
+        <v>1579.5677211867178</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!Y11:Y13)</f>
-        <v>2.7847474288855413E-13</v>
+        <v>0.92482158785428159</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!AB11:AB13)</f>
-        <v>1</v>
+        <v>0.77857254809866328</v>
       </c>
       <c r="G5">
         <f>_xlfn.STDEV.S('Bottle Results'!AB11:AB13)</f>
-        <v>0</v>
+        <v>8.7943391624000951E-3</v>
       </c>
       <c r="H5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -7857,19 +7911,19 @@
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!Y14:Y16)</f>
-        <v>3295.8495237487973</v>
+        <v>3234.1605743602818</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!Y14:Y16)</f>
-        <v>52.253818327660468</v>
+        <v>1.4964383382056994</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!AB14:AB16)</f>
-        <v>0.99092946774807411</v>
+        <v>0.9723820803922435</v>
       </c>
       <c r="G6">
         <f>_xlfn.STDEV.S('Bottle Results'!AB14:AB16)</f>
-        <v>1.571062271202759E-2</v>
+        <v>4.4991885561248234E-4</v>
       </c>
       <c r="H6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -7885,36 +7939,36 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <f>AVERAGE('Bottle Results'!W17:W19,'Bottle Results'!W21)</f>
-        <v>4.4084674528744358E-2</v>
+        <f>AVERAGE('Bottle Results'!W17:W19)</f>
+        <v>1.0694639980429503</v>
       </c>
       <c r="C7">
-        <f>_xlfn.STDEV.S('Bottle Results'!W17:W19,'Bottle Results'!W21)</f>
-        <v>2.9860179390728075E-2</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!W17:W19)</f>
+        <v>0.23245961239056712</v>
       </c>
       <c r="D7">
-        <f>AVERAGE('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>13998.532901237906</v>
+        <f>AVERAGE('Bottle Results'!Y17:Y19)</f>
+        <v>13107.312902868782</v>
       </c>
       <c r="E7">
-        <f>_xlfn.STDEV.S('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>1891.3936416951028</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!Y17:Y19)</f>
+        <v>774.8653746352262</v>
       </c>
       <c r="F7">
-        <f>AVERAGE('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>0.83963357359586033</v>
+        <f>AVERAGE('Bottle Results'!AB17:AB19)</f>
+        <v>0.78617809812781381</v>
       </c>
       <c r="G7">
-        <f>_xlfn.STDEV.S('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>0.11344600278165595</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!AB17:AB19)</f>
+        <v>4.6476512085286893E-2</v>
       </c>
       <c r="H7">
-        <f>AVERAGE('Bottle Results'!D17:D19,'Bottle Results'!D21)</f>
-        <v>8.9350000000000005</v>
+        <f>AVERAGE('Bottle Results'!D17:D19)</f>
+        <v>8.913333333333334</v>
       </c>
       <c r="I7">
-        <f>_xlfn.STDEV.S('Bottle Results'!D17:D19,'Bottle Results'!D21)</f>
-        <v>4.7258156262525892E-2</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!D17:D19)</f>
+        <v>2.3094010767584539E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">

--- a/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -2646,7 +2646,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,23 +3432,16 @@
       <c r="B33" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="21">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="D33" s="21">
-        <f>C33*3.8/100</f>
-        <v>2.2040000000000002E-3</v>
-      </c>
       <c r="E33" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F33" s="1">
         <f>(C33-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>39.146000743058828</v>
+        <v>-4.9863554343643806</v>
       </c>
       <c r="G33" s="22">
         <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F33-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>567.79850308782375</v>
+        <v>74.035276446395159</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3458,23 +3451,16 @@
       <c r="B34" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="21">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D34" s="21">
-        <f>3.2/100*C34</f>
-        <v>1.8240000000000001E-3</v>
-      </c>
       <c r="E34" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F34" s="1">
         <f>(C34-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>38.385098050344638</v>
+        <v>-4.9863554343643806</v>
       </c>
       <c r="G34" s="22">
         <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F34-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>556.73647081686329</v>
+        <v>74.035276446395159</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3484,23 +3470,16 @@
       <c r="B35" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="21">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="D35" s="21">
-        <f>3.6/100*C35</f>
-        <v>2.0880000000000004E-3</v>
-      </c>
       <c r="E35" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F35" s="1">
         <f>(C35-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>39.146000743058828</v>
+        <v>-4.9863554343643806</v>
       </c>
       <c r="G35" s="22">
         <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F35-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>567.79850308782375</v>
+        <v>74.035276446395159</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -5587,10 +5566,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6515,283 +6494,262 @@
         <v>0.64413205376649052</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11">
         <v>2E-3</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11">
         <v>8.94</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="1">
         <v>0.03</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="21">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="1">
         <v>100</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="1">
         <v>5</v>
       </c>
-      <c r="I11" s="34">
-        <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>0.25716654128242811</v>
-      </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="33">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11">
         <v>0.02</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="1">
         <f>'Count-&gt;Actual Activity'!F33</f>
-        <v>39.146000743058828</v>
-      </c>
-      <c r="N11" s="34">
+        <v>-4.9863554343643806</v>
+      </c>
+      <c r="N11" s="1">
         <f>'Count-&gt;Actual Activity'!G33</f>
-        <v>567.79850308782375</v>
-      </c>
-      <c r="O11" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="P11" s="33">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="Q11" s="33">
+        <v>74.035276446395159</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11">
         <f t="shared" si="0"/>
-        <v>2.5716654128242811E-2</v>
-      </c>
-      <c r="R11" s="33">
+        <v>0</v>
+      </c>
+      <c r="R11" t="e">
         <f t="shared" si="1"/>
-        <v>5.1433308256485625E-5</v>
-      </c>
-      <c r="S11" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
         <f t="shared" si="2"/>
-        <v>1304.8666914352943</v>
-      </c>
-      <c r="T11" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
         <f t="shared" si="3"/>
-        <v>18926.75171217525</v>
-      </c>
-      <c r="U11" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11">
         <f>Parameters!$B$6*'Bottle Results'!B11</f>
         <v>49.953426443216358</v>
       </c>
-      <c r="V11" s="33">
+      <c r="V11">
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.8486259533798084E-2</v>
       </c>
-      <c r="W11" s="33">
-        <f t="shared" ref="W11:W19" si="7">(U11-S11*O11)/G11</f>
-        <v>0.1080742570015753</v>
-      </c>
-      <c r="X11" s="33">
+      <c r="W11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>2.3297919246001962E-2</v>
       </c>
-      <c r="Y11" s="33">
+      <c r="Y11">
         <f t="shared" si="5"/>
-        <v>1579.3920343464026</v>
-      </c>
-      <c r="AA11" s="33" t="s">
+        <v>1665.1142147738788</v>
+      </c>
+      <c r="AA11" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AB11" s="33">
-        <f>S11*E11/U11</f>
-        <v>0.78364996218141969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="AB11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12">
         <v>2E-3</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12">
         <v>8.89</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="1">
         <v>0.03</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="21">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="1">
         <v>100</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="I12" s="34">
-        <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>0.25363929010379288</v>
-      </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="33">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12">
         <v>0.02</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="1">
         <f>'Count-&gt;Actual Activity'!F34</f>
-        <v>38.385098050344638</v>
-      </c>
-      <c r="N12" s="34">
+        <v>-4.9863554343643806</v>
+      </c>
+      <c r="N12" s="1">
         <f>'Count-&gt;Actual Activity'!G34</f>
-        <v>556.73647081686329</v>
-      </c>
-      <c r="O12" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="P12" s="33">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>74.035276446395159</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12">
         <f t="shared" si="0"/>
-        <v>2.5363929010379288E-2</v>
-      </c>
-      <c r="R12" s="33">
+        <v>0</v>
+      </c>
+      <c r="R12" t="e">
         <f t="shared" si="1"/>
-        <v>5.072785802075858E-5</v>
-      </c>
-      <c r="S12" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
         <f t="shared" si="2"/>
-        <v>1279.5032683448212</v>
-      </c>
-      <c r="T12" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
         <f t="shared" si="3"/>
-        <v>18558.014686229326</v>
-      </c>
-      <c r="U12" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12">
         <f>Parameters!$B$6*'Bottle Results'!B12</f>
         <v>49.953426443216358</v>
       </c>
-      <c r="V12" s="33">
+      <c r="V12">
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.8486259533798084E-2</v>
       </c>
-      <c r="W12" s="33">
-        <f t="shared" si="7"/>
-        <v>0.1156832839287172</v>
-      </c>
-      <c r="X12" s="33">
+      <c r="W12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>2.3297917690924E-2</v>
       </c>
-      <c r="Y12" s="33">
+      <c r="Y12">
         <f t="shared" si="5"/>
-        <v>1580.567784739281</v>
-      </c>
-      <c r="AA12" s="33" t="s">
+        <v>1665.1142147738788</v>
+      </c>
+      <c r="AA12" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AB12" s="33">
-        <f>S12*E12/U12</f>
-        <v>0.76841771993315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="AB12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13">
         <v>2E-3</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13">
         <v>8.92</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="1">
         <v>0.03</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="21">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="1">
         <v>100</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="I13" s="34">
-        <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>0.25911261089822724</v>
-      </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="33">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13">
         <v>10</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13">
         <v>0.02</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="1">
         <f>'Count-&gt;Actual Activity'!F35</f>
-        <v>39.146000743058828</v>
-      </c>
-      <c r="N13" s="34">
+        <v>-4.9863554343643806</v>
+      </c>
+      <c r="N13" s="1">
         <f>'Count-&gt;Actual Activity'!G35</f>
-        <v>567.79850308782375</v>
-      </c>
-      <c r="O13" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="P13" s="33">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="Q13" s="33">
+        <v>74.035276446395159</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13">
         <f t="shared" si="0"/>
-        <v>2.5911261089822724E-2</v>
-      </c>
-      <c r="R13" s="33">
+        <v>0</v>
+      </c>
+      <c r="R13" t="e">
         <f t="shared" si="1"/>
-        <v>5.182252217964545E-5</v>
-      </c>
-      <c r="S13" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
         <f t="shared" si="2"/>
-        <v>1304.8666914352943</v>
-      </c>
-      <c r="T13" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
         <f t="shared" si="3"/>
-        <v>18926.75171217525</v>
-      </c>
-      <c r="U13" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13">
         <f>Parameters!$B$6*'Bottle Results'!B13</f>
         <v>49.953426443216358</v>
       </c>
-      <c r="V13" s="33">
+      <c r="V13">
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.8486259533798084E-2</v>
       </c>
-      <c r="W13" s="33">
-        <f t="shared" si="7"/>
-        <v>0.1080742570015753</v>
-      </c>
-      <c r="X13" s="33">
+      <c r="W13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>2.3297920113197729E-2</v>
       </c>
-      <c r="Y13" s="33">
+      <c r="Y13">
         <f t="shared" si="5"/>
-        <v>1578.7433444744695</v>
-      </c>
-      <c r="AA13" s="33" t="s">
+        <v>1665.1142147738788</v>
+      </c>
+      <c r="AA13" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AB13" s="33">
-        <f>S13*E13/U13</f>
-        <v>0.78364996218141969</v>
+      <c r="AB13">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -6870,7 +6828,7 @@
         <v>3.165627094523759E-2</v>
       </c>
       <c r="W14" s="33">
-        <f t="shared" si="7"/>
+        <f>(U14-S14*O14)/G14</f>
         <v>0.21067607630596855</v>
       </c>
       <c r="X14" s="33">
@@ -6914,10 +6872,7 @@
       <c r="H15" s="34">
         <v>5</v>
       </c>
-      <c r="I15" s="34">
-        <f>'Count-&gt;Actual Activity'!F15</f>
-        <v>0.27480279717560635</v>
-      </c>
+      <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="33">
         <v>10</v>
@@ -6939,11 +6894,11 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="33">
         <f t="shared" si="0"/>
-        <v>2.7480279717560636E-2</v>
-      </c>
-      <c r="R15" s="33">
+        <v>0</v>
+      </c>
+      <c r="R15" s="33" t="e">
         <f t="shared" si="1"/>
-        <v>5.496055943512127E-5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S15" s="33">
         <f t="shared" si="2"/>
@@ -6962,7 +6917,7 @@
         <v>3.165627094523759E-2</v>
       </c>
       <c r="W15" s="33">
-        <f t="shared" si="7"/>
+        <f>(U15-S15*O15)/G15</f>
         <v>0.21067607630596855</v>
       </c>
       <c r="X15" s="33">
@@ -6970,15 +6925,15 @@
       </c>
       <c r="Y15" s="33">
         <f t="shared" si="5"/>
-        <v>3234.4173474345889</v>
+        <v>3326.0182798264577</v>
       </c>
       <c r="AA15" s="33">
         <f>(Q15*G15+S15*O15-U15)/U15</f>
-        <v>-0.1835987068978332</v>
+        <v>-0.21113942516371362</v>
       </c>
       <c r="AB15" s="33">
         <f t="shared" si="6"/>
-        <v>0.97245928173411955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -7006,10 +6961,7 @@
       <c r="H16" s="34">
         <v>5</v>
       </c>
-      <c r="I16" s="34">
-        <f>'Count-&gt;Actual Activity'!F16</f>
-        <v>0.28039774732102907</v>
-      </c>
+      <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="33">
         <v>10</v>
@@ -7031,11 +6983,11 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="33">
         <f t="shared" si="0"/>
-        <v>2.8039774732102906E-2</v>
-      </c>
-      <c r="R16" s="33">
+        <v>0</v>
+      </c>
+      <c r="R16" s="33" t="e">
         <f t="shared" si="1"/>
-        <v>5.6079549464205813E-5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S16" s="33">
         <f t="shared" si="2"/>
@@ -7054,7 +7006,7 @@
         <v>3.165627094523759E-2</v>
       </c>
       <c r="W16" s="33">
-        <f t="shared" si="7"/>
+        <f>(U16-S16*O16)/G16</f>
         <v>0.21067607630596855</v>
       </c>
       <c r="X16" s="33">
@@ -7062,7 +7014,7 @@
       </c>
       <c r="Y16" s="33">
         <f t="shared" si="5"/>
-        <v>3232.5523640527813</v>
+        <v>3326.0182798264577</v>
       </c>
       <c r="Z16" s="33"/>
       <c r="AA16" s="33" t="s">
@@ -7070,7 +7022,7 @@
       </c>
       <c r="AB16" s="33">
         <f>Y16*E16/U16</f>
-        <v>0.97189855619838827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -7151,8 +7103,8 @@
         <v>2.9125000570302848E-2</v>
       </c>
       <c r="W17" s="33">
-        <f t="shared" si="7"/>
-        <v>1.0187371518620041</v>
+        <f t="shared" si="4"/>
+        <v>6.6243553877254488E-2</v>
       </c>
       <c r="X17" s="33">
         <v>2.3298241351735846E-2</v>
@@ -7251,8 +7203,8 @@
         <v>2.9125000570302848E-2</v>
       </c>
       <c r="W18" s="33">
-        <f t="shared" si="7"/>
-        <v>1.3230982289476816</v>
+        <f t="shared" si="4"/>
+        <v>5.5199608807595779E-2</v>
       </c>
       <c r="X18" s="33">
         <v>2.3298125385430756E-2</v>
@@ -7351,8 +7303,8 @@
         <v>2.9125000570302848E-2</v>
       </c>
       <c r="W19" s="33">
-        <f t="shared" si="7"/>
-        <v>0.86655661331916523</v>
+        <f t="shared" si="4"/>
+        <v>5.4895535430127172E-2</v>
       </c>
       <c r="X19" s="33">
         <v>2.3298122491261654E-2</v>
@@ -7692,12 +7644,6 @@
       <c r="AB23" s="38">
         <f t="shared" si="6"/>
         <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X30">
-        <f>Y11*0.03</f>
-        <v>47.381761030392077</v>
       </c>
     </row>
   </sheetData>
@@ -7709,8 +7655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7866,27 +7812,27 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>0.1106105993106226</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>4.3930737446564849E-3</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!Y11:Y13)</f>
-        <v>1579.5677211867178</v>
+        <v>1665.1142147738785</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!Y11:Y13)</f>
-        <v>0.92482158785428159</v>
+        <v>2.7847474288855413E-13</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!AB11:AB13)</f>
-        <v>0.77857254809866328</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f>_xlfn.STDEV.S('Bottle Results'!AB11:AB13)</f>
-        <v>8.7943391624000951E-3</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -7911,19 +7857,19 @@
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!Y14:Y16)</f>
-        <v>3234.1605743602818</v>
+        <v>3295.8495237487973</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!Y14:Y16)</f>
-        <v>1.4964383382056994</v>
+        <v>52.253818327660468</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!AB14:AB16)</f>
-        <v>0.9723820803922435</v>
+        <v>0.99092946774807411</v>
       </c>
       <c r="G6">
         <f>_xlfn.STDEV.S('Bottle Results'!AB14:AB16)</f>
-        <v>4.4991885561248234E-4</v>
+        <v>1.571062271202759E-2</v>
       </c>
       <c r="H6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -7939,36 +7885,36 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <f>AVERAGE('Bottle Results'!W17:W19)</f>
-        <v>1.0694639980429503</v>
+        <f>AVERAGE('Bottle Results'!W17:W19,'Bottle Results'!W21)</f>
+        <v>4.4084674528744358E-2</v>
       </c>
       <c r="C7">
-        <f>_xlfn.STDEV.S('Bottle Results'!W17:W19)</f>
-        <v>0.23245961239056712</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!W17:W19,'Bottle Results'!W21)</f>
+        <v>2.9860179390728075E-2</v>
       </c>
       <c r="D7">
-        <f>AVERAGE('Bottle Results'!Y17:Y19)</f>
-        <v>13107.312902868782</v>
+        <f>AVERAGE('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
+        <v>13998.532901237906</v>
       </c>
       <c r="E7">
-        <f>_xlfn.STDEV.S('Bottle Results'!Y17:Y19)</f>
-        <v>774.8653746352262</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
+        <v>1891.3936416951028</v>
       </c>
       <c r="F7">
-        <f>AVERAGE('Bottle Results'!AB17:AB19)</f>
-        <v>0.78617809812781381</v>
+        <f>AVERAGE('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
+        <v>0.83963357359586033</v>
       </c>
       <c r="G7">
-        <f>_xlfn.STDEV.S('Bottle Results'!AB17:AB19)</f>
-        <v>4.6476512085286893E-2</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
+        <v>0.11344600278165595</v>
       </c>
       <c r="H7">
-        <f>AVERAGE('Bottle Results'!D17:D19)</f>
-        <v>8.913333333333334</v>
+        <f>AVERAGE('Bottle Results'!D17:D19,'Bottle Results'!D21)</f>
+        <v>8.9350000000000005</v>
       </c>
       <c r="I7">
-        <f>_xlfn.STDEV.S('Bottle Results'!D17:D19)</f>
-        <v>2.3094010767584539E-2</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!D17:D19,'Bottle Results'!D21)</f>
+        <v>4.7258156262525892E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">

--- a/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -2645,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A6" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,16 +3432,23 @@
       <c r="B33" s="19" t="s">
         <v>119</v>
       </c>
+      <c r="C33" s="21">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D33" s="21">
+        <f>3.8/100*C33</f>
+        <v>2.2040000000000002E-3</v>
+      </c>
       <c r="E33" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F33" s="1">
         <f>(C33-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
+        <v>39.146000743058828</v>
       </c>
       <c r="G33" s="22">
         <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F33-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+        <v>567.79850308782375</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3451,16 +3458,23 @@
       <c r="B34" s="19" t="s">
         <v>119</v>
       </c>
+      <c r="C34" s="21">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D34" s="21">
+        <f>3.2/100*C34</f>
+        <v>1.8240000000000001E-3</v>
+      </c>
       <c r="E34" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F34" s="1">
         <f>(C34-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
+        <v>38.385098050344638</v>
       </c>
       <c r="G34" s="22">
         <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F34-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+        <v>556.73647081686329</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3470,16 +3484,23 @@
       <c r="B35" s="19" t="s">
         <v>119</v>
       </c>
+      <c r="C35" s="21">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D35" s="21">
+        <f>3.6/100*C35</f>
+        <v>2.0880000000000004E-3</v>
+      </c>
       <c r="E35" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F35" s="1">
         <f>(C35-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
+        <v>39.146000743058828</v>
       </c>
       <c r="G35" s="22">
         <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F35-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+        <v>567.79850308782375</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -5568,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5848,7 +5869,7 @@
         <v>2.3297922254460427E-2</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y16" si="5">(U3-Q3*G3)/E3</f>
+        <f t="shared" ref="Y3:Y7" si="5">(U3-Q3*G3)/E3</f>
         <v>0</v>
       </c>
       <c r="AA3" t="s">
@@ -6288,7 +6309,7 @@
         <v>2.3297913974600508E-2</v>
       </c>
       <c r="Y8" s="33">
-        <f>S8</f>
+        <f t="shared" ref="Y8:Y19" si="7">S8</f>
         <v>239.60292163542371</v>
       </c>
       <c r="AA8" s="33">
@@ -6385,7 +6406,7 @@
         <v>2.3297916895026565E-2</v>
       </c>
       <c r="Y9" s="33">
-        <f>S9</f>
+        <f t="shared" si="7"/>
         <v>239.60292163542371</v>
       </c>
       <c r="AA9" s="33">
@@ -6482,7 +6503,7 @@
         <v>2.3297919570431896E-2</v>
       </c>
       <c r="Y10" s="33">
-        <f>S10</f>
+        <f t="shared" si="7"/>
         <v>214.23949854495061</v>
       </c>
       <c r="AA10" s="33">
@@ -6494,262 +6515,268 @@
         <v>0.64413205376649052</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="33">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="33">
         <v>2E-3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="33">
         <v>8.94</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="34">
         <v>0.03</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="35">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="34">
         <v>100</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="34">
         <v>5</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11">
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="33">
         <v>10</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="33">
         <v>0.02</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="34">
         <f>'Count-&gt;Actual Activity'!F33</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N11" s="1">
+        <v>39.146000743058828</v>
+      </c>
+      <c r="N11" s="34">
         <f>'Count-&gt;Actual Activity'!G33</f>
-        <v>74.035276446395159</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11">
+        <v>567.79850308782375</v>
+      </c>
+      <c r="O11" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" t="e">
+      <c r="R11" s="33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" t="e">
+      <c r="S11" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" t="e">
+        <v>1304.8666914352943</v>
+      </c>
+      <c r="T11" s="33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11">
+        <v>18926.616769594126</v>
+      </c>
+      <c r="U11" s="33">
         <f>Parameters!$B$6*'Bottle Results'!B11</f>
         <v>49.953426443216358</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="33">
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.8486259533798084E-2</v>
       </c>
-      <c r="W11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="W11" s="33">
+        <f t="shared" ref="W11:W19" si="8">(U11-S11*O11)/G11</f>
+        <v>0.1080742570015753</v>
+      </c>
+      <c r="X11" s="33">
         <v>2.3297919246001962E-2</v>
       </c>
-      <c r="Y11">
-        <f t="shared" si="5"/>
-        <v>1665.1142147738788</v>
-      </c>
-      <c r="AA11" s="38" t="s">
+      <c r="Y11" s="33">
+        <f t="shared" si="7"/>
+        <v>1304.8666914352943</v>
+      </c>
+      <c r="AA11" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="33">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+        <v>0.78364996218141969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="33">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="33">
         <v>2E-3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="33">
         <v>8.89</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="34">
         <v>0.03</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="35">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="34">
         <v>100</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="34">
         <v>5</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12">
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="33">
         <v>10</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="33">
         <v>0.02</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="34">
         <f>'Count-&gt;Actual Activity'!F34</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N12" s="1">
+        <v>38.385098050344638</v>
+      </c>
+      <c r="N12" s="34">
         <f>'Count-&gt;Actual Activity'!G34</f>
-        <v>74.035276446395159</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12">
+        <v>556.73647081686329</v>
+      </c>
+      <c r="O12" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" t="e">
+      <c r="R12" s="33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" t="e">
+      <c r="S12" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" t="e">
+        <v>1279.5032683448212</v>
+      </c>
+      <c r="T12" s="33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12">
+        <v>18557.882360562107</v>
+      </c>
+      <c r="U12" s="33">
         <f>Parameters!$B$6*'Bottle Results'!B12</f>
         <v>49.953426443216358</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="33">
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.8486259533798084E-2</v>
       </c>
-      <c r="W12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="W12" s="33">
+        <f t="shared" si="8"/>
+        <v>0.1156832839287172</v>
+      </c>
+      <c r="X12" s="33">
         <v>2.3297917690924E-2</v>
       </c>
-      <c r="Y12">
-        <f t="shared" si="5"/>
-        <v>1665.1142147738788</v>
-      </c>
-      <c r="AA12" s="38" t="s">
+      <c r="Y12" s="33">
+        <f t="shared" si="7"/>
+        <v>1279.5032683448212</v>
+      </c>
+      <c r="AA12" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="33">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+        <v>0.76841771993315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="33">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="33">
         <v>2E-3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="33">
         <v>8.92</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="34">
         <v>0.03</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="35">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="34">
         <v>100</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="34">
         <v>5</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13">
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="33">
         <v>10</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="33">
         <v>0.02</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="34">
         <f>'Count-&gt;Actual Activity'!F35</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N13" s="1">
+        <v>39.146000743058828</v>
+      </c>
+      <c r="N13" s="34">
         <f>'Count-&gt;Actual Activity'!G35</f>
-        <v>74.035276446395159</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13">
+        <v>567.79850308782375</v>
+      </c>
+      <c r="O13" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R13" t="e">
+      <c r="R13" s="33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S13" t="e">
+      <c r="S13" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" t="e">
+        <v>1304.8666914352943</v>
+      </c>
+      <c r="T13" s="33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13">
+        <v>18926.616769594126</v>
+      </c>
+      <c r="U13" s="33">
         <f>Parameters!$B$6*'Bottle Results'!B13</f>
         <v>49.953426443216358</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="33">
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.8486259533798084E-2</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="W13" s="33">
+        <f t="shared" si="8"/>
+        <v>0.1080742570015753</v>
+      </c>
+      <c r="X13" s="33">
         <v>2.3297920113197729E-2</v>
       </c>
-      <c r="Y13">
-        <f t="shared" si="5"/>
-        <v>1665.1142147738788</v>
-      </c>
-      <c r="AA13" s="38" t="s">
+      <c r="Y13" s="33">
+        <f t="shared" si="7"/>
+        <v>1304.8666914352943</v>
+      </c>
+      <c r="AA13" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="33">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.78364996218141969</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -6828,15 +6855,15 @@
         <v>3.165627094523759E-2</v>
       </c>
       <c r="W14" s="33">
-        <f>(U14-S14*O14)/G14</f>
+        <f t="shared" si="8"/>
         <v>0.21067607630596855</v>
       </c>
       <c r="X14" s="33">
         <v>2.3297925795726985E-2</v>
       </c>
       <c r="Y14" s="33">
-        <f t="shared" si="5"/>
-        <v>3235.512011593476</v>
+        <f t="shared" si="7"/>
+        <v>2623.7646921398959</v>
       </c>
       <c r="AA14" s="33">
         <f>(Q14*G14+S14*O14-U14)/U14</f>
@@ -6844,7 +6871,7 @@
       </c>
       <c r="AB14" s="33">
         <f t="shared" si="6"/>
-        <v>0.97278840324422267</v>
+        <v>0.78886057483628635</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -6917,15 +6944,15 @@
         <v>3.165627094523759E-2</v>
       </c>
       <c r="W15" s="33">
-        <f>(U15-S15*O15)/G15</f>
+        <f t="shared" si="8"/>
         <v>0.21067607630596855</v>
       </c>
       <c r="X15" s="33">
         <v>2.329792734453592E-2</v>
       </c>
       <c r="Y15" s="33">
-        <f t="shared" si="5"/>
-        <v>3326.0182798264577</v>
+        <f t="shared" si="7"/>
+        <v>2623.7646921398959</v>
       </c>
       <c r="AA15" s="33">
         <f>(Q15*G15+S15*O15-U15)/U15</f>
@@ -6933,7 +6960,7 @@
       </c>
       <c r="AB15" s="33">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.78886057483628635</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -7006,15 +7033,15 @@
         <v>3.165627094523759E-2</v>
       </c>
       <c r="W16" s="33">
-        <f>(U16-S16*O16)/G16</f>
+        <f t="shared" si="8"/>
         <v>0.21067607630596855</v>
       </c>
       <c r="X16" s="33">
         <v>2.3297930026256426E-2</v>
       </c>
       <c r="Y16" s="33">
-        <f t="shared" si="5"/>
-        <v>3326.0182798264577</v>
+        <f t="shared" si="7"/>
+        <v>2623.7646921398959</v>
       </c>
       <c r="Z16" s="33"/>
       <c r="AA16" s="33" t="s">
@@ -7022,7 +7049,7 @@
       </c>
       <c r="AB16" s="33">
         <f>Y16*E16/U16</f>
-        <v>1</v>
+        <v>0.78886057483628635</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -7103,14 +7130,14 @@
         <v>2.9125000570302848E-2</v>
       </c>
       <c r="W17" s="33">
-        <f t="shared" si="4"/>
-        <v>6.6243553877254488E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.0187371518620041</v>
       </c>
       <c r="X17" s="33">
         <v>2.3298241351735846E-2</v>
       </c>
       <c r="Y17" s="33">
-        <f>S17</f>
+        <f t="shared" si="7"/>
         <v>13276.402390138603</v>
       </c>
       <c r="Z17" s="33">
@@ -7203,14 +7230,14 @@
         <v>2.9125000570302848E-2</v>
       </c>
       <c r="W18" s="33">
-        <f t="shared" si="4"/>
-        <v>5.5199608807595779E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.3230982289476816</v>
       </c>
       <c r="X18" s="33">
         <v>2.3298125385430756E-2</v>
       </c>
       <c r="Y18" s="33">
-        <f>S18</f>
+        <f t="shared" si="7"/>
         <v>12261.865466519677</v>
       </c>
       <c r="Z18" s="33">
@@ -7303,14 +7330,14 @@
         <v>2.9125000570302848E-2</v>
       </c>
       <c r="W19" s="33">
-        <f t="shared" si="4"/>
-        <v>5.4895535430127172E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.86655661331916523</v>
       </c>
       <c r="X19" s="33">
         <v>2.3298122491261654E-2</v>
       </c>
       <c r="Y19" s="33">
-        <f>S19</f>
+        <f t="shared" si="7"/>
         <v>13783.670851948065</v>
       </c>
       <c r="AA19" s="33">
@@ -7434,7 +7461,10 @@
       <c r="H21" s="39">
         <v>5</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="39">
+        <f>'Count-&gt;Actual Activity'!F20</f>
+        <v>1.0942501421156658</v>
+      </c>
       <c r="J21" s="39"/>
       <c r="K21" s="38">
         <v>10</v>
@@ -7442,14 +7472,8 @@
       <c r="L21" s="38">
         <v>0.02</v>
       </c>
-      <c r="M21" s="39">
-        <f>'Count-&gt;Actual Activity'!F43</f>
-        <v>-0.49702954735064037</v>
-      </c>
-      <c r="N21" s="39">
-        <f>'Count-&gt;Actual Activity'!G43</f>
-        <v>10.045075299214339</v>
-      </c>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="38">
         <v>0.03</v>
       </c>
@@ -7458,11 +7482,11 @@
       </c>
       <c r="Q21" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="38" t="e">
+        <v>0.10942501421156658</v>
+      </c>
+      <c r="R21" s="38">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.1885002842313318E-4</v>
       </c>
       <c r="U21" s="38">
         <f>Parameters!$B$6*'Bottle Results'!B21</f>
@@ -7474,18 +7498,18 @@
       </c>
       <c r="W21" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.10942501421156658</v>
       </c>
       <c r="X21" s="38">
         <v>2.3298893977915368E-2</v>
       </c>
       <c r="Y21" s="38">
         <f>(U21-Q21*G21)/E21</f>
-        <v>16672.192896345281</v>
+        <v>16307.442848973395</v>
       </c>
       <c r="AB21" s="38">
         <f t="shared" si="6"/>
-        <v>0.99999999999999989</v>
+        <v>0.97812225124555485</v>
       </c>
     </row>
     <row r="22" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -7655,8 +7679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7812,27 +7836,27 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>0</v>
+        <v>0.1106105993106226</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>0</v>
+        <v>4.3930737446564849E-3</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!Y11:Y13)</f>
-        <v>1665.1142147738785</v>
+        <v>1296.4122170718033</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!Y11:Y13)</f>
-        <v>2.7847474288855413E-13</v>
+        <v>14.643579148855034</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!AB11:AB13)</f>
-        <v>1</v>
+        <v>0.77857254809866328</v>
       </c>
       <c r="G5">
         <f>_xlfn.STDEV.S('Bottle Results'!AB11:AB13)</f>
-        <v>0</v>
+        <v>8.7943391624000951E-3</v>
       </c>
       <c r="H5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -7857,19 +7881,19 @@
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!Y14:Y16)</f>
-        <v>3295.8495237487973</v>
+        <v>2623.7646921398959</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!Y14:Y16)</f>
-        <v>52.253818327660468</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!AB14:AB16)</f>
-        <v>0.99092946774807411</v>
+        <v>0.78886057483628635</v>
       </c>
       <c r="G6">
         <f>_xlfn.STDEV.S('Bottle Results'!AB14:AB16)</f>
-        <v>1.571062271202759E-2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -7886,27 +7910,27 @@
       </c>
       <c r="B7">
         <f>AVERAGE('Bottle Results'!W17:W19,'Bottle Results'!W21)</f>
-        <v>4.4084674528744358E-2</v>
+        <v>0.82945425208510437</v>
       </c>
       <c r="C7">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W19,'Bottle Results'!W21)</f>
-        <v>2.9860179390728075E-2</v>
+        <v>0.51618184155151592</v>
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>13998.532901237906</v>
+        <v>13907.345389394934</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>1891.3936416951028</v>
+        <v>1720.6061385050698</v>
       </c>
       <c r="F7">
         <f>AVERAGE('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>0.83963357359586033</v>
+        <v>0.83416413640724907</v>
       </c>
       <c r="G7">
         <f>_xlfn.STDEV.S('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>0.11344600278165595</v>
+        <v>0.10320214918352018</v>
       </c>
       <c r="H7">
         <f>AVERAGE('Bottle Results'!D17:D19,'Bottle Results'!D21)</f>

--- a/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Scintillation Counter Results" sheetId="3" r:id="rId2"/>
     <sheet name="Count-&gt;Actual Activity" sheetId="2" r:id="rId3"/>
-    <sheet name="Calibration data" sheetId="7" r:id="rId4"/>
+    <sheet name="Calibration Data" sheetId="7" r:id="rId4"/>
     <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
     <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
   </sheets>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="147">
   <si>
     <t>Parameters</t>
   </si>
@@ -259,21 +259,12 @@
     <t>Known Activity (uCi)</t>
   </si>
   <si>
-    <t>Known-Average</t>
-  </si>
-  <si>
     <t>Gamma Counter Calculated Activity</t>
   </si>
   <si>
     <t>Scint Counter Calculated Activity (Bq)</t>
   </si>
   <si>
-    <t>Squared Actual Activity Variation from Average</t>
-  </si>
-  <si>
-    <t>Error (Bq)</t>
-  </si>
-  <si>
     <t>Background</t>
   </si>
   <si>
@@ -283,15 +274,6 @@
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
-    <t>Counter CPS-&gt;Activity (Bq)</t>
-  </si>
-  <si>
-    <t>DOES NOT INCLUDE BACKGROUND</t>
-  </si>
-  <si>
-    <t>Activity (Bq) - &gt; Counter CPS</t>
-  </si>
-  <si>
     <t>Regression Statistics</t>
   </si>
   <si>
@@ -313,9 +295,6 @@
     <t>ANOVA</t>
   </si>
   <si>
-    <t>Std dev of residuals</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -382,9 +361,6 @@
     <t>Parsons Gamma Counter</t>
   </si>
   <si>
-    <t>Gamma Counter CPS-&gt;Bq</t>
-  </si>
-  <si>
     <t>Total Volume (mL)</t>
   </si>
   <si>
@@ -484,9 +460,6 @@
     <t>500_A_T1</t>
   </si>
   <si>
-    <t>USE FOR Bq-&gt;CPS</t>
-  </si>
-  <si>
     <t>Solution activity (Bq)</t>
   </si>
   <si>
@@ -569,6 +542,18 @@
   </si>
   <si>
     <t>Gamma</t>
+  </si>
+  <si>
+    <t>(Known-Average)^2</t>
+  </si>
+  <si>
+    <t>RaStock5</t>
+  </si>
+  <si>
+    <t>RaStock4</t>
+  </si>
+  <si>
+    <t>CPS-&gt;Bq No background</t>
   </si>
 </sst>
 </file>
@@ -578,7 +563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,14 +583,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -670,7 +647,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -697,30 +674,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,65 +699,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -812,30 +737,38 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,7 +1051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1170,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,10 +1121,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>631.52245819489701</v>
+        <v>341.69636021701456</v>
       </c>
       <c r="C6">
-        <v>0.53167165791808602</v>
+        <v>0.1278314405168707</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1237,11 +1172,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="19">
         <v>42438.435416666667</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>317.5</v>
@@ -1257,11 +1192,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="19">
         <v>42438.435416666667</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>522.79999999999995</v>
@@ -1277,11 +1212,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="19">
         <v>42438.435416666667</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>512.1</v>
@@ -1297,11 +1232,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="19">
         <v>42438.435416666667</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C5">
         <v>338.4</v>
@@ -1317,11 +1252,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="19">
         <v>42439.461111111108</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C6">
         <v>294.60000000000002</v>
@@ -1337,11 +1272,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="19">
         <v>42439.461111111108</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C7">
         <v>523.5</v>
@@ -1357,11 +1292,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="19">
         <v>42439.461111111108</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>524.29999999999995</v>
@@ -1377,11 +1312,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="19">
         <v>42439.461111111108</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <v>345.8</v>
@@ -1397,11 +1332,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="19">
         <v>42447.404861111114</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C10">
         <v>293.2</v>
@@ -1417,11 +1352,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="19">
         <v>42447.404861111114</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C11">
         <v>508.5</v>
@@ -1437,11 +1372,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="19">
         <v>42447.404861111114</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>506.3</v>
@@ -1457,11 +1392,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="19">
         <v>42447.404861111114</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>339.3</v>
@@ -1477,11 +1412,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C14">
         <v>303.8</v>
@@ -1497,11 +1432,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C15">
         <v>512.1</v>
@@ -1517,11 +1452,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="A16" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C16">
         <v>515.1</v>
@@ -1537,11 +1472,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="A17" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C17">
         <v>341.6</v>
@@ -1557,11 +1492,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="A18" s="19">
         <v>42374.613888888889</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>96</v>
+      <c r="B18" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="C18">
         <v>74.400000000000006</v>
@@ -1577,11 +1512,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C19">
         <v>78.3</v>
@@ -1597,11 +1532,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C20">
         <v>68.2</v>
@@ -1617,11 +1552,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C21">
         <v>65.599999999999994</v>
@@ -1637,11 +1572,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C22">
         <v>72.2</v>
@@ -1657,11 +1592,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C23">
         <v>67.2</v>
@@ -1677,11 +1612,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C24">
         <v>66.7</v>
@@ -1697,11 +1632,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>68.7</v>
@@ -1717,11 +1652,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C26">
         <v>73.599999999999994</v>
@@ -1737,11 +1672,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C27">
         <v>70.8</v>
@@ -1757,11 +1692,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+      <c r="A28" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C28">
         <v>74.7</v>
@@ -1777,11 +1712,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C29">
         <v>71.8</v>
@@ -1797,11 +1732,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="A30" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>76.7</v>
@@ -1817,11 +1752,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C31">
         <v>72.5</v>
@@ -1837,11 +1772,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C32">
         <v>80.5</v>
@@ -1857,11 +1792,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C33">
         <v>186.5</v>
@@ -1877,11 +1812,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="A34" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C34">
         <v>151.30000000000001</v>
@@ -1897,11 +1832,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+      <c r="A35" s="19">
         <v>42374.613888888889</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C35">
         <v>156</v>
@@ -1917,11 +1852,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+      <c r="A36" s="19">
         <v>42382.73333333333</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>96</v>
+      <c r="B36" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="C36">
         <v>73.400000000000006</v>
@@ -1937,11 +1872,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
+      <c r="A37" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>73.8</v>
@@ -1957,11 +1892,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
+      <c r="A38" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>69.5</v>
@@ -1977,11 +1912,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="A39" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C39">
         <v>72.8</v>
@@ -1997,11 +1932,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
+      <c r="A40" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C40">
         <v>78.099999999999994</v>
@@ -2017,11 +1952,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
+      <c r="A41" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C41">
         <v>67.8</v>
@@ -2037,11 +1972,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="29">
+      <c r="A42" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C42">
         <v>70.900000000000006</v>
@@ -2057,11 +1992,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
+      <c r="A43" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C43">
         <v>74.5</v>
@@ -2077,11 +2012,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
+      <c r="A44" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>73.599999999999994</v>
@@ -2097,11 +2032,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="29">
+      <c r="A45" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>75.400000000000006</v>
@@ -2117,11 +2052,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
+      <c r="A46" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C46">
         <v>73</v>
@@ -2137,11 +2072,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29">
+      <c r="A47" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>74.2</v>
@@ -2157,11 +2092,11 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="29">
+      <c r="A48" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>78.7</v>
@@ -2177,11 +2112,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="29">
+      <c r="A49" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C49">
         <v>78.599999999999994</v>
@@ -2197,11 +2132,11 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
+      <c r="A50" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C50">
         <v>78.599999999999994</v>
@@ -2217,11 +2152,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="29">
+      <c r="A51" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C51">
         <v>179.1</v>
@@ -2237,11 +2172,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="29">
+      <c r="A52" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C52">
         <v>163.19999999999999</v>
@@ -2257,11 +2192,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="29">
+      <c r="A53" s="19">
         <v>42382.73333333333</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C53">
         <v>159</v>
@@ -2277,11 +2212,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="29">
+      <c r="A54" s="19">
         <v>42381.317361111112</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>96</v>
+      <c r="B54" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="C54">
         <v>70.099999999999994</v>
@@ -2297,11 +2232,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
+      <c r="A55" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C55">
         <v>72</v>
@@ -2317,11 +2252,11 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="29">
+      <c r="A56" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C56">
         <v>73.7</v>
@@ -2337,11 +2272,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="29">
+      <c r="A57" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C57">
         <v>73.7</v>
@@ -2357,11 +2292,11 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="29">
+      <c r="A58" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C58">
         <v>68.400000000000006</v>
@@ -2377,11 +2312,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="29">
+      <c r="A59" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C59">
         <v>71.099999999999994</v>
@@ -2397,11 +2332,11 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="29">
+      <c r="A60" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C60">
         <v>71</v>
@@ -2417,11 +2352,11 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="29">
+      <c r="A61" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C61">
         <v>71</v>
@@ -2437,11 +2372,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="29">
+      <c r="A62" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C62">
         <v>72</v>
@@ -2457,11 +2392,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="29">
+      <c r="A63" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C63">
         <v>72.400000000000006</v>
@@ -2477,11 +2412,11 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="29">
+      <c r="A64" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C64">
         <v>68</v>
@@ -2497,11 +2432,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="29">
+      <c r="A65" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C65">
         <v>74.2</v>
@@ -2517,11 +2452,11 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="29">
+      <c r="A66" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C66">
         <v>75</v>
@@ -2537,11 +2472,11 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="29">
+      <c r="A67" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C67">
         <v>82</v>
@@ -2557,11 +2492,11 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="29">
+      <c r="A68" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C68">
         <v>78.599999999999994</v>
@@ -2577,11 +2512,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="29">
+      <c r="A69" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C69">
         <v>186.2</v>
@@ -2597,11 +2532,11 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="29">
+      <c r="A70" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C70">
         <v>146.5</v>
@@ -2617,11 +2552,11 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="29">
+      <c r="A71" s="19">
         <v>42381.317361111112</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C71">
         <v>143.5</v>
@@ -2645,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="79" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,7 +2600,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -2674,21 +2609,21 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>118</v>
+      <c r="A2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1.21055555555556</v>
@@ -2697,23 +2632,23 @@
         <v>8.9823222222222193E-2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1">
-        <f>(C2-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.25631513582551807</v>
-      </c>
-      <c r="G2" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F2-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23940014994890288</v>
+        <f>(C2-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.13863585962890326</v>
+      </c>
+      <c r="G2" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F2-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1266475721979699</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>118</v>
+      <c r="A3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C3">
         <v>1.2450000000000001</v>
@@ -2722,23 +2657,23 @@
         <v>9.1134000000000007E-2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1">
-        <f>(C3-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.26385615558673775</v>
-      </c>
-      <c r="G3" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F3-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23939982937100118</v>
+        <f>(C3-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.14271465019157553</v>
+      </c>
+      <c r="G3" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F3-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664753145957777</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>118</v>
+      <c r="A4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C4">
         <v>1.17444444444444</v>
@@ -2747,23 +2682,23 @@
         <v>8.8553111111111096E-2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1">
-        <f>(C4-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.24840922801133319</v>
-      </c>
-      <c r="G4" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F4-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23940048604688668</v>
+        <f>(C4-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.13435970823255169</v>
+      </c>
+      <c r="G4" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F4-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664761490896947</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>118</v>
+      <c r="A5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C5">
         <v>1.1783333333333299</v>
@@ -2772,23 +2707,23 @@
         <v>8.8728500000000002E-2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1">
-        <f>(C5-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.24926063346824545</v>
-      </c>
-      <c r="G5" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F5-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23940044985131351</v>
+        <f>(C5-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.13482021684446649</v>
+      </c>
+      <c r="G5" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F5-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664761030925478</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>118</v>
+      <c r="A6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C6">
         <v>1.2150000000000001</v>
@@ -2797,23 +2732,23 @@
         <v>9.0112499999999998E-2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1">
-        <f>(C6-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.25728817063341652</v>
-      </c>
-      <c r="G6" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F6-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23940010858358068</v>
+        <f>(C6-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.13916215518537664</v>
+      </c>
+      <c r="G6" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F6-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1266475669413302</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>118</v>
+      <c r="A7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C7">
         <v>1.145</v>
@@ -2822,23 +2757,23 @@
         <v>8.74016666666666E-2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F7" s="1">
-        <f>(C7-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.24196287240900044</v>
-      </c>
-      <c r="G7" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F7-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23940076010226077</v>
+        <f>(C7-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.13087300017091258</v>
+      </c>
+      <c r="G7" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F7-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664764973591827</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>118</v>
+      <c r="A8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C8">
         <v>1.15888888888889</v>
@@ -2847,23 +2782,23 @@
         <v>8.7921037037037006E-2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F8" s="1">
-        <f>(C8-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.24500360618368641</v>
-      </c>
-      <c r="G8" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F8-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23940063083015847</v>
+        <f>(C8-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.13251767378489365</v>
+      </c>
+      <c r="G8" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F8-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664763330799395</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>118</v>
+      <c r="A9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C9">
         <v>1.19</v>
@@ -2872,23 +2807,23 @@
         <v>8.9131000000000002E-2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F9" s="1">
-        <f>(C9-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.25181484983898222</v>
-      </c>
-      <c r="G9" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F9-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23940034126518156</v>
+        <f>(C9-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.13620174268021087</v>
+      </c>
+      <c r="G9" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F9-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664759651021001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>118</v>
+      <c r="A10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C10">
         <v>1.2177777777777801</v>
@@ -2897,23 +2832,23 @@
         <v>9.0074962962962996E-2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F10" s="1">
-        <f>(C10-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.25789631738835417</v>
-      </c>
-      <c r="G10" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F10-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23940008273031926</v>
+        <f>(C10-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.1394910899081731</v>
+      </c>
+      <c r="G10" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F10-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664756365594135</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>118</v>
+      <c r="A11" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C11">
         <v>1.21444444444444</v>
@@ -2922,23 +2857,23 @@
         <v>8.9990333333333297E-2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1">
-        <f>(C11-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.25716654128242811</v>
-      </c>
-      <c r="G11" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F11-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23940011375423897</v>
+        <f>(C11-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.13909636824081686</v>
+      </c>
+      <c r="G11" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F11-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664756759840898</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>118</v>
+      <c r="A12" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C12">
         <v>1.1983333333333299</v>
@@ -2947,23 +2882,23 @@
         <v>8.9435611111111105E-2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F12" s="1">
-        <f>(C12-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.25363929010379288</v>
-      </c>
-      <c r="G12" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F12-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23940026370419831</v>
+        <f>(C12-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.13718854684859907</v>
+      </c>
+      <c r="G12" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F12-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664758665384068</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>118</v>
+      <c r="A13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C13">
         <v>1.2233333333333301</v>
@@ -2972,23 +2907,23 @@
         <v>9.0282000000000001E-2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F13" s="1">
-        <f>(C13-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.25911261089822724</v>
-      </c>
-      <c r="G13" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F13-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23940003102394627</v>
+        <f>(C13-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.14014895935376481</v>
+      </c>
+      <c r="G13" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F13-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664755708518899</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>118</v>
+      <c r="A14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C14">
         <v>1.28</v>
@@ -2997,23 +2932,23 @@
         <v>9.2373333333333293E-2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F14" s="1">
-        <f>(C14-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.27151880469894579</v>
-      </c>
-      <c r="G14" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F14-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23939950363035681</v>
+        <f>(C14-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.14685922769880755</v>
+      </c>
+      <c r="G14" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F14-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664749006544551</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>118</v>
+      <c r="A15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C15">
         <v>1.2949999999999999</v>
@@ -3022,23 +2957,23 @@
         <v>9.2980999999999994E-2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F15" s="1">
-        <f>(C15-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.27480279717560635</v>
-      </c>
-      <c r="G15" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F15-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23939936402965151</v>
+        <f>(C15-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.14863547520190695</v>
+      </c>
+      <c r="G15" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F15-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664747232551371</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="C16">
         <v>1.3205555555555599</v>
@@ -3047,23 +2982,23 @@
         <v>9.3838677777777796E-2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F16" s="1">
-        <f>(C16-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.28039774732102907</v>
-      </c>
-      <c r="G16" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F16-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23939912619476814</v>
+        <f>(C16-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.15166167465163247</v>
+      </c>
+      <c r="G16" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F16-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664744210249368</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>118</v>
+      <c r="A17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C17">
         <v>3.06555555555556</v>
@@ -3072,23 +3007,23 @@
         <v>0.14295707407407399</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1">
-        <f>(C17-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.66243553877254491</v>
-      </c>
-      <c r="G17" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F17-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23938289621143691</v>
+        <f>(C17-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.35829846751220068</v>
+      </c>
+      <c r="G17" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F17-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664538008742116</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>118</v>
+      <c r="A18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C18">
         <v>2.56111111111111</v>
@@ -3097,23 +3032,23 @@
         <v>0.13078740740740699</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F18" s="1">
-        <f>(C18-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.55199608807595779</v>
-      </c>
-      <c r="G18" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F18-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23938758594741139</v>
+        <f>(C18-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.29856392185241143</v>
+      </c>
+      <c r="G18" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F18-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1266459758319273</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>118</v>
+      <c r="A19" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C19">
         <v>2.5472222222222198</v>
@@ -3122,23 +3057,23 @@
         <v>0.13041777777777799</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F19" s="1">
-        <f>(C19-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>0.54895535430127174</v>
-      </c>
-      <c r="G19" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F19-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23938771509340789</v>
+        <f>(C19-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.2969192482384303</v>
+      </c>
+      <c r="G19" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F19-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664599223852602</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>118</v>
+      <c r="A20" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C20">
         <v>5.0379166666666704</v>
@@ -3147,23 +3082,23 @@
         <v>0.18325421875</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1">
-        <f>(C20-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>1.0942501421156658</v>
-      </c>
-      <c r="G20" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F20-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23936457531794972</v>
+        <f>(C20-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.59185856743363718</v>
+      </c>
+      <c r="G20" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F20-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664305342085061</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>118</v>
+      <c r="A21" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C21">
         <v>8.6120833333333309</v>
@@ -3172,23 +3107,23 @@
         <v>0.23941591666666701</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F21" s="1">
-        <f>(C21-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>1.8767525716932918</v>
-      </c>
-      <c r="G21" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F21-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23933143976254462</v>
+        <f>(C21-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>1.0150988752554975</v>
+      </c>
+      <c r="G21" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F21-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12663884806303111</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>118</v>
+      <c r="A22" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C22">
         <v>8.5741666666666703</v>
@@ -3197,23 +3132,23 @@
         <v>0.23900489583333301</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F22" s="1">
-        <f>(C22-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>1.868451368488401</v>
-      </c>
-      <c r="G22" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F22-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23933179084780792</v>
+        <f>(C22-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>1.0106089162893301</v>
+      </c>
+      <c r="G22" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F22-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12663889260228808</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>118</v>
+      <c r="A23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C23">
         <v>5.6879166666666698</v>
@@ -3222,293 +3157,293 @@
         <v>0.194668947916667</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F23" s="1">
-        <f>(C23-'Calibration data'!$L$30)/'Calibration data'!$L$31</f>
-        <v>1.2365564827709583</v>
-      </c>
-      <c r="G23" s="22">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F23-AVERAGE('Calibration data'!$D$3:$D$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23935854310984864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="1">
-        <f>(C24-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="G24" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!L65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F24-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+        <f>(C23-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.66882929256794621</v>
+      </c>
+      <c r="G23" s="16">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F23-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664228759128809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="1" t="e">
+        <f>(C24-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!L65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F24-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="1">
-        <f>(C25-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="G25" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F25-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+      <c r="A25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f>(C25-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F25-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="1">
-        <f>(C26-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="G26" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F26-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+      <c r="A26" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="1" t="e">
+        <f>(C26-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F26-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="1">
-        <f>(C27-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="G27" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F27-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+      <c r="A27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="1" t="e">
+        <f>(C27-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F27-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="1">
-        <f>(C28-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="G28" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F28-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+      <c r="A28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="1" t="e">
+        <f>(C28-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F28-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="1">
-        <f>(C29-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="G29" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F29-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>74.035276446395159</v>
+      <c r="A29" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="1" t="e">
+        <f>(C29-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F29-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="21">
+      <c r="A30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="15">
         <f>0.052*C30</f>
         <v>8.3199999999999995E-4</v>
       </c>
-      <c r="E30" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="1">
-        <f>(C30-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>7.1880876490627115</v>
-      </c>
-      <c r="G30" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F30-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>103.2811274942794</v>
+      <c r="E30" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="1" t="e">
+        <f>(C30-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F30-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="21">
+      <c r="A31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="15">
         <f>0.045*C31</f>
         <v>7.1999999999999994E-4</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="1">
-        <f>(C31-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>7.1880876490627115</v>
-      </c>
-      <c r="G31" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F31-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>103.2811274942794</v>
+      <c r="E31" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f>(C31-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F31-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="21">
+      <c r="A32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="15">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="15">
         <f>0.064*C32</f>
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="E32" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="1">
-        <f>(C32-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>6.4271849563485182</v>
-      </c>
-      <c r="G32" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F32-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>92.234451910874</v>
+      <c r="E32" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="1" t="e">
+        <f>(C32-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F32-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="21">
+      <c r="A33" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="15">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="15">
         <f>3.8/100*C33</f>
         <v>2.2040000000000002E-3</v>
       </c>
-      <c r="E33" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="1">
-        <f>(C33-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>39.146000743058828</v>
-      </c>
-      <c r="G33" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F33-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>567.79850308782375</v>
+      <c r="E33" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="1" t="e">
+        <f>(C33-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F33-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="21">
+      <c r="A34" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="15">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="15">
         <f>3.2/100*C34</f>
         <v>1.8240000000000001E-3</v>
       </c>
-      <c r="E34" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="1">
-        <f>(C34-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>38.385098050344638</v>
-      </c>
-      <c r="G34" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F34-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>556.73647081686329</v>
+      <c r="E34" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="1" t="e">
+        <f>(C34-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F34-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="21">
+      <c r="A35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="15">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="15">
         <f>3.6/100*C35</f>
         <v>2.0880000000000004E-3</v>
       </c>
-      <c r="E35" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="1">
-        <f>(C35-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>39.146000743058828</v>
-      </c>
-      <c r="G35" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F35-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>567.79850308782375</v>
+      <c r="E35" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="1" t="e">
+        <f>(C35-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F35-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>119</v>
+      <c r="A36" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="C36">
         <v>0.11</v>
@@ -3517,24 +3452,24 @@
         <f>2.7/100*C36</f>
         <v>2.9700000000000004E-3</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" s="1">
-        <f>(C36-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>78.712940764196873</v>
-      </c>
-      <c r="G36" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F36-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>1143.0368988343</v>
+      <c r="E36" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="1" t="e">
+        <f>(C36-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F36-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>119</v>
+      <c r="A37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="C37">
         <v>0.11</v>
@@ -3543,24 +3478,24 @@
         <f>2.1/100*C37</f>
         <v>2.31E-3</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="1">
-        <f>(C37-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>78.712940764196873</v>
-      </c>
-      <c r="G37" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F37-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>1143.0368988343</v>
+      <c r="E37" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="1" t="e">
+        <f>(C37-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F37-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>119</v>
+      <c r="A38" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="C38">
         <v>0.11</v>
@@ -3569,24 +3504,24 @@
         <f>C38*0.023</f>
         <v>2.5300000000000001E-3</v>
       </c>
-      <c r="E38" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="1">
-        <f>(C38-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>78.712940764196873</v>
-      </c>
-      <c r="G38" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F38-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>1143.0368988343</v>
+      <c r="E38" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="1" t="e">
+        <f>(C38-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F38-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="C39">
         <v>0.53</v>
@@ -3595,24 +3530,24 @@
         <f>0.01*C39</f>
         <v>5.3E-3</v>
       </c>
-      <c r="E39" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="1">
-        <f>(C39-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>398.29207170415805</v>
-      </c>
-      <c r="G39" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F39-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>5789.281144766288</v>
+      <c r="E39" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="1" t="e">
+        <f>(C39-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F39-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>119</v>
+      <c r="A40" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="C40">
         <v>0.49</v>
@@ -3621,24 +3556,24 @@
         <f>C40*0.013</f>
         <v>6.3699999999999998E-3</v>
       </c>
-      <c r="E40" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" s="1">
-        <f>(C40-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>367.85596399559029</v>
-      </c>
-      <c r="G40" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F40-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>5346.7809764687972</v>
+      <c r="E40" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="1" t="e">
+        <f>(C40-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F40-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>119</v>
+      <c r="A41" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="C41">
         <v>0.55000000000000004</v>
@@ -3647,76 +3582,76 @@
         <f>0.04*C41</f>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="E41" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="1">
-        <f>(C41-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>413.51012555844193</v>
-      </c>
-      <c r="G41" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F41-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>6010.5312396693034</v>
+      <c r="E41" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="1" t="e">
+        <f>(C41-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F41-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="21">
+      <c r="A42" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="15">
         <f>0.213*C42</f>
         <v>8.52E-4</v>
       </c>
-      <c r="E42" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="1">
-        <f>(C42-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-1.9427446635076073</v>
-      </c>
-      <c r="G42" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F42-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>30.057732841703878</v>
+      <c r="E42" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="1" t="e">
+        <f>(C42-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F42-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="21">
+      <c r="A43" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="15">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="15">
         <f>0.127*C43</f>
         <v>7.4929999999999994E-4</v>
       </c>
-      <c r="E43" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F43" s="1">
-        <f>(C43-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>-0.49702954735064037</v>
-      </c>
-      <c r="G43" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F43-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>10.045075299214339</v>
+      <c r="E43" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="1" t="e">
+        <f>(C43-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F43-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>119</v>
+      <c r="A44" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="C44">
         <v>0.48</v>
@@ -3725,16 +3660,16 @@
         <f>C44*0.012</f>
         <v>5.7599999999999995E-3</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="1">
-        <f>(C44-'Calibration data'!$L$64)/'Calibration data'!$L$65</f>
-        <v>360.24693706844835</v>
-      </c>
-      <c r="G44" s="22">
-        <f>'Calibration data'!$L$54/'Calibration data'!$L$65*SQRT(1/'Calibration data'!$L$55+1+('Count-&gt;Actual Activity'!F44-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$65^2*'Calibration data'!$J$9))</f>
-        <v>5236.1559395380582</v>
+      <c r="E44" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="1" t="e">
+        <f>(C44-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="16" t="e">
+        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F44-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -3745,10 +3680,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView topLeftCell="I47" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3762,14 +3697,15 @@
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
     <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
@@ -3795,24 +3731,20 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="B2" s="2">
         <v>69.266666666666666</v>
@@ -3838,19 +3770,15 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>(F2-$L$64)/$L$65</f>
-        <v>-4.1056810215007307</v>
+        <f>F2*$B$63+$B$62</f>
+        <v>-2.1646065597239774</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L8" si="0">(D2-$L$30)/$L$31</f>
-        <v>0.24403057137578671</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N8" si="1">$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D2-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23936202341417753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <f>D2*$B$30+$B$29</f>
+        <v>0.13209164838024126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -3861,11 +3789,11 @@
         <v>4.5389670875898238</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:E8" si="2">B3/60</f>
+        <f t="shared" ref="D3:E9" si="0">B3/60</f>
         <v>3.5588888888888888</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.5649451459830402E-2</v>
       </c>
       <c r="F3" s="2">
@@ -3876,34 +3804,26 @@
       </c>
       <c r="H3" s="5">
         <f>H7/100</f>
-        <v>1.59E-5</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I8" si="3">H3*37000</f>
-        <v>0.58830000000000005</v>
+        <v>8.599999999999999E-6</v>
+      </c>
+      <c r="I3" s="38">
+        <f t="shared" ref="I3:I8" si="1">H3*37000</f>
+        <v>0.31819999999999998</v>
       </c>
       <c r="J3" s="5">
         <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
+        <v>1225.1400040000001</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K8" si="4">(F3-$L$64)/$L$65</f>
-        <v>-2.3505487210407043</v>
+        <f>F3*$B$63+$B$62</f>
+        <v>-1.2169279363331229</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>0.77044240244938123</v>
-      </c>
-      <c r="M3">
-        <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
-      </c>
-      <c r="N3">
-        <f>$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D3-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23926048894726873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L3:L10" si="2">D3*$B$30+$B$29</f>
+        <v>0.41681673309525025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -3914,11 +3834,11 @@
         <v>12.530584805000577</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14.189444444444446</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.20884308008334296</v>
       </c>
       <c r="F4" s="2">
@@ -3929,34 +3849,26 @@
       </c>
       <c r="H4" s="5">
         <f>H7/20</f>
-        <v>7.9500000000000008E-5</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="3"/>
-        <v>2.9415000000000004</v>
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="I4" s="38">
+        <f t="shared" si="1"/>
+        <v>1.591</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J8" si="5">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
+        <f t="shared" ref="J4:J8" si="3">(I4-AVERAGE($I$3:$I$8))^2</f>
+        <v>1137.6589326399999</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
-        <v>1.0868225712600266</v>
+        <f t="shared" ref="K4:K9" si="4">F4*$B$63+$B$62</f>
+        <v>0.6390707787022003</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>3.0978200335938433</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M8" si="6">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.23882097262076729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.6756463301427775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -3967,11 +3879,11 @@
         <v>32.620954410720707</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27.261666666666667</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.54368257351201177</v>
       </c>
       <c r="F5" s="2">
@@ -3982,34 +3894,26 @@
       </c>
       <c r="H5" s="5">
         <f>H7/10</f>
-        <v>1.5900000000000002E-4</v>
-      </c>
-      <c r="I5" s="5">
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="I5" s="38">
+        <f t="shared" si="1"/>
+        <v>3.1819999999999999</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
-        <v>5.8830000000000009</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="5"/>
-        <v>3530.5343748900009</v>
+        <v>1032.8638992399999</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>4.6041889217207634</v>
+        <v>2.5382625946651718</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>5.9597586623280572</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.23830159492838568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.2236087246307998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -4020,11 +3924,11 @@
         <v>50.234140670352431</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>133.3138888888889</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.83723567783920716</v>
       </c>
       <c r="F6" s="2">
@@ -4035,34 +3939,26 @@
       </c>
       <c r="H6" s="5">
         <f>H7/2</f>
-        <v>7.9500000000000003E-4</v>
-      </c>
-      <c r="I6" s="5">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" si="1"/>
+        <v>15.91</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
-        <v>29.415000000000003</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="5"/>
-        <v>1287.8265276900004</v>
+        <v>376.75586404000001</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>33.226107339789372</v>
+        <v>17.992584891697263</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>29.178071989722408</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0.23496515304651927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>15.781905933869924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -4073,11 +3969,11 @@
         <v>53.513259001171903</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>267.61888888888888</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.89188765001953174</v>
       </c>
       <c r="F7" s="2">
@@ -4087,34 +3983,26 @@
         <v>2.9521990740740741E-3</v>
       </c>
       <c r="H7" s="5">
-        <v>1.5900000000000001E-3</v>
-      </c>
-      <c r="I7" s="5">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="I7" s="38">
+        <f t="shared" si="1"/>
+        <v>31.82</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
-        <v>58.830000000000005</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="5"/>
-        <v>41.877723690000082</v>
+        <v>12.251400039999996</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>67.202526188068973</v>
+        <v>36.338054252297198</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>58.581845961582474</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0.23304764250463261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>31.685788675267496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -4125,11 +4013,11 @@
         <v>80.454997758225829</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1343.9216666666666</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.3409166293037638</v>
       </c>
       <c r="F8" s="2">
@@ -4140,648 +4028,1279 @@
       </c>
       <c r="H8" s="5">
         <f>H7*5</f>
-        <v>7.9500000000000005E-3</v>
-      </c>
-      <c r="I8" s="5">
+        <v>4.3E-3</v>
+      </c>
+      <c r="I8" s="38">
+        <f t="shared" si="1"/>
+        <v>159.1</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
-        <v>294.15000000000003</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="5"/>
-        <v>52371.727491690006</v>
+        <v>15321.438888039998</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>292.14438472170235</v>
+        <v>157.79476197869525</v>
       </c>
       <c r="L8">
+        <f t="shared" si="2"/>
+        <v>159.1374336029937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="2">
+        <v>342248.6</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9*0.11/100</f>
+        <v>376.47345999999999</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>294.21986095032389</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.30267266037130586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+        <v>5704.1433333333325</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2745576666666665</v>
+      </c>
+      <c r="F9">
+        <v>1.9</v>
+      </c>
+      <c r="G9">
+        <f>F9*0.5/100</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <f>SUM(J3:J8)</f>
-        <v>65308.483143000012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>777.96958299445589</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>675.45815221486782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10">
+        <v>2882.0033333333336</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>341.27116260310561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="25"/>
-      <c r="K12" t="s">
+      <c r="B19" s="7">
+        <v>0.11666575259658109</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.98521674441589902</v>
+      </c>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M12" t="s">
+      <c r="B20" s="9">
+        <v>6</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="9">
+        <v>6</v>
+      </c>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" s="33"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" s="33"/>
+      <c r="K22" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1403732.1258707412</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1403732.1258709223</v>
+      </c>
+      <c r="P24" s="7">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5.4443591315706669E-2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.3610897828926667E-2</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="7">
+        <v>4</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3.8826081339098519</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.97065203347746298</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
+        <v>19106.108988</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1362539.3250423865</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" s="33"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.2156959844518157</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="D28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="7">
+        <v>-4.6132328669372669E-3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5.6191006719858279E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-8.2099131804786105E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.93851196251841018</v>
+      </c>
+      <c r="F29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="H29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="J29" s="36"/>
+      <c r="K29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3.9807734204714507E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.47450311588138688</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8.3893514862956931E-2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.93717195197245085</v>
+      </c>
+      <c r="P29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="R29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="20"/>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.11841616277426437</v>
+      </c>
+      <c r="C30" s="9">
+        <v>9.9946793173107741E-5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1184.792017980684</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="J30" s="36"/>
+      <c r="K30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="9">
+        <v>8.4447690841653227</v>
+      </c>
+      <c r="M30" s="9">
+        <v>7.1276384006686089E-3</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1184.7920179807606</v>
+      </c>
+      <c r="O30" s="9">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="P30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="R30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="S30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="20"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" s="33"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="20"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" s="33"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" s="33"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="33"/>
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" s="33"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.41681673309525025</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-9.8616733095250264E-2</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2.7269332567861202</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.83195563210276857</v>
+      </c>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.6756463301427775</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-8.4646330142777559E-2</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>13.475435347111743</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.71400909733270268</v>
+      </c>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>3</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3.2236087246307998</v>
+      </c>
+      <c r="C39" s="7">
+        <v>-4.1608724630799898E-2</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="7">
+        <v>3</v>
+      </c>
+      <c r="L39" s="7">
+        <v>26.911062960018771</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.35060370664789531</v>
+      </c>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7">
+        <v>15.781905933869924</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.12809406613007646</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="7">
+        <v>4</v>
+      </c>
+      <c r="L40" s="7">
+        <v>134.39608386327501</v>
+      </c>
+      <c r="M40" s="7">
+        <v>-1.0821949743861126</v>
+      </c>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <v>31.685788675267496</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.13421132473250452</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="7">
+        <v>5</v>
+      </c>
+      <c r="L41" s="7">
+        <v>268.7523599923453</v>
+      </c>
+      <c r="M41" s="7">
+        <v>-1.1334711034564293</v>
+      </c>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+    </row>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>6</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J19" s="25"/>
-      <c r="K19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0.98521674441591967</v>
-      </c>
-      <c r="M20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="14">
+      <c r="B42" s="9">
+        <v>159.1374336029937</v>
+      </c>
+      <c r="C42" s="9">
+        <v>-3.7433602993701243E-2</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="9">
         <v>6</v>
       </c>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="D22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1403732.125870778</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.1860990308345517</v>
-      </c>
-      <c r="D23" s="9">
-        <v>4.6524757708637926E-2</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="J23" s="25"/>
-      <c r="K23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="13">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13">
-        <v>65308.483143000012</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J25" s="25"/>
-      <c r="K25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="P25" s="11">
-        <v>1403732.1258708637</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>3.0449538110698621E-12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" s="15" t="s">
+      <c r="L42" s="9">
+        <v>1343.6025690249076</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.31909764175907185</v>
+      </c>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+    </row>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+    </row>
+    <row r="44" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L26" s="11">
-        <v>4</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11">
-        <v>3.882608133910014</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0.97065203347750351</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="9">
-        <v>-8.5291165795524648E-3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.10388802405182966</v>
-      </c>
-      <c r="D27" s="9">
-        <v>-8.2099131804617781E-2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.93851196251853586</v>
-      </c>
-      <c r="F27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="14">
-        <v>5</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14">
-        <v>1362539.3250423865</v>
-      </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.21893220791986087</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.8478535016888282E-4</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1184.7920179806995</v>
-      </c>
-      <c r="E28" s="13">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="J28" s="27"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J29" s="25"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J30" s="25"/>
-      <c r="K30" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3.980773420477135E-2</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11">
-        <v>0.47450311588139682</v>
-      </c>
-      <c r="O30" s="11">
-        <v>8.3893514863074975E-2</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0.93717195197236269</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="R30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-      <c r="S30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="T30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="25"/>
-      <c r="K31" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L31" s="14">
-        <v>4.5676109511837577</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14">
-        <v>3.8552006443868751E-3</v>
-      </c>
-      <c r="O31" s="14">
-        <v>1184.7920179807356</v>
-      </c>
-      <c r="P31" s="14">
-        <v>3.0449538110698516E-12</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="R31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-      <c r="S31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="T31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="J32" s="25"/>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J33" s="25"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J34" s="25"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0.77062628560635238</v>
-      </c>
-      <c r="C35" s="9">
-        <v>-0.18232628560635233</v>
-      </c>
-      <c r="J35" s="25"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9">
-        <v>3.0979972847988737</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-0.15649728479887326</v>
-      </c>
-      <c r="J36" s="25"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9">
-        <v>5.9599277583290551</v>
-      </c>
-      <c r="C37" s="9">
-        <v>-7.6927758329054186E-2</v>
-      </c>
-      <c r="J37" s="25"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9">
-        <v>29.178174924247902</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0.2368250757521011</v>
-      </c>
-      <c r="J38" s="25"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>5</v>
-      </c>
-      <c r="B39" s="9">
-        <v>58.581865108924809</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0.24813489107519615</v>
-      </c>
-      <c r="J39" s="25"/>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>6</v>
-      </c>
-      <c r="B40" s="13">
-        <v>294.21920863809305</v>
-      </c>
-      <c r="C40" s="13">
-        <v>-6.9208638093016361E-2</v>
-      </c>
-      <c r="J40" s="25"/>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>6</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="J41" s="25"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J42" s="25"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J43" s="25"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45" s="25"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J45" s="33"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -4789,12 +5308,30 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="33"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+    </row>
+    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -4804,16 +5341,34 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47" s="25"/>
-      <c r="K47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="10"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -4821,16 +5376,34 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="J48" s="25"/>
-      <c r="K48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="11">
+      <c r="J48" s="33"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="7">
         <v>0.99913678675732565</v>
       </c>
       <c r="C49"/>
@@ -4840,13 +5413,34 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49" s="25"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="11">
+      <c r="J49" s="33"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="7">
         <v>0.99827431865175353</v>
       </c>
       <c r="C50"/>
@@ -4856,17 +5450,34 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="11">
+      <c r="J50" s="33"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="7">
         <v>0.99792918238210437</v>
       </c>
       <c r="C51"/>
@@ -4876,20 +5487,35 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L51" s="11">
-        <v>0.99913678675732565</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="11">
-        <v>4.8787115983951139</v>
+      <c r="J51" s="33"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="20"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2.6387999840376106</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -4898,19 +5524,34 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L52" s="11">
-        <v>0.99827431865175364</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="14">
+      <c r="J52" s="33"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="9">
         <v>7</v>
       </c>
       <c r="C53"/>
@@ -4920,15 +5561,30 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L53" s="11">
-        <v>0.99792918238210437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J53" s="33"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="20"/>
+      <c r="AE53" s="20"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -4938,17 +5594,32 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L54" s="11">
-        <v>6.4172812792738041E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="33"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
+      <c r="AE54" s="20"/>
+    </row>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -4958,136 +5629,198 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="14" t="s">
+      <c r="J55" s="33"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="L55" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56" s="25"/>
-    </row>
-    <row r="57" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="11">
+      <c r="J56" s="33"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="7">
         <v>1</v>
       </c>
-      <c r="C57" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="D57" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="E57" s="11">
-        <v>2892.4062940883214</v>
-      </c>
-      <c r="F57" s="11">
-        <v>4.2028918326297201E-8</v>
+      <c r="C57" s="7">
+        <v>20140.592542398361</v>
+      </c>
+      <c r="D57" s="7">
+        <v>20140.592542398361</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2892.4062940883168</v>
+      </c>
+      <c r="F57" s="7">
+        <v>4.2028918326297353E-8</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="J57" s="25"/>
-      <c r="K57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="11">
+      <c r="J57" s="33"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="7">
         <v>5</v>
       </c>
-      <c r="C58" s="11">
-        <v>119.00913430157502</v>
-      </c>
-      <c r="D58" s="11">
-        <v>23.801826860315003</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+      <c r="C58" s="7">
+        <v>34.816326778784465</v>
+      </c>
+      <c r="D58" s="7">
+        <v>6.9632653557568931</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16" t="s">
+      <c r="J58" s="33"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="20"/>
+      <c r="AE58" s="20"/>
+    </row>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M58" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="N58" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O58" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P58" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="14">
+      <c r="B59" s="9">
         <v>6</v>
       </c>
-      <c r="C59" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="C59" s="9">
+        <v>20175.408869177147</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L59" s="11">
-        <v>1</v>
-      </c>
-      <c r="M59" s="11">
-        <v>0.11911362695768261</v>
-      </c>
-      <c r="N59" s="11">
-        <v>0.11911362695768261</v>
-      </c>
-      <c r="O59" s="11">
-        <v>2892.4062940883196</v>
-      </c>
-      <c r="P59" s="11">
-        <v>4.202891832629728E-8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J59" s="33"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
+      <c r="AC59" s="20"/>
+      <c r="AD59" s="20"/>
+      <c r="AE59" s="20"/>
+    </row>
+    <row r="60" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -5097,148 +5830,181 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="11" t="s">
+      <c r="J60" s="33"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="20"/>
+      <c r="AE60" s="20"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L60" s="11">
-        <v>5</v>
-      </c>
-      <c r="M60" s="11">
-        <v>2.0590749508659015E-4</v>
-      </c>
-      <c r="N60" s="11">
-        <v>4.1181499017318032E-5</v>
-      </c>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16" t="s">
+      <c r="I61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" s="35"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="20"/>
+      <c r="AE61" s="20"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="16" t="s">
+      <c r="B62" s="7">
+        <v>-2.6401241688634265</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1.1701746549167438</v>
+      </c>
+      <c r="D62" s="7">
+        <v>-2.2561795863295875</v>
+      </c>
+      <c r="E62" s="7">
+        <v>7.3703712687859205E-2</v>
+      </c>
+      <c r="F62" s="7">
+        <v>-5.6481538813144017</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0.36790554358754823</v>
+      </c>
+      <c r="H62" s="7">
+        <v>-5.6481538813144017</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.36790554358754823</v>
+      </c>
+      <c r="J62" s="36"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20"/>
+      <c r="AE62" s="20"/>
+    </row>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I61" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61" s="27"/>
-      <c r="K61" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L61" s="14">
-        <v>6</v>
-      </c>
-      <c r="M61" s="14">
-        <v>0.1193195344527692</v>
-      </c>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="11">
-        <v>-4.8811598005730872</v>
-      </c>
-      <c r="C62" s="11">
-        <v>2.1634624433925831</v>
-      </c>
-      <c r="D62" s="11">
-        <v>-2.2561795863295924</v>
-      </c>
-      <c r="E62" s="11">
-        <v>7.3703712687858761E-2</v>
-      </c>
-      <c r="F62" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="G62" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="H62" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="I62" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="J62" s="25"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="14">
-        <v>759.58961712954601</v>
-      </c>
-      <c r="C63" s="14">
-        <v>14.12372883203613</v>
-      </c>
-      <c r="D63" s="14">
-        <v>53.781096066260332</v>
-      </c>
-      <c r="E63" s="14">
-        <v>4.2028918326297201E-8</v>
-      </c>
-      <c r="F63" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="G63" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="H63" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="I63" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="J63" s="25"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M63" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N63" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O63" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P63" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q63" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R63" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S63" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="9">
+        <v>410.84721429648386</v>
+      </c>
+      <c r="C63" s="9">
+        <v>7.6392495569503653</v>
+      </c>
+      <c r="D63" s="9">
+        <v>53.781096066260275</v>
+      </c>
+      <c r="E63" s="9">
+        <v>4.2028918326297353E-8</v>
+      </c>
+      <c r="F63" s="9">
+        <v>391.20989814749447</v>
+      </c>
+      <c r="G63" s="9">
+        <v>430.48453044547324</v>
+      </c>
+      <c r="H63" s="9">
+        <v>391.20989814749447</v>
+      </c>
+      <c r="I63" s="9">
+        <v>430.48453044547324</v>
+      </c>
+      <c r="J63" s="36"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="20"/>
+      <c r="AE63" s="20"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -5248,36 +6014,30 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L64" s="11">
-        <v>6.5532103935362629E-3</v>
-      </c>
-      <c r="M64" s="11">
-        <v>2.7845814004832238E-3</v>
-      </c>
-      <c r="N64" s="11">
-        <v>2.353391569877989</v>
-      </c>
-      <c r="O64" s="11">
-        <v>6.5284513122608578E-2</v>
-      </c>
-      <c r="P64" s="11">
-        <v>-6.0478397439664346E-4</v>
-      </c>
-      <c r="Q64" s="11">
-        <v>1.371120476146917E-2</v>
-      </c>
-      <c r="R64" s="11">
-        <v>-6.0478397439664346E-4</v>
-      </c>
-      <c r="S64" s="11">
-        <v>1.371120476146917E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J64" s="33"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -5287,36 +6047,30 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L65" s="14">
-        <v>1.3142284940968337E-3</v>
-      </c>
-      <c r="M65" s="14">
-        <v>2.4436625324215322E-5</v>
-      </c>
-      <c r="N65" s="14">
-        <v>53.781096066260311</v>
-      </c>
-      <c r="O65" s="14">
-        <v>4.202891832629728E-8</v>
-      </c>
-      <c r="P65" s="14">
-        <v>1.2514121489141555E-3</v>
-      </c>
-      <c r="Q65" s="14">
-        <v>1.377044839279512E-3</v>
-      </c>
-      <c r="R65" s="14">
-        <v>1.2514121489141555E-3</v>
-      </c>
-      <c r="S65" s="14">
-        <v>1.377044839279512E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J65" s="33"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20"/>
+      <c r="AE65" s="20"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -5326,11 +6080,32 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66" s="25"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J66" s="33"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20"/>
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20"/>
+      <c r="AE66" s="20"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
@@ -5340,9 +6115,30 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67" s="25"/>
-    </row>
-    <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J67" s="33"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="20"/>
+    </row>
+    <row r="68" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -5352,17 +6148,38 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68" s="25"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>87</v>
+      <c r="J68" s="33"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="20"/>
+      <c r="AE68" s="20"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -5370,20 +6187,38 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="J69" s="25"/>
-      <c r="K69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="J69" s="33"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="20"/>
+      <c r="AE69" s="20"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
         <v>1</v>
       </c>
-      <c r="B70" s="11">
-        <v>-4.0020051511175945</v>
-      </c>
-      <c r="C70" s="11">
-        <v>4.0020051511175945</v>
+      <c r="B70" s="7">
+        <v>-2.1646065597239774</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2.1646065597239774</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -5391,17 +6226,38 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70" s="25"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
+      <c r="J70" s="33"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+      <c r="AA70" s="20"/>
+      <c r="AB70" s="20"/>
+      <c r="AC70" s="20"/>
+      <c r="AD70" s="20"/>
+      <c r="AE70" s="20"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
         <v>2</v>
       </c>
-      <c r="B71" s="11">
-        <v>-2.249901649732176</v>
-      </c>
-      <c r="C71" s="11">
-        <v>2.8382016497321763</v>
+      <c r="B71" s="7">
+        <v>-1.2169279363331229</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1.5351279363331229</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -5409,26 +6265,38 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L71" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M71" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
+      <c r="J71" s="33"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="20"/>
+      <c r="AC71" s="20"/>
+      <c r="AD71" s="20"/>
+      <c r="AE71" s="20"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
         <v>3</v>
       </c>
-      <c r="B72" s="11">
-        <v>1.1815378350424348</v>
-      </c>
-      <c r="C72" s="11">
-        <v>1.7599621649575656</v>
+      <c r="B72" s="7">
+        <v>0.6390707787022003</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0.95192922129779967</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -5436,26 +6304,16 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="11">
-        <v>1</v>
-      </c>
-      <c r="L72" s="11">
-        <v>6.5532103935362629E-3</v>
-      </c>
-      <c r="M72" s="11">
-        <v>-5.3958029861288555E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
         <v>4</v>
       </c>
-      <c r="B73" s="11">
-        <v>4.6928343319972328</v>
-      </c>
-      <c r="C73" s="11">
-        <v>1.1901656680027681</v>
+      <c r="B73" s="7">
+        <v>2.5382625946651718</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0.64373740533482815</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -5463,26 +6321,16 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="11">
-        <v>2</v>
-      </c>
-      <c r="L73" s="11">
-        <v>7.3263710166134302E-3</v>
-      </c>
-      <c r="M73" s="11">
-        <v>-3.8623187290317308E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
         <v>5</v>
       </c>
-      <c r="B74" s="11">
-        <v>33.265360439300757</v>
-      </c>
-      <c r="C74" s="11">
-        <v>-3.8503604393007542</v>
+      <c r="B74" s="7">
+        <v>17.992584891697263</v>
+      </c>
+      <c r="C74" s="7">
+        <v>-2.0825848916972625</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -5490,26 +6338,16 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="11">
-        <v>3</v>
-      </c>
-      <c r="L74" s="11">
-        <v>1.04190135089221E-2</v>
-      </c>
-      <c r="M74" s="11">
-        <v>-2.4374699242083239E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="11">
+    </row>
+    <row r="75" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
         <v>6</v>
       </c>
-      <c r="B75" s="11">
-        <v>67.183146815293682</v>
-      </c>
-      <c r="C75" s="11">
-        <v>-8.3531468152936768</v>
+      <c r="B75" s="7">
+        <v>36.338054252297198</v>
+      </c>
+      <c r="C75" s="7">
+        <v>-4.5180542522971976</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -5517,26 +6355,16 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="11">
-        <v>4</v>
-      </c>
-      <c r="L75" s="11">
-        <v>1.4284816624307937E-2</v>
-      </c>
-      <c r="M75" s="11">
-        <v>-1.6806499576412712E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14">
+    </row>
+    <row r="76" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
         <v>7</v>
       </c>
-      <c r="B76" s="14">
-        <v>291.73682737921575</v>
-      </c>
-      <c r="C76" s="14">
-        <v>2.4131726207842803</v>
+      <c r="B76" s="9">
+        <v>157.79476197869525</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1.3052380213047456</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -5544,40 +6372,11 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="11">
-        <v>5</v>
-      </c>
-      <c r="L76" s="11">
-        <v>4.5211241547394629E-2</v>
-      </c>
-      <c r="M76" s="11">
-        <v>5.0086658600127787E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J77" s="25"/>
-      <c r="K77" s="11">
-        <v>6</v>
-      </c>
-      <c r="L77" s="11">
-        <v>8.3869272701252995E-2</v>
-      </c>
-      <c r="M77" s="11">
-        <v>1.100341248393219E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J78" s="25"/>
-      <c r="K78" s="14">
-        <v>7</v>
-      </c>
-      <c r="L78" s="14">
-        <v>0.39313352193211992</v>
-      </c>
-      <c r="M78" s="14">
-        <v>-2.6358367469347388E-3</v>
-      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5589,7 +6388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
@@ -5642,46 +6441,46 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="N1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="P1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="Q1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="R1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="T1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="U1" t="s">
         <v>33</v>
@@ -5702,15 +6501,15 @@
         <v>32</v>
       </c>
       <c r="AA1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AB1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>96</v>
+      <c r="A2" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5724,7 +6523,7 @@
       <c r="E2" s="1">
         <v>0.03</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="15">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G2" s="1">
@@ -5741,13 +6540,13 @@
       <c r="L2">
         <v>0.02</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!F24</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N2" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!G24</f>
-        <v>74.035276446395159</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -5787,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AB2" t="e">
         <f>Y2*E2/U2</f>
@@ -5795,8 +6594,8 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>97</v>
+      <c r="A3" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5810,7 +6609,7 @@
       <c r="E3" s="1">
         <v>0.03</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="15">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G3" s="1">
@@ -5827,13 +6626,13 @@
       <c r="L3">
         <v>0.02</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!F25</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N3" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!G25</f>
-        <v>74.035276446395159</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -5873,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AB3" t="e">
         <f t="shared" ref="AB3:AB23" si="6">Y3*E3/U3</f>
@@ -5881,8 +6680,8 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>98</v>
+      <c r="A4" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5896,7 +6695,7 @@
       <c r="E4" s="1">
         <v>0.03</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="15">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G4" s="1">
@@ -5913,13 +6712,13 @@
       <c r="L4">
         <v>0.02</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!F26</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N4" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!G26</f>
-        <v>74.035276446395159</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -5959,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AB4" t="e">
         <f t="shared" si="6"/>
@@ -5967,8 +6766,8 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>99</v>
+      <c r="A5" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
         <v>7.92E-3</v>
@@ -5982,7 +6781,7 @@
       <c r="E5" s="1">
         <v>0.03</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="15">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G5" s="1">
@@ -5999,13 +6798,13 @@
       <c r="L5">
         <v>0.02</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!F27</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N5" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!G27</f>
-        <v>74.035276446395159</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -6027,11 +6826,11 @@
       </c>
       <c r="U5">
         <f>Parameters!$B$6*'Bottle Results'!B5</f>
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="V5">
         <f>SQRT((C5/B5)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>0.12955361650158395</v>
+        <v>0.12773550438019637</v>
       </c>
       <c r="W5">
         <f t="shared" si="4"/>
@@ -6042,10 +6841,10 @@
       </c>
       <c r="Y5">
         <f t="shared" si="5"/>
-        <v>166.72192896345283</v>
+        <v>90.207839097291838</v>
       </c>
       <c r="AA5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AB5">
         <f t="shared" si="6"/>
@@ -6053,8 +6852,8 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>100</v>
+      <c r="A6" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="B6">
         <v>7.92E-3</v>
@@ -6068,7 +6867,7 @@
       <c r="E6" s="1">
         <v>0.03</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="15">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G6" s="1">
@@ -6085,13 +6884,13 @@
       <c r="L6">
         <v>0.02</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!F28</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N6" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!G28</f>
-        <v>74.035276446395159</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -6113,11 +6912,11 @@
       </c>
       <c r="U6">
         <f>Parameters!$B$6*'Bottle Results'!B6</f>
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="V6">
         <f>SQRT((C6/B6)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>0.12955361650158395</v>
+        <v>0.12773550438019637</v>
       </c>
       <c r="W6">
         <f t="shared" si="4"/>
@@ -6128,10 +6927,10 @@
       </c>
       <c r="Y6">
         <f t="shared" si="5"/>
-        <v>166.72192896345283</v>
+        <v>90.207839097291838</v>
       </c>
       <c r="AA6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AB6">
         <f t="shared" si="6"/>
@@ -6139,8 +6938,8 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>101</v>
+      <c r="A7" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="B7">
         <v>7.92E-3</v>
@@ -6154,7 +6953,7 @@
       <c r="E7" s="1">
         <v>0.03</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="15">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G7" s="1">
@@ -6171,13 +6970,13 @@
       <c r="L7">
         <v>0.02</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!F29</f>
-        <v>-4.9863554343643806</v>
-      </c>
-      <c r="N7" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="1" t="e">
         <f>'Count-&gt;Actual Activity'!G29</f>
-        <v>74.035276446395159</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -6199,11 +6998,11 @@
       </c>
       <c r="U7">
         <f>Parameters!$B$6*'Bottle Results'!B7</f>
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="V7">
         <f>SQRT((C7/B7)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>0.12955361650158395</v>
+        <v>0.12773550438019637</v>
       </c>
       <c r="W7">
         <f t="shared" si="4"/>
@@ -6214,1460 +7013,1460 @@
       </c>
       <c r="Y7">
         <f t="shared" si="5"/>
-        <v>166.72192896345283</v>
+        <v>90.207839097291838</v>
       </c>
       <c r="AA7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AB7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="33">
+    <row r="8" spans="1:28" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="23">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="23">
         <v>1E-3</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="23">
         <v>8.92</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="24">
         <v>0.03</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="24">
         <v>100</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="24">
         <v>5</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="24">
         <f>'Count-&gt;Actual Activity'!F8</f>
-        <v>0.24500360618368641</v>
-      </c>
-      <c r="J8" s="34">
+        <v>0.13251767378489365</v>
+      </c>
+      <c r="J8" s="24">
         <f>'Count-&gt;Actual Activity'!G8</f>
-        <v>0.23940063083015847</v>
-      </c>
-      <c r="K8" s="33">
+        <v>0.12664763330799395</v>
+      </c>
+      <c r="K8" s="23">
         <v>10</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="23">
         <v>0.02</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F30</f>
-        <v>7.1880876490627115</v>
-      </c>
-      <c r="N8" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G30</f>
-        <v>103.2811274942794</v>
-      </c>
-      <c r="O8" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="23">
         <v>0.03</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="23">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="23">
         <f t="shared" si="0"/>
-        <v>2.450036061836864E-2</v>
-      </c>
-      <c r="R8" s="33">
+        <v>1.3251767378489366E-2</v>
+      </c>
+      <c r="R8" s="23">
         <f t="shared" si="1"/>
-        <v>2.3940113230506238E-2</v>
-      </c>
-      <c r="S8" s="33">
+        <v>1.2664791062726444E-2</v>
+      </c>
+      <c r="S8" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>239.60292163542371</v>
-      </c>
-      <c r="T8" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>3442.7292632931913</v>
-      </c>
-      <c r="U8" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B8</f>
-        <v>9.9780548394793733</v>
-      </c>
-      <c r="V8" s="33">
+        <v>5.3988024914288308</v>
+      </c>
+      <c r="V8" s="23">
         <f>SQRT((C8/B8)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>6.9625118055662974E-2</v>
-      </c>
-      <c r="W8" s="33">
+        <v>6.6180636102176282E-2</v>
+      </c>
+      <c r="W8" s="23">
         <f t="shared" si="4"/>
-        <v>2.450036061836864E-2</v>
-      </c>
-      <c r="X8" s="33">
+        <v>1.3251767378489366E-2</v>
+      </c>
+      <c r="X8" s="23">
         <v>2.3297913974600508E-2</v>
       </c>
-      <c r="Y8" s="33">
+      <c r="Y8" s="23" t="e">
         <f t="shared" ref="Y8:Y19" si="7">S8</f>
-        <v>239.60292163542371</v>
-      </c>
-      <c r="AA8" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA8" s="23" t="e">
         <f>(Q8*G8+S8*O8-U8)/U8</f>
-        <v>-3.4067875357311032E-2</v>
-      </c>
-      <c r="AB8" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB8" s="23" t="e">
         <f t="shared" si="6"/>
-        <v>0.72038967160434708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="33">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="23">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="23">
         <v>1E-3</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="23">
         <v>8.9</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="24">
         <v>0.03</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="24">
         <v>100</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="24">
         <v>5</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="24">
         <f>'Count-&gt;Actual Activity'!F9</f>
-        <v>0.25181484983898222</v>
-      </c>
-      <c r="J9" s="34">
+        <v>0.13620174268021087</v>
+      </c>
+      <c r="J9" s="24">
         <f>'Count-&gt;Actual Activity'!G9</f>
-        <v>0.23940034126518156</v>
-      </c>
-      <c r="K9" s="33">
+        <v>0.12664759651021001</v>
+      </c>
+      <c r="K9" s="23">
         <v>10</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="23">
         <v>0.02</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F31</f>
-        <v>7.1880876490627115</v>
-      </c>
-      <c r="N9" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G31</f>
-        <v>103.2811274942794</v>
-      </c>
-      <c r="O9" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="23">
         <v>0.03</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="23">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="23">
         <f t="shared" si="0"/>
-        <v>2.5181484983898224E-2</v>
-      </c>
-      <c r="R9" s="33">
+        <v>1.3620174268021087E-2</v>
+      </c>
+      <c r="R9" s="23">
         <f t="shared" si="1"/>
-        <v>2.3940087101086287E-2</v>
-      </c>
-      <c r="S9" s="33">
+        <v>1.2664788946315605E-2</v>
+      </c>
+      <c r="S9" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>239.60292163542371</v>
-      </c>
-      <c r="T9" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>3442.7292632931913</v>
-      </c>
-      <c r="U9" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B9</f>
-        <v>9.9780548394793733</v>
-      </c>
-      <c r="V9" s="33">
+        <v>5.3988024914288308</v>
+      </c>
+      <c r="V9" s="23">
         <f>SQRT((C9/B9)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>6.9625118055662974E-2</v>
-      </c>
-      <c r="W9" s="33">
+        <v>6.6180636102176282E-2</v>
+      </c>
+      <c r="W9" s="23">
         <f t="shared" si="4"/>
-        <v>2.5181484983898224E-2</v>
-      </c>
-      <c r="X9" s="33">
+        <v>1.3620174268021087E-2</v>
+      </c>
+      <c r="X9" s="23">
         <v>2.3297916895026565E-2</v>
       </c>
-      <c r="Y9" s="33">
+      <c r="Y9" s="23" t="e">
         <f t="shared" si="7"/>
-        <v>239.60292163542371</v>
-      </c>
-      <c r="AA9" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA9" s="23" t="e">
         <f>(Q9*G9+S9*O9-U9)/U9</f>
-        <v>-2.7241651444062598E-2</v>
-      </c>
-      <c r="AB9" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB9" s="23" t="e">
         <f t="shared" si="6"/>
-        <v>0.72038967160434708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="33">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="23">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="23">
         <v>1E-3</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="23">
         <v>8.9</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="24">
         <v>0.03</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="24">
         <v>100</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="24">
         <v>5</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="24">
         <f>'Count-&gt;Actual Activity'!F10</f>
-        <v>0.25789631738835417</v>
-      </c>
-      <c r="J10" s="34">
+        <v>0.1394910899081731</v>
+      </c>
+      <c r="J10" s="24">
         <f>'Count-&gt;Actual Activity'!G10</f>
-        <v>0.23940008273031926</v>
-      </c>
-      <c r="K10" s="33">
+        <v>0.12664756365594135</v>
+      </c>
+      <c r="K10" s="23">
         <v>10</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="23">
         <v>0.02</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F32</f>
-        <v>6.4271849563485182</v>
-      </c>
-      <c r="N10" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G32</f>
-        <v>92.234451910874</v>
-      </c>
-      <c r="O10" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="23">
         <v>0.03</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="23">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="23">
         <f t="shared" si="0"/>
-        <v>2.5789631738835417E-2</v>
-      </c>
-      <c r="R10" s="33">
+        <v>1.394910899081731E-2</v>
+      </c>
+      <c r="R10" s="23">
         <f t="shared" si="1"/>
-        <v>2.3940063837284521E-2</v>
-      </c>
-      <c r="S10" s="33">
+        <v>1.2664787092976483E-2</v>
+      </c>
+      <c r="S10" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>214.23949854495061</v>
-      </c>
-      <c r="T10" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>3074.5041235979497</v>
-      </c>
-      <c r="U10" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B10</f>
-        <v>9.9780548394793733</v>
-      </c>
-      <c r="V10" s="33">
+        <v>5.3988024914288308</v>
+      </c>
+      <c r="V10" s="23">
         <f>SQRT((C10/B10)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>6.9625118055662974E-2</v>
-      </c>
-      <c r="W10" s="33">
+        <v>6.6180636102176282E-2</v>
+      </c>
+      <c r="W10" s="23">
         <f t="shared" si="4"/>
-        <v>2.5789631738835417E-2</v>
-      </c>
-      <c r="X10" s="33">
+        <v>1.394910899081731E-2</v>
+      </c>
+      <c r="X10" s="23">
         <v>2.3297919570431896E-2</v>
       </c>
-      <c r="Y10" s="33">
+      <c r="Y10" s="23" t="e">
         <f t="shared" si="7"/>
-        <v>214.23949854495061</v>
-      </c>
-      <c r="AA10" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA10" s="23" t="e">
         <f>(Q10*G10+S10*O10-U10)/U10</f>
-        <v>-9.7404426502232494E-2</v>
-      </c>
-      <c r="AB10" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10" s="23" t="e">
         <f t="shared" si="6"/>
-        <v>0.64413205376649052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="33">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="23">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="23">
         <v>2E-3</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="23">
         <v>8.94</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="24">
         <v>0.03</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="24">
         <v>100</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="24">
         <v>5</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="33">
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23">
         <v>10</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="23">
         <v>0.02</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F33</f>
-        <v>39.146000743058828</v>
-      </c>
-      <c r="N11" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G33</f>
-        <v>567.79850308782375</v>
-      </c>
-      <c r="O11" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="24">
         <v>0.03</v>
       </c>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="33">
+      <c r="P11" s="24"/>
+      <c r="Q11" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="33" t="e">
+      <c r="R11" s="23" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>1304.8666914352943</v>
-      </c>
-      <c r="T11" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>18926.616769594126</v>
-      </c>
-      <c r="U11" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B11</f>
-        <v>49.953426443216358</v>
-      </c>
-      <c r="V11" s="33">
+        <v>27.028182093165853</v>
+      </c>
+      <c r="V11" s="23">
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>3.8486259533798084E-2</v>
-      </c>
-      <c r="W11" s="33">
+        <v>3.1834127968683831E-2</v>
+      </c>
+      <c r="W11" s="23" t="e">
         <f t="shared" ref="W11:W19" si="8">(U11-S11*O11)/G11</f>
-        <v>0.1080742570015753</v>
-      </c>
-      <c r="X11" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" s="23">
         <v>2.3297919246001962E-2</v>
       </c>
-      <c r="Y11" s="33">
+      <c r="Y11" s="23" t="e">
         <f t="shared" si="7"/>
-        <v>1304.8666914352943</v>
-      </c>
-      <c r="AA11" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB11" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA11" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB11" s="23" t="e">
         <f t="shared" si="6"/>
-        <v>0.78364996218141969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="33">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="23">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="23">
         <v>2E-3</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="23">
         <v>8.89</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="24">
         <v>0.03</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="24">
         <v>100</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="24">
         <v>5</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="33">
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23">
         <v>10</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="23">
         <v>0.02</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F34</f>
-        <v>38.385098050344638</v>
-      </c>
-      <c r="N12" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G34</f>
-        <v>556.73647081686329</v>
-      </c>
-      <c r="O12" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="24">
         <v>0.03</v>
       </c>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="33">
+      <c r="P12" s="24"/>
+      <c r="Q12" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="33" t="e">
+      <c r="R12" s="23" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>1279.5032683448212</v>
-      </c>
-      <c r="T12" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>18557.882360562107</v>
-      </c>
-      <c r="U12" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B12</f>
-        <v>49.953426443216358</v>
-      </c>
-      <c r="V12" s="33">
+        <v>27.028182093165853</v>
+      </c>
+      <c r="V12" s="23">
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>3.8486259533798084E-2</v>
-      </c>
-      <c r="W12" s="33">
+        <v>3.1834127968683831E-2</v>
+      </c>
+      <c r="W12" s="23" t="e">
         <f t="shared" si="8"/>
-        <v>0.1156832839287172</v>
-      </c>
-      <c r="X12" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="23">
         <v>2.3297917690924E-2</v>
       </c>
-      <c r="Y12" s="33">
+      <c r="Y12" s="23" t="e">
         <f t="shared" si="7"/>
-        <v>1279.5032683448212</v>
-      </c>
-      <c r="AA12" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB12" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA12" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB12" s="23" t="e">
         <f t="shared" si="6"/>
-        <v>0.76841771993315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="33">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="23">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="23">
         <v>2E-3</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="23">
         <v>8.92</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="24">
         <v>0.03</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="24">
         <v>100</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="24">
         <v>5</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="33">
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23">
         <v>10</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="23">
         <v>0.02</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F35</f>
-        <v>39.146000743058828</v>
-      </c>
-      <c r="N13" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G35</f>
-        <v>567.79850308782375</v>
-      </c>
-      <c r="O13" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="24">
         <v>0.03</v>
       </c>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="33">
+      <c r="P13" s="24"/>
+      <c r="Q13" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R13" s="33" t="e">
+      <c r="R13" s="23" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>1304.8666914352943</v>
-      </c>
-      <c r="T13" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>18926.616769594126</v>
-      </c>
-      <c r="U13" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B13</f>
-        <v>49.953426443216358</v>
-      </c>
-      <c r="V13" s="33">
+        <v>27.028182093165853</v>
+      </c>
+      <c r="V13" s="23">
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>3.8486259533798084E-2</v>
-      </c>
-      <c r="W13" s="33">
+        <v>3.1834127968683831E-2</v>
+      </c>
+      <c r="W13" s="23" t="e">
         <f t="shared" si="8"/>
-        <v>0.1080742570015753</v>
-      </c>
-      <c r="X13" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" s="23">
         <v>2.3297920113197729E-2</v>
       </c>
-      <c r="Y13" s="33">
+      <c r="Y13" s="23" t="e">
         <f t="shared" si="7"/>
-        <v>1304.8666914352943</v>
-      </c>
-      <c r="AA13" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB13" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB13" s="23" t="e">
         <f t="shared" si="6"/>
-        <v>0.78364996218141969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="33">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="23">
         <v>0.158</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="23">
         <v>2E-3</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="23">
         <v>8.81</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="24">
         <v>0.03</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="24">
         <v>100</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="24">
         <v>5</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="24">
         <f>'Count-&gt;Actual Activity'!F14</f>
-        <v>0.27151880469894579</v>
-      </c>
-      <c r="J14" s="34">
+        <v>0.14685922769880755</v>
+      </c>
+      <c r="J14" s="24">
         <f>'Count-&gt;Actual Activity'!G14</f>
-        <v>0.23939950363035681</v>
-      </c>
-      <c r="K14" s="33">
+        <v>0.12664749006544551</v>
+      </c>
+      <c r="K14" s="23">
         <v>10</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="23">
         <v>0.02</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F36</f>
-        <v>78.712940764196873</v>
-      </c>
-      <c r="N14" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G36</f>
-        <v>1143.0368988343</v>
-      </c>
-      <c r="O14" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="24">
         <v>0.03</v>
       </c>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="33">
+      <c r="P14" s="24"/>
+      <c r="Q14" s="23">
         <f t="shared" si="0"/>
-        <v>2.7151880469894578E-2</v>
-      </c>
-      <c r="R14" s="33">
+        <v>1.4685922769880755E-2</v>
+      </c>
+      <c r="R14" s="23">
         <f t="shared" si="1"/>
-        <v>2.394001195244197E-2</v>
-      </c>
-      <c r="S14" s="33">
+        <v>1.2664783065812127E-2</v>
+      </c>
+      <c r="S14" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>2623.7646921398959</v>
-      </c>
-      <c r="T14" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>38101.229961143334</v>
-      </c>
-      <c r="U14" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B14</f>
-        <v>99.780548394793726</v>
-      </c>
-      <c r="V14" s="33">
+        <v>53.988024914288303</v>
+      </c>
+      <c r="V14" s="23">
         <f>SQRT((C14/B14)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>3.165627094523759E-2</v>
-      </c>
-      <c r="W14" s="33">
+        <v>2.3115774284716652E-2</v>
+      </c>
+      <c r="W14" s="23" t="e">
         <f t="shared" si="8"/>
-        <v>0.21067607630596855</v>
-      </c>
-      <c r="X14" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="23">
         <v>2.3297925795726985E-2</v>
       </c>
-      <c r="Y14" s="33">
+      <c r="Y14" s="23" t="e">
         <f t="shared" si="7"/>
-        <v>2623.7646921398959</v>
-      </c>
-      <c r="AA14" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" s="23" t="e">
         <f>(Q14*G14+S14*O14-U14)/U14</f>
-        <v>-0.18392782840793626</v>
-      </c>
-      <c r="AB14" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" s="23" t="e">
         <f t="shared" si="6"/>
-        <v>0.78886057483628635</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="33">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="23">
         <v>0.158</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="23">
         <v>2E-3</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="23">
         <v>8.8699999999999992</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="24">
         <v>0.03</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="24">
         <v>100</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="24">
         <v>5</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="33">
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23">
         <v>10</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="23">
         <v>0.02</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F37</f>
-        <v>78.712940764196873</v>
-      </c>
-      <c r="N15" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G37</f>
-        <v>1143.0368988343</v>
-      </c>
-      <c r="O15" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="24">
         <v>0.03</v>
       </c>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="33">
+      <c r="P15" s="24"/>
+      <c r="Q15" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R15" s="33" t="e">
+      <c r="R15" s="23" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S15" s="33">
+      <c r="S15" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>2623.7646921398959</v>
-      </c>
-      <c r="T15" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>38101.229961143334</v>
-      </c>
-      <c r="U15" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B15</f>
-        <v>99.780548394793726</v>
-      </c>
-      <c r="V15" s="33">
+        <v>53.988024914288303</v>
+      </c>
+      <c r="V15" s="23">
         <f>SQRT((C15/B15)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>3.165627094523759E-2</v>
-      </c>
-      <c r="W15" s="33">
+        <v>2.3115774284716652E-2</v>
+      </c>
+      <c r="W15" s="23" t="e">
         <f t="shared" si="8"/>
-        <v>0.21067607630596855</v>
-      </c>
-      <c r="X15" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" s="23">
         <v>2.329792734453592E-2</v>
       </c>
-      <c r="Y15" s="33">
+      <c r="Y15" s="23" t="e">
         <f t="shared" si="7"/>
-        <v>2623.7646921398959</v>
-      </c>
-      <c r="AA15" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA15" s="23" t="e">
         <f>(Q15*G15+S15*O15-U15)/U15</f>
-        <v>-0.21113942516371362</v>
-      </c>
-      <c r="AB15" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB15" s="23" t="e">
         <f t="shared" si="6"/>
-        <v>0.78886057483628635</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="33">
+      <c r="A16" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="23">
         <v>0.158</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="23">
         <v>2E-3</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="23">
         <v>8.91</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="24">
         <v>0.03</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="24">
         <v>100</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="24">
         <v>5</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="33">
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23">
         <v>10</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="23">
         <v>0.02</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F38</f>
-        <v>78.712940764196873</v>
-      </c>
-      <c r="N16" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G38</f>
-        <v>1143.0368988343</v>
-      </c>
-      <c r="O16" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="24">
         <v>0.03</v>
       </c>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="33">
+      <c r="P16" s="24"/>
+      <c r="Q16" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R16" s="33" t="e">
+      <c r="R16" s="23" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S16" s="33">
+      <c r="S16" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>2623.7646921398959</v>
-      </c>
-      <c r="T16" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>38101.229961143334</v>
-      </c>
-      <c r="U16" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B16</f>
-        <v>99.780548394793726</v>
-      </c>
-      <c r="V16" s="33">
+        <v>53.988024914288303</v>
+      </c>
+      <c r="V16" s="23">
         <f>SQRT((C16/B16)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>3.165627094523759E-2</v>
-      </c>
-      <c r="W16" s="33">
+        <v>2.3115774284716652E-2</v>
+      </c>
+      <c r="W16" s="23" t="e">
         <f t="shared" si="8"/>
-        <v>0.21067607630596855</v>
-      </c>
-      <c r="X16" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" s="23">
         <v>2.3297930026256426E-2</v>
       </c>
-      <c r="Y16" s="33">
+      <c r="Y16" s="23" t="e">
         <f t="shared" si="7"/>
-        <v>2623.7646921398959</v>
-      </c>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB16" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB16" s="23" t="e">
         <f>Y16*E16/U16</f>
-        <v>0.78886057483628635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="33">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="23">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="23">
         <v>2E-3</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="23">
         <v>8.9</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="24">
         <v>0.03</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="24">
         <v>100</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="24">
         <v>5</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="24">
         <f>'Count-&gt;Actual Activity'!F17</f>
-        <v>0.66243553877254491</v>
-      </c>
-      <c r="J17" s="34">
+        <v>0.35829846751220068</v>
+      </c>
+      <c r="J17" s="24">
         <f>'Count-&gt;Actual Activity'!G17</f>
-        <v>0.23938289621143691</v>
-      </c>
-      <c r="K17" s="33">
+        <v>0.12664538008742116</v>
+      </c>
+      <c r="K17" s="23">
         <v>10</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="23">
         <v>0.02</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F39</f>
-        <v>398.29207170415805</v>
-      </c>
-      <c r="N17" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G39</f>
-        <v>5789.281144766288</v>
-      </c>
-      <c r="O17" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="23">
         <v>0.03</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="23">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="23">
         <f t="shared" si="0"/>
-        <v>6.6243553877254488E-2</v>
-      </c>
-      <c r="R17" s="33">
+        <v>3.5829846751220071E-2</v>
+      </c>
+      <c r="R17" s="23">
         <f t="shared" si="1"/>
-        <v>2.3938656245066824E-2</v>
-      </c>
-      <c r="S17" s="33">
+        <v>1.2664740742966144E-2</v>
+      </c>
+      <c r="S17" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>13276.402390138603</v>
-      </c>
-      <c r="T17" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>192977.4082427198</v>
-      </c>
-      <c r="U17" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B17</f>
-        <v>500.16578689035845</v>
-      </c>
-      <c r="V17" s="33">
+        <v>270.62351729187554</v>
+      </c>
+      <c r="V17" s="23">
         <f>SQRT((C17/B17)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>2.9125000570302848E-2</v>
-      </c>
-      <c r="W17" s="33">
+        <v>1.9506029550982833E-2</v>
+      </c>
+      <c r="W17" s="23" t="e">
         <f t="shared" si="8"/>
-        <v>1.0187371518620041</v>
-      </c>
-      <c r="X17" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" s="23">
         <v>2.3298241351735846E-2</v>
       </c>
-      <c r="Y17" s="33">
+      <c r="Y17" s="23" t="e">
         <f t="shared" si="7"/>
-        <v>13276.402390138603</v>
-      </c>
-      <c r="Z17" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z17" s="23">
         <v>750.18565608355891</v>
       </c>
-      <c r="AA17" s="33">
+      <c r="AA17" s="23" t="e">
         <f>(Q17*G17+S17*O17-U17)/U17</f>
-        <v>-0.19043557615298182</v>
-      </c>
-      <c r="AB17" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB17" s="23" t="e">
         <f t="shared" si="6"/>
-        <v>0.79632010454059265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="33">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="23">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="23">
         <v>2E-3</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="23">
         <v>8.9</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="24">
         <v>0.03</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="24">
         <v>100</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="24">
         <v>5</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="24">
         <f>'Count-&gt;Actual Activity'!F18</f>
-        <v>0.55199608807595779</v>
-      </c>
-      <c r="J18" s="34">
+        <v>0.29856392185241143</v>
+      </c>
+      <c r="J18" s="24">
         <f>'Count-&gt;Actual Activity'!G18</f>
-        <v>0.23938758594741139</v>
-      </c>
-      <c r="K18" s="33">
+        <v>0.1266459758319273</v>
+      </c>
+      <c r="K18" s="23">
         <v>10</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="23">
         <v>0.02</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F40</f>
-        <v>367.85596399559029</v>
-      </c>
-      <c r="N18" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G40</f>
-        <v>5346.7809764687972</v>
-      </c>
-      <c r="O18" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="23">
         <v>0.03</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="23">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="23">
         <f t="shared" si="0"/>
-        <v>5.5199608807595779E-2</v>
-      </c>
-      <c r="R18" s="33">
+        <v>2.9856392185241144E-2</v>
+      </c>
+      <c r="R18" s="23">
         <f t="shared" si="1"/>
-        <v>2.3939013159371102E-2</v>
-      </c>
-      <c r="S18" s="33">
+        <v>1.2664738353429511E-2</v>
+      </c>
+      <c r="S18" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>12261.865466519677</v>
-      </c>
-      <c r="T18" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>178227.29796015276</v>
-      </c>
-      <c r="U18" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B18</f>
-        <v>500.16578689035845</v>
-      </c>
-      <c r="V18" s="33">
+        <v>270.62351729187554</v>
+      </c>
+      <c r="V18" s="23">
         <f>SQRT((C18/B18)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>2.9125000570302848E-2</v>
-      </c>
-      <c r="W18" s="33">
+        <v>1.9506029550982833E-2</v>
+      </c>
+      <c r="W18" s="23" t="e">
         <f t="shared" si="8"/>
-        <v>1.3230982289476816</v>
-      </c>
-      <c r="X18" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" s="23">
         <v>2.3298125385430756E-2</v>
       </c>
-      <c r="Y18" s="33">
+      <c r="Y18" s="23" t="e">
         <f t="shared" si="7"/>
-        <v>12261.865466519677</v>
-      </c>
-      <c r="Z18" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z18" s="23">
         <v>696.13408835057783</v>
       </c>
-      <c r="AA18" s="33">
+      <c r="AA18" s="23" t="e">
         <f>(Q18*G18+S18*O18-U18)/U18</f>
-        <v>-0.25349567150981928</v>
-      </c>
-      <c r="AB18" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB18" s="23" t="e">
         <f t="shared" si="6"/>
-        <v>0.73546806606391923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="33">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="23">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="23">
         <v>2E-3</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="23">
         <v>8.94</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="24">
         <v>0.03</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="24">
         <v>100</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="24">
         <v>5</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="24">
         <f>'Count-&gt;Actual Activity'!F19</f>
-        <v>0.54895535430127174</v>
-      </c>
-      <c r="J19" s="34">
+        <v>0.2969192482384303</v>
+      </c>
+      <c r="J19" s="24">
         <f>'Count-&gt;Actual Activity'!G19</f>
-        <v>0.23938771509340789</v>
-      </c>
-      <c r="K19" s="33">
+        <v>0.12664599223852602</v>
+      </c>
+      <c r="K19" s="23">
         <v>10</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="23">
         <v>0.02</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!F41</f>
-        <v>413.51012555844193</v>
-      </c>
-      <c r="N19" s="34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="24" t="e">
         <f>'Count-&gt;Actual Activity'!G41</f>
-        <v>6010.5312396693034</v>
-      </c>
-      <c r="O19" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="23">
         <v>0.03</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="23">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="23">
         <f t="shared" si="0"/>
-        <v>5.4895535430127172E-2</v>
-      </c>
-      <c r="R19" s="33">
+        <v>2.969192482384303E-2</v>
+      </c>
+      <c r="R19" s="23">
         <f t="shared" si="1"/>
-        <v>2.3939023276977424E-2</v>
-      </c>
-      <c r="S19" s="33">
+        <v>1.2664738447453501E-2</v>
+      </c>
+      <c r="S19" s="23" t="e">
         <f t="shared" si="2"/>
-        <v>13783.670851948065</v>
-      </c>
-      <c r="T19" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" s="23" t="e">
         <f t="shared" si="3"/>
-        <v>200352.4637424768</v>
-      </c>
-      <c r="U19" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B19</f>
-        <v>500.16578689035845</v>
-      </c>
-      <c r="V19" s="33">
+        <v>270.62351729187554</v>
+      </c>
+      <c r="V19" s="23">
         <f>SQRT((C19/B19)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>2.9125000570302848E-2</v>
-      </c>
-      <c r="W19" s="33">
+        <v>1.9506029550982833E-2</v>
+      </c>
+      <c r="W19" s="23" t="e">
         <f t="shared" si="8"/>
-        <v>0.86655661331916523</v>
-      </c>
-      <c r="X19" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" s="23">
         <v>2.3298122491261654E-2</v>
       </c>
-      <c r="Y19" s="33">
+      <c r="Y19" s="23" t="e">
         <f t="shared" si="7"/>
-        <v>13783.670851948065</v>
-      </c>
-      <c r="AA19" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA19" s="23" t="e">
         <f>(Q19*G19+S19*O19-U19)/U19</f>
-        <v>-0.1622784083124347</v>
-      </c>
-      <c r="AB19" s="33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB19" s="23" t="e">
         <f t="shared" si="6"/>
-        <v>0.82674612377892942</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="38">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="28">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="28">
         <v>2E-3</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="28">
         <v>9</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="29">
         <v>0.03</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="30">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="29">
         <v>100</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="29">
         <v>5</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="38">
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="28">
         <v>10</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="28">
         <v>0.02</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="29" t="e">
         <f>'Count-&gt;Actual Activity'!F42</f>
-        <v>-1.9427446635076073</v>
-      </c>
-      <c r="N20" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="29" t="e">
         <f>'Count-&gt;Actual Activity'!G42</f>
-        <v>30.057732841703878</v>
-      </c>
-      <c r="O20" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="28">
         <v>0.03</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="28">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R20" s="38" t="e">
+      <c r="R20" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="38">
+      <c r="S20" s="28" t="e">
         <f t="shared" si="2"/>
-        <v>-64.758155450253582</v>
-      </c>
-      <c r="T20" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" s="28" t="e">
         <f t="shared" si="3"/>
-        <v>-1001.9307063829463</v>
-      </c>
-      <c r="U20" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" s="28">
         <f>Parameters!$B$6*'Bottle Results'!B20</f>
-        <v>500.16578689035845</v>
-      </c>
-      <c r="V20" s="38">
+        <v>270.62351729187554</v>
+      </c>
+      <c r="V20" s="28">
         <f>SQRT((C20/B20)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>2.9125000570302848E-2</v>
-      </c>
-      <c r="W20" s="38">
+        <v>1.9506029550982833E-2</v>
+      </c>
+      <c r="W20" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X20" s="38">
+      <c r="X20" s="28">
         <v>2.330092730933234E-2</v>
       </c>
-      <c r="Y20" s="38">
+      <c r="Y20" s="28">
         <f>(U20-Q20*G20)/E20</f>
-        <v>16672.192896345281</v>
-      </c>
-      <c r="AB20" s="38">
+        <v>9020.7839097291853</v>
+      </c>
+      <c r="AB20" s="28">
         <f t="shared" si="6"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="28">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="28">
         <v>2E-3</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="28">
         <v>9</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="29">
         <v>0.03</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="30">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="29">
         <v>100</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="29">
         <v>5</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="29">
         <f>'Count-&gt;Actual Activity'!F20</f>
-        <v>1.0942501421156658</v>
-      </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="38">
+        <v>0.59185856743363718</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="28">
         <v>10</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="28">
         <v>0.02</v>
       </c>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="38">
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="28">
         <v>0.03</v>
       </c>
-      <c r="P21" s="38">
+      <c r="P21" s="28">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q21" s="28">
         <f t="shared" si="0"/>
-        <v>0.10942501421156658</v>
-      </c>
-      <c r="R21" s="38">
+        <v>5.918585674336372E-2</v>
+      </c>
+      <c r="R21" s="28">
         <f t="shared" si="1"/>
-        <v>2.1885002842313318E-4</v>
-      </c>
-      <c r="U21" s="38">
+        <v>1.1837171348672744E-4</v>
+      </c>
+      <c r="U21" s="28">
         <f>Parameters!$B$6*'Bottle Results'!B21</f>
-        <v>500.16578689035845</v>
-      </c>
-      <c r="V21" s="38">
+        <v>270.62351729187554</v>
+      </c>
+      <c r="V21" s="28">
         <f>SQRT((C21/B21)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>2.9125000570302848E-2</v>
-      </c>
-      <c r="W21" s="38">
+        <v>1.9506029550982833E-2</v>
+      </c>
+      <c r="W21" s="28">
         <f t="shared" si="4"/>
-        <v>0.10942501421156658</v>
-      </c>
-      <c r="X21" s="38">
+        <v>5.918585674336372E-2</v>
+      </c>
+      <c r="X21" s="28">
         <v>2.3298893977915368E-2</v>
       </c>
-      <c r="Y21" s="38">
+      <c r="Y21" s="28">
         <f>(U21-Q21*G21)/E21</f>
-        <v>16307.442848973395</v>
-      </c>
-      <c r="AB21" s="38">
+        <v>8823.497720584639</v>
+      </c>
+      <c r="AB21" s="28">
         <f t="shared" si="6"/>
-        <v>0.97812225124555485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="38">
+        <v>0.97812981763904494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="28">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="28">
         <v>2E-3</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="28">
         <v>8.94</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="29">
         <v>0.03</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="30">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="29">
         <v>100</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="29">
         <v>5</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="38">
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="28">
         <v>10</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="28">
         <v>0.02</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="29" t="e">
         <f>'Count-&gt;Actual Activity'!F44</f>
-        <v>360.24693706844835</v>
-      </c>
-      <c r="N22" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="29" t="e">
         <f>'Count-&gt;Actual Activity'!G44</f>
-        <v>5236.1559395380582</v>
-      </c>
-      <c r="O22" s="38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="28">
         <v>0.03</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="28">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R22" s="38" t="e">
+      <c r="R22" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22" s="28">
         <f>Parameters!$B$6*'Bottle Results'!B22</f>
-        <v>500.16578689035845</v>
-      </c>
-      <c r="V22" s="38">
+        <v>270.62351729187554</v>
+      </c>
+      <c r="V22" s="28">
         <f>SQRT((C22/B22)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>2.9125000570302848E-2</v>
-      </c>
-      <c r="W22" s="38">
+        <v>1.9506029550982833E-2</v>
+      </c>
+      <c r="W22" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X22" s="38">
+      <c r="X22" s="28">
         <v>2.3300879553606872E-2</v>
       </c>
-      <c r="Y22" s="38">
+      <c r="Y22" s="28">
         <f>(U22-Q22*G22)/E22</f>
-        <v>16672.192896345281</v>
-      </c>
-      <c r="AB22" s="38">
+        <v>9020.7839097291853</v>
+      </c>
+      <c r="AB22" s="28">
         <f t="shared" si="6"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="28">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="28">
         <v>2E-3</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="28">
         <v>8.99</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="29">
         <v>0.03</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="30">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="29">
         <v>100</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="29">
         <v>5</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="38">
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="28">
         <v>10</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="28">
         <v>0.02</v>
       </c>
-      <c r="M23" s="39">
+      <c r="M23" s="29">
         <f>'Count-&gt;Actual Activity'!F45</f>
         <v>0</v>
       </c>
-      <c r="N23" s="39">
+      <c r="N23" s="29">
         <f>'Count-&gt;Actual Activity'!G45</f>
         <v>0</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="28">
         <v>0.03</v>
       </c>
-      <c r="P23" s="38">
+      <c r="P23" s="28">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="Q23" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R23" s="38" t="e">
+      <c r="R23" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="28">
         <f>Parameters!$B$6*'Bottle Results'!B23</f>
-        <v>500.16578689035845</v>
-      </c>
-      <c r="V23" s="38">
+        <v>270.62351729187554</v>
+      </c>
+      <c r="V23" s="28">
         <f>SQRT((C23/B23)^2+(Parameters!$C$6/Parameters!$B$6))</f>
-        <v>2.9125000570302848E-2</v>
-      </c>
-      <c r="W23" s="38">
+        <v>1.9506029550982833E-2</v>
+      </c>
+      <c r="W23" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X23" s="38">
+      <c r="X23" s="28">
         <v>2.3299183599979709E-2</v>
       </c>
-      <c r="Y23" s="38">
+      <c r="Y23" s="28">
         <f>(U23-Q23*G23)/E23</f>
-        <v>16672.192896345281</v>
-      </c>
-      <c r="AB23" s="38">
+        <v>9020.7839097291853</v>
+      </c>
+      <c r="AB23" s="28">
         <f t="shared" si="6"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7692,35 +8491,35 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
         <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
       <c r="B2">
@@ -7757,7 +8556,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="14">
         <v>5</v>
       </c>
       <c r="B3">
@@ -7770,11 +8569,11 @@
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!Y5:Y7)</f>
-        <v>166.72192896345283</v>
+        <v>90.207839097291824</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!Y5:Y7)</f>
-        <v>0</v>
+        <v>1.7404671430534633E-14</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!AB5:AB7)</f>
@@ -7794,32 +8593,32 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="14">
         <v>10</v>
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>2.5157159113700759E-2</v>
+        <v>1.3607016879109255E-2</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>6.4497970238454989E-4</v>
-      </c>
-      <c r="D4">
+        <v>3.4885694594384543E-4</v>
+      </c>
+      <c r="D4" t="e">
         <f>AVERAGE('Bottle Results'!Y8:Y10)</f>
-        <v>231.14844727193267</v>
-      </c>
-      <c r="E4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!Y8:Y10)</f>
-        <v>14.643579148855018</v>
-      </c>
-      <c r="F4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" t="e">
         <f>AVERAGE('Bottle Results'!AB8:AB10)</f>
-        <v>0.69497046565839493</v>
-      </c>
-      <c r="G4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!AB8:AB10)</f>
-        <v>4.4027356186446098E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -7831,32 +8630,32 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="14">
         <v>50</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="e">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>0.1106105993106226</v>
-      </c>
-      <c r="C5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>4.3930737446564849E-3</v>
-      </c>
-      <c r="D5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" t="e">
         <f>AVERAGE('Bottle Results'!Y11:Y13)</f>
-        <v>1296.4122170718033</v>
-      </c>
-      <c r="E5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!Y11:Y13)</f>
-        <v>14.643579148855034</v>
-      </c>
-      <c r="F5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" t="e">
         <f>AVERAGE('Bottle Results'!AB11:AB13)</f>
-        <v>0.77857254809866328</v>
-      </c>
-      <c r="G5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!AB11:AB13)</f>
-        <v>8.7943391624000951E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -7868,32 +8667,32 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="14">
         <v>100</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="e">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>0.21067607630596855</v>
-      </c>
-      <c r="C6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" t="e">
         <f>AVERAGE('Bottle Results'!Y14:Y16)</f>
-        <v>2623.7646921398959</v>
-      </c>
-      <c r="E6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!Y14:Y16)</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" t="e">
         <f>AVERAGE('Bottle Results'!AB14:AB16)</f>
-        <v>0.78886057483628635</v>
-      </c>
-      <c r="G6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!AB14:AB16)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -7905,32 +8704,32 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="14">
         <v>500</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="e">
         <f>AVERAGE('Bottle Results'!W17:W19,'Bottle Results'!W21)</f>
-        <v>0.82945425208510437</v>
-      </c>
-      <c r="C7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W19,'Bottle Results'!W21)</f>
-        <v>0.51618184155151592</v>
-      </c>
-      <c r="D7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" t="e">
         <f>AVERAGE('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>13907.345389394934</v>
-      </c>
-      <c r="E7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>1720.6061385050698</v>
-      </c>
-      <c r="F7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" t="e">
         <f>AVERAGE('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>0.83416413640724907</v>
-      </c>
-      <c r="G7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>0.10320214918352018</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H7">
         <f>AVERAGE('Bottle Results'!D17:D19,'Bottle Results'!D21)</f>
@@ -7942,52 +8741,52 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="14"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="14"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="14"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="14"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="14"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="147">
   <si>
     <t>Parameters</t>
   </si>
@@ -2581,7 +2581,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,14 +3178,8 @@
       <c r="E24" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="1" t="e">
-        <f>(C24-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!L65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F24-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
@@ -3197,14 +3191,8 @@
       <c r="E25" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="1" t="e">
-        <f>(C25-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F25-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
@@ -3216,14 +3204,8 @@
       <c r="E26" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="1" t="e">
-        <f>(C26-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F26-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -3235,13 +3217,11 @@
       <c r="E27" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="1" t="e">
-        <f>(C27-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F27-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F27" s="1">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.25219999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3254,13 +3234,11 @@
       <c r="E28" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="1" t="e">
-        <f>(C28-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F28-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F28" s="1">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.2591</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3273,14 +3251,8 @@
       <c r="E29" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="1" t="e">
-        <f>(C29-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F29-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
@@ -3289,23 +3261,16 @@
       <c r="B30" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="15">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D30" s="15">
-        <f>0.052*C30</f>
-        <v>8.3199999999999995E-4</v>
-      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="1" t="e">
-        <f>(C30-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F30-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F30" s="1">
+        <v>6.1120000000000001</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.32490000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3315,23 +3280,16 @@
       <c r="B31" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="15">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D31" s="15">
-        <f>0.045*C31</f>
-        <v>7.1999999999999994E-4</v>
-      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="1" t="e">
-        <f>(C31-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F31-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F31" s="1">
+        <v>5.9980000000000002</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.3201</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3341,23 +3299,16 @@
       <c r="B32" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D32" s="15">
-        <f>0.064*C32</f>
-        <v>9.6000000000000002E-4</v>
-      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="1" t="e">
-        <f>(C32-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F32-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F32" s="1">
+        <v>5.6020000000000003</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0.37659999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3367,23 +3318,16 @@
       <c r="B33" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="15">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="D33" s="15">
-        <f>3.8/100*C33</f>
-        <v>2.2040000000000002E-3</v>
-      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="1" t="e">
-        <f>(C33-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F33-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F33" s="1">
+        <v>21.28</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1.0509999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3393,23 +3337,16 @@
       <c r="B34" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="15">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D34" s="15">
-        <f>3.2/100*C34</f>
-        <v>1.8240000000000001E-3</v>
-      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="1" t="e">
-        <f>(C34-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F34-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F34" s="1">
+        <v>20.83</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0.94069999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3419,23 +3356,16 @@
       <c r="B35" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="15">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="D35" s="15">
-        <f>3.6/100*C35</f>
-        <v>2.0880000000000004E-3</v>
-      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="1" t="e">
-        <f>(C35-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F35-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F35" s="1">
+        <v>21.45</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1.032</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3445,23 +3375,14 @@
       <c r="B36" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C36">
-        <v>0.11</v>
-      </c>
-      <c r="D36">
-        <f>2.7/100*C36</f>
-        <v>2.9700000000000004E-3</v>
-      </c>
       <c r="E36" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="1" t="e">
-        <f>(C36-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F36-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F36" s="1">
+        <v>38.81</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1.6040000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3471,23 +3392,14 @@
       <c r="B37" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C37">
-        <v>0.11</v>
-      </c>
-      <c r="D37">
-        <f>2.1/100*C37</f>
-        <v>2.31E-3</v>
-      </c>
       <c r="E37" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="1" t="e">
-        <f>(C37-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F37-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F37" s="1">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="G37" s="16">
+        <v>1.5049999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,23 +3409,14 @@
       <c r="B38" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C38">
-        <v>0.11</v>
-      </c>
-      <c r="D38">
-        <f>C38*0.023</f>
-        <v>2.5300000000000001E-3</v>
-      </c>
       <c r="E38" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="1" t="e">
-        <f>(C38-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F38-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F38" s="1">
+        <v>40.43</v>
+      </c>
+      <c r="G38" s="16">
+        <v>1.591</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3523,23 +3426,14 @@
       <c r="B39" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C39">
-        <v>0.53</v>
-      </c>
-      <c r="D39">
-        <f>0.01*C39</f>
-        <v>5.3E-3</v>
-      </c>
       <c r="E39" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="1" t="e">
-        <f>(C39-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F39-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F39" s="1">
+        <v>192.2</v>
+      </c>
+      <c r="G39" s="16">
+        <v>6.4370000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3549,23 +3443,14 @@
       <c r="B40" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C40">
-        <v>0.49</v>
-      </c>
-      <c r="D40">
-        <f>C40*0.013</f>
-        <v>6.3699999999999998E-3</v>
-      </c>
       <c r="E40" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="1" t="e">
-        <f>(C40-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F40-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F40" s="1">
+        <v>181.3</v>
+      </c>
+      <c r="G40" s="16">
+        <v>6.2560000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3575,23 +3460,14 @@
       <c r="B41" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C41">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D41">
-        <f>0.04*C41</f>
-        <v>2.2000000000000002E-2</v>
-      </c>
       <c r="E41" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F41" s="1" t="e">
-        <f>(C41-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F41-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
+      <c r="F41" s="1">
+        <v>197.3</v>
+      </c>
+      <c r="G41" s="16">
+        <v>10.15</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3601,24 +3477,13 @@
       <c r="B42" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="15">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D42" s="15">
-        <f>0.213*C42</f>
-        <v>8.52E-4</v>
-      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="1" t="e">
-        <f>(C42-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F42-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
@@ -3627,24 +3492,13 @@
       <c r="B43" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="15">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="D43" s="15">
-        <f>0.127*C43</f>
-        <v>7.4929999999999994E-4</v>
-      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="1" t="e">
-        <f>(C43-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F43-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
@@ -3653,24 +3507,11 @@
       <c r="B44" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C44">
-        <v>0.48</v>
-      </c>
-      <c r="D44">
-        <f>C44*0.012</f>
-        <v>5.7599999999999995E-3</v>
-      </c>
       <c r="E44" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="1" t="e">
-        <f>(C44-'Calibration Data'!$L$64)/'Calibration Data'!$L$65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="16" t="e">
-        <f>'Calibration Data'!$L$54/'Calibration Data'!$L$65*SQRT(1/'Calibration Data'!$L$55+1+('Count-&gt;Actual Activity'!F44-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$65^2*'Calibration Data'!$J$9))</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3682,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -6386,10 +6227,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6532,31 +6376,37 @@
       <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1">
+        <f>'Count-&gt;Actual Activity'!F2</f>
+        <v>0.13863585962890326</v>
+      </c>
+      <c r="J2" s="1">
+        <f>'Count-&gt;Actual Activity'!G2</f>
+        <v>0.1266475721979699</v>
+      </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="L2">
         <v>0.02</v>
       </c>
-      <c r="M2" s="1" t="e">
+      <c r="M2" s="1">
         <f>'Count-&gt;Actual Activity'!F24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
         <f>'Count-&gt;Actual Activity'!G24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2">
         <f>I2/K2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" t="e">
+        <v>1.3863585962890326E-2</v>
+      </c>
+      <c r="R2">
         <f>Q2*SQRT((J2/I2)^2+(L2/K2)^2)</f>
-        <v>#DIV/0!</v>
+        <v>1.2664787571549038E-2</v>
       </c>
       <c r="S2" t="e">
         <f>M2/O2</f>
@@ -6576,14 +6426,14 @@
       </c>
       <c r="W2">
         <f>Q2</f>
-        <v>0</v>
+        <v>1.3863585962890326E-2</v>
       </c>
       <c r="X2">
         <v>2.3297918868665893E-2</v>
       </c>
       <c r="Y2">
         <f>(U2-Q2*G2)/E2</f>
-        <v>0</v>
+        <v>-46.211953209634423</v>
       </c>
       <c r="AA2" t="s">
         <v>123</v>
@@ -6618,31 +6468,37 @@
       <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1">
+        <f>'Count-&gt;Actual Activity'!F3</f>
+        <v>0.14271465019157553</v>
+      </c>
+      <c r="J3" s="1">
+        <f>'Count-&gt;Actual Activity'!G3</f>
+        <v>0.12664753145957777</v>
+      </c>
       <c r="K3">
         <v>10</v>
       </c>
       <c r="L3">
         <v>0.02</v>
       </c>
-      <c r="M3" s="1" t="e">
+      <c r="M3" s="1">
         <f>'Count-&gt;Actual Activity'!F25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <f>'Count-&gt;Actual Activity'!G25</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3">
         <f t="shared" ref="Q3:Q23" si="0">I3/K3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" t="e">
+        <v>1.4271465019157553E-2</v>
+      </c>
+      <c r="R3">
         <f t="shared" ref="R3:R23" si="1">Q3*SQRT((J3/I3)^2+(L3/K3)^2)</f>
-        <v>#DIV/0!</v>
+        <v>1.2664785309941206E-2</v>
       </c>
       <c r="S3" t="e">
         <f t="shared" ref="S3:S20" si="2">M3/O3</f>
@@ -6662,14 +6518,14 @@
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W23" si="4">Q3</f>
-        <v>0</v>
+        <v>1.4271465019157553E-2</v>
       </c>
       <c r="X3">
         <v>2.3297922254460427E-2</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y7" si="5">(U3-Q3*G3)/E3</f>
-        <v>0</v>
+        <v>-47.57155006385851</v>
       </c>
       <c r="AA3" t="s">
         <v>123</v>
@@ -6704,31 +6560,37 @@
       <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1">
+        <f>'Count-&gt;Actual Activity'!F4</f>
+        <v>0.13435970823255169</v>
+      </c>
+      <c r="J4" s="1">
+        <f>'Count-&gt;Actual Activity'!G4</f>
+        <v>0.12664761490896947</v>
+      </c>
       <c r="K4">
         <v>10</v>
       </c>
       <c r="L4">
         <v>0.02</v>
       </c>
-      <c r="M4" s="1" t="e">
+      <c r="M4" s="1">
         <f>'Count-&gt;Actual Activity'!F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <f>'Count-&gt;Actual Activity'!G26</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4" t="e">
+        <v>1.3435970823255169E-2</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.2664789999149379E-2</v>
       </c>
       <c r="S4" t="e">
         <f t="shared" si="2"/>
@@ -6748,14 +6610,14 @@
       </c>
       <c r="W4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.3435970823255169E-2</v>
       </c>
       <c r="X4">
         <v>2.3297915424772112E-2</v>
       </c>
       <c r="Y4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-44.786569410850568</v>
       </c>
       <c r="AA4" t="s">
         <v>123</v>
@@ -6790,39 +6652,47 @@
       <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1">
+        <f>'Count-&gt;Actual Activity'!F5</f>
+        <v>0.13482021684446649</v>
+      </c>
+      <c r="J5" s="1">
+        <f>'Count-&gt;Actual Activity'!G5</f>
+        <v>0.12664761030925478</v>
+      </c>
       <c r="K5">
         <v>10</v>
       </c>
       <c r="L5">
         <v>0.02</v>
       </c>
-      <c r="M5" s="1" t="e">
+      <c r="M5" s="1">
         <f>'Count-&gt;Actual Activity'!F27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="1" t="e">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="N5" s="1">
         <f>'Count-&gt;Actual Activity'!G27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="1"/>
+        <v>0.25219999999999998</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" t="e">
+        <v>1.3482021684446649E-2</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" t="e">
+        <v>1.2664789734933755E-2</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" t="e">
+        <v>126.13636363636364</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>11.463636363636363</v>
       </c>
       <c r="U5">
         <f>Parameters!$B$6*'Bottle Results'!B5</f>
@@ -6832,23 +6702,23 @@
         <f>SQRT((C5/B5)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>0.12773550438019637</v>
       </c>
-      <c r="W5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W5" s="23">
+        <f>(U5-S5*O5)/G5</f>
+        <v>-6.8764827081244648E-4</v>
       </c>
       <c r="X5">
         <v>2.3297915790452959E-2</v>
       </c>
       <c r="Y5">
         <f t="shared" si="5"/>
-        <v>90.207839097291838</v>
+        <v>45.267766815803007</v>
       </c>
       <c r="AA5" t="s">
         <v>123</v>
       </c>
       <c r="AB5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.50181633069583198</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -6876,39 +6746,47 @@
       <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1">
+        <f>'Count-&gt;Actual Activity'!F6</f>
+        <v>0.13916215518537664</v>
+      </c>
+      <c r="J6" s="1">
+        <f>'Count-&gt;Actual Activity'!G6</f>
+        <v>0.1266475669413302</v>
+      </c>
       <c r="K6">
         <v>10</v>
       </c>
       <c r="L6">
         <v>0.02</v>
       </c>
-      <c r="M6" s="1" t="e">
+      <c r="M6" s="1">
         <f>'Count-&gt;Actual Activity'!F28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="1" t="e">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="N6" s="1">
         <f>'Count-&gt;Actual Activity'!G28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="1"/>
+        <v>0.2591</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" t="e">
+        <v>1.3916215518537663E-2</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" t="e">
+        <v>1.2664787276768787E-2</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" t="e">
+        <v>146.59090909090909</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>11.777272727272726</v>
       </c>
       <c r="U6">
         <f>Parameters!$B$6*'Bottle Results'!B6</f>
@@ -6918,23 +6796,23 @@
         <f>SQRT((C6/B6)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>0.12773550438019637</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W6" s="23">
+        <f t="shared" ref="W6:W16" si="7">(U6-S6*O6)/G6</f>
+        <v>-5.1876482708124484E-3</v>
       </c>
       <c r="X6">
         <v>2.3297919300009583E-2</v>
       </c>
       <c r="Y6">
         <f t="shared" si="5"/>
-        <v>90.207839097291838</v>
+        <v>43.820454035499637</v>
       </c>
       <c r="AA6" t="s">
         <v>123</v>
       </c>
       <c r="AB6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.48577212883059939</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -6962,35 +6840,43 @@
       <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1">
+        <f>'Count-&gt;Actual Activity'!F7</f>
+        <v>0.13087300017091258</v>
+      </c>
+      <c r="J7" s="1">
+        <f>'Count-&gt;Actual Activity'!G7</f>
+        <v>0.12664764973591827</v>
+      </c>
       <c r="K7">
         <v>10</v>
       </c>
       <c r="L7">
         <v>0.02</v>
       </c>
-      <c r="M7" s="1" t="e">
+      <c r="M7" s="1">
         <f>'Count-&gt;Actual Activity'!F29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <f>'Count-&gt;Actual Activity'!G29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7">
         <f t="shared" si="0"/>
+        <v>1.3087300017091259E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>1.2664792021427172E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="R7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="T7" t="e">
         <f t="shared" si="3"/>
@@ -7004,23 +6890,23 @@
         <f>SQRT((C7/B7)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>0.12773550438019637</v>
       </c>
-      <c r="W7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W7" s="23">
+        <f t="shared" si="7"/>
+        <v>2.7062351729187552E-2</v>
       </c>
       <c r="X7">
         <v>2.3297912696774961E-2</v>
       </c>
       <c r="Y7">
         <f t="shared" si="5"/>
-        <v>90.207839097291838</v>
+        <v>46.583505706987644</v>
       </c>
       <c r="AA7" t="s">
         <v>123</v>
       </c>
       <c r="AB7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.51640196875513167</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7048,11 +6934,11 @@
       <c r="H8" s="24">
         <v>5</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="1">
         <f>'Count-&gt;Actual Activity'!F8</f>
         <v>0.13251767378489365</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="1">
         <f>'Count-&gt;Actual Activity'!G8</f>
         <v>0.12664763330799395</v>
       </c>
@@ -7062,16 +6948,16 @@
       <c r="L8" s="23">
         <v>0.02</v>
       </c>
-      <c r="M8" s="24" t="e">
+      <c r="M8" s="1">
         <f>'Count-&gt;Actual Activity'!F30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="24" t="e">
+        <v>6.1120000000000001</v>
+      </c>
+      <c r="N8" s="1">
         <f>'Count-&gt;Actual Activity'!G30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="23">
-        <v>0.03</v>
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P8" s="23">
         <v>9.0000000000000006E-5</v>
@@ -7084,13 +6970,13 @@
         <f t="shared" si="1"/>
         <v>1.2664791062726444E-2</v>
       </c>
-      <c r="S8" s="23" t="e">
+      <c r="S8" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="23" t="e">
+        <v>277.81818181818181</v>
+      </c>
+      <c r="T8" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>23.105142153086835</v>
       </c>
       <c r="U8" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B8</f>
@@ -7101,23 +6987,23 @@
         <v>6.6180636102176282E-2</v>
       </c>
       <c r="W8" s="23">
-        <f t="shared" si="4"/>
-        <v>1.3251767378489366E-2</v>
+        <f t="shared" si="7"/>
+        <v>-7.1319750857116839E-3</v>
       </c>
       <c r="X8" s="23">
         <v>2.3297913974600508E-2</v>
       </c>
-      <c r="Y8" s="23" t="e">
-        <f t="shared" ref="Y8:Y19" si="7">S8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA8" s="23" t="e">
-        <f>(Q8*G8+S8*O8-U8)/U8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB8" s="23" t="e">
+      <c r="Y8" s="23">
+        <f t="shared" ref="Y8:Y19" si="8">S8</f>
+        <v>277.81818181818181</v>
+      </c>
+      <c r="AA8" s="23">
+        <f>(Q8*G8+S8*E8-U8)/U8</f>
+        <v>0.78923422513237329</v>
+      </c>
+      <c r="AB8" s="23">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.5437766926605345</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7145,11 +7031,11 @@
       <c r="H9" s="24">
         <v>5</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="1">
         <f>'Count-&gt;Actual Activity'!F9</f>
         <v>0.13620174268021087</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="1">
         <f>'Count-&gt;Actual Activity'!G9</f>
         <v>0.12664759651021001</v>
       </c>
@@ -7159,16 +7045,16 @@
       <c r="L9" s="23">
         <v>0.02</v>
       </c>
-      <c r="M9" s="24" t="e">
+      <c r="M9" s="1">
         <f>'Count-&gt;Actual Activity'!F31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="24" t="e">
+        <v>5.9980000000000002</v>
+      </c>
+      <c r="N9" s="1">
         <f>'Count-&gt;Actual Activity'!G31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="23">
-        <v>0.03</v>
+        <v>0.3201</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P9" s="23">
         <v>9.0000000000000006E-5</v>
@@ -7181,13 +7067,13 @@
         <f t="shared" si="1"/>
         <v>1.2664788946315605E-2</v>
       </c>
-      <c r="S9" s="23" t="e">
+      <c r="S9" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="23" t="e">
+        <v>272.63636363636368</v>
+      </c>
+      <c r="T9" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>22.710838231515403</v>
       </c>
       <c r="U9" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B9</f>
@@ -7198,23 +7084,23 @@
         <v>6.6180636102176282E-2</v>
       </c>
       <c r="W9" s="23">
-        <f t="shared" si="4"/>
-        <v>1.3620174268021087E-2</v>
+        <f t="shared" si="7"/>
+        <v>-5.9919750857117026E-3</v>
       </c>
       <c r="X9" s="23">
         <v>2.3297916895026565E-2</v>
       </c>
-      <c r="Y9" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA9" s="23" t="e">
-        <f>(Q9*G9+S9*O9-U9)/U9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB9" s="23" t="e">
+      <c r="Y9" s="23">
+        <f t="shared" si="8"/>
+        <v>272.63636363636368</v>
+      </c>
+      <c r="AA9" s="23">
+        <f t="shared" ref="AA9:AA19" si="9">(Q9*G9+S9*E9-U9)/U9</f>
+        <v>0.76726382397587889</v>
+      </c>
+      <c r="AB9" s="23">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.514982428432246</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7242,11 +7128,11 @@
       <c r="H10" s="24">
         <v>5</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="1">
         <f>'Count-&gt;Actual Activity'!F10</f>
         <v>0.1394910899081731</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="1">
         <f>'Count-&gt;Actual Activity'!G10</f>
         <v>0.12664756365594135</v>
       </c>
@@ -7256,16 +7142,16 @@
       <c r="L10" s="23">
         <v>0.02</v>
       </c>
-      <c r="M10" s="24" t="e">
+      <c r="M10" s="1">
         <f>'Count-&gt;Actual Activity'!F32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="24" t="e">
+        <v>5.6020000000000003</v>
+      </c>
+      <c r="N10" s="1">
         <f>'Count-&gt;Actual Activity'!G32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="23">
-        <v>0.03</v>
+        <v>0.37659999999999999</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P10" s="23">
         <v>9.0000000000000006E-5</v>
@@ -7278,13 +7164,13 @@
         <f t="shared" si="1"/>
         <v>1.2664787092976483E-2</v>
       </c>
-      <c r="S10" s="23" t="e">
+      <c r="S10" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="23" t="e">
+        <v>254.63636363636365</v>
+      </c>
+      <c r="T10" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>23.628063307376685</v>
       </c>
       <c r="U10" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B10</f>
@@ -7295,23 +7181,23 @@
         <v>6.6180636102176282E-2</v>
       </c>
       <c r="W10" s="23">
-        <f t="shared" si="4"/>
-        <v>1.394910899081731E-2</v>
+        <f t="shared" si="7"/>
+        <v>-2.0319750857116948E-3</v>
       </c>
       <c r="X10" s="23">
         <v>2.3297919570431896E-2</v>
       </c>
-      <c r="Y10" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA10" s="23" t="e">
-        <f>(Q10*G10+S10*O10-U10)/U10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB10" s="23" t="e">
+      <c r="Y10" s="23">
+        <f t="shared" si="8"/>
+        <v>254.63636363636365</v>
+      </c>
+      <c r="AA10" s="23">
+        <f t="shared" si="9"/>
+        <v>0.67333437785788086</v>
+      </c>
+      <c r="AB10" s="23">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.4149602474287164</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7339,41 +7225,47 @@
       <c r="H11" s="24">
         <v>5</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="1">
+        <f>'Count-&gt;Actual Activity'!F11</f>
+        <v>0.13909636824081686</v>
+      </c>
+      <c r="J11" s="1">
+        <f>'Count-&gt;Actual Activity'!G11</f>
+        <v>0.12664756759840898</v>
+      </c>
       <c r="K11" s="23">
         <v>10</v>
       </c>
       <c r="L11" s="23">
         <v>0.02</v>
       </c>
-      <c r="M11" s="24" t="e">
+      <c r="M11" s="1">
         <f>'Count-&gt;Actual Activity'!F33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="24" t="e">
+        <v>21.28</v>
+      </c>
+      <c r="N11" s="1">
         <f>'Count-&gt;Actual Activity'!G33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="24">
-        <v>0.03</v>
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P11" s="24"/>
       <c r="Q11" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="23" t="e">
+        <v>1.3909636824081686E-2</v>
+      </c>
+      <c r="R11" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" s="23" t="e">
+        <v>1.2664787313568357E-2</v>
+      </c>
+      <c r="S11" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="23" t="e">
+        <v>967.27272727272737</v>
+      </c>
+      <c r="T11" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>47.772727272727273</v>
       </c>
       <c r="U11" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B11</f>
@@ -7383,23 +7275,24 @@
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.1834127968683831E-2</v>
       </c>
-      <c r="W11" s="23" t="e">
-        <f t="shared" ref="W11:W19" si="8">(U11-S11*O11)/G11</f>
-        <v>#DIV/0!</v>
+      <c r="W11" s="23">
+        <f t="shared" si="7"/>
+        <v>5.7481820931658517E-2</v>
       </c>
       <c r="X11" s="23">
         <v>2.3297919246001962E-2</v>
       </c>
-      <c r="Y11" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA11" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB11" s="23" t="e">
+      <c r="Y11" s="23">
+        <f t="shared" si="8"/>
+        <v>967.27272727272737</v>
+      </c>
+      <c r="AA11" s="23">
+        <f t="shared" si="9"/>
+        <v>0.12509030003460803</v>
+      </c>
+      <c r="AB11" s="23">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.0736268432022715</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7427,41 +7320,47 @@
       <c r="H12" s="24">
         <v>5</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="1">
+        <f>'Count-&gt;Actual Activity'!F12</f>
+        <v>0.13718854684859907</v>
+      </c>
+      <c r="J12" s="1">
+        <f>'Count-&gt;Actual Activity'!G12</f>
+        <v>0.12664758665384068</v>
+      </c>
       <c r="K12" s="23">
         <v>10</v>
       </c>
       <c r="L12" s="23">
         <v>0.02</v>
       </c>
-      <c r="M12" s="24" t="e">
+      <c r="M12" s="1">
         <f>'Count-&gt;Actual Activity'!F34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="24" t="e">
+        <v>20.83</v>
+      </c>
+      <c r="N12" s="1">
         <f>'Count-&gt;Actual Activity'!G34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="24">
-        <v>0.03</v>
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P12" s="24"/>
       <c r="Q12" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="23" t="e">
+        <v>1.3718854684859907E-2</v>
+      </c>
+      <c r="R12" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" s="23" t="e">
+        <v>1.2664788386716783E-2</v>
+      </c>
+      <c r="S12" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="23" t="e">
+        <v>946.81818181818176</v>
+      </c>
+      <c r="T12" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>42.759090909090908</v>
       </c>
       <c r="U12" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B12</f>
@@ -7471,23 +7370,24 @@
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.1834127968683831E-2</v>
       </c>
-      <c r="W12" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="W12" s="23">
+        <f t="shared" si="7"/>
+        <v>6.1981820931658549E-2</v>
       </c>
       <c r="X12" s="23">
         <v>2.3297917690924E-2</v>
       </c>
-      <c r="Y12" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA12" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB12" s="23" t="e">
+      <c r="Y12" s="23">
+        <f t="shared" si="8"/>
+        <v>946.81818181818176</v>
+      </c>
+      <c r="AA12" s="23">
+        <f t="shared" si="9"/>
+        <v>0.10168086112459977</v>
+      </c>
+      <c r="AB12" s="23">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.0509232680405693</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7515,41 +7415,47 @@
       <c r="H13" s="24">
         <v>5</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="1">
+        <f>'Count-&gt;Actual Activity'!F13</f>
+        <v>0.14014895935376481</v>
+      </c>
+      <c r="J13" s="1">
+        <f>'Count-&gt;Actual Activity'!G13</f>
+        <v>0.12664755708518899</v>
+      </c>
       <c r="K13" s="23">
         <v>10</v>
       </c>
       <c r="L13" s="23">
         <v>0.02</v>
       </c>
-      <c r="M13" s="24" t="e">
+      <c r="M13" s="1">
         <f>'Count-&gt;Actual Activity'!F35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="24" t="e">
+        <v>21.45</v>
+      </c>
+      <c r="N13" s="1">
         <f>'Count-&gt;Actual Activity'!G35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="24">
-        <v>0.03</v>
+        <v>1.032</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="23" t="e">
+        <v>1.4014895935376481E-2</v>
+      </c>
+      <c r="R13" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" s="23" t="e">
+        <v>1.2664786726419609E-2</v>
+      </c>
+      <c r="S13" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="23" t="e">
+        <v>975</v>
+      </c>
+      <c r="T13" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>46.909090909090914</v>
       </c>
       <c r="U13" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B13</f>
@@ -7559,23 +7465,24 @@
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.1834127968683831E-2</v>
       </c>
-      <c r="W13" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="W13" s="23">
+        <f t="shared" si="7"/>
+        <v>5.5781820931658538E-2</v>
       </c>
       <c r="X13" s="23">
         <v>2.3297920113197729E-2</v>
       </c>
-      <c r="Y13" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA13" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB13" s="23" t="e">
+      <c r="Y13" s="23">
+        <f t="shared" si="8"/>
+        <v>975</v>
+      </c>
+      <c r="AA13" s="23">
+        <f t="shared" si="9"/>
+        <v>0.13405664827483743</v>
+      </c>
+      <c r="AB13" s="23">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.0822037493744701</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7603,11 +7510,11 @@
       <c r="H14" s="24">
         <v>5</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="1">
         <f>'Count-&gt;Actual Activity'!F14</f>
         <v>0.14685922769880755</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="1">
         <f>'Count-&gt;Actual Activity'!G14</f>
         <v>0.12664749006544551</v>
       </c>
@@ -7617,16 +7524,16 @@
       <c r="L14" s="23">
         <v>0.02</v>
       </c>
-      <c r="M14" s="24" t="e">
+      <c r="M14" s="1">
         <f>'Count-&gt;Actual Activity'!F36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="24" t="e">
+        <v>38.81</v>
+      </c>
+      <c r="N14" s="1">
         <f>'Count-&gt;Actual Activity'!G36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="24">
-        <v>0.03</v>
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="23">
@@ -7637,13 +7544,13 @@
         <f t="shared" si="1"/>
         <v>1.2664783065812127E-2</v>
       </c>
-      <c r="S14" s="23" t="e">
+      <c r="S14" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T14" s="23" t="e">
+        <v>1764.0909090909092</v>
+      </c>
+      <c r="T14" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>72.909090909090907</v>
       </c>
       <c r="U14" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B14</f>
@@ -7653,24 +7560,24 @@
         <f>SQRT((C14/B14)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>2.3115774284716652E-2</v>
       </c>
-      <c r="W14" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="W14" s="23">
+        <f t="shared" si="7"/>
+        <v>0.15178024914288302</v>
       </c>
       <c r="X14" s="23">
         <v>2.3297925795726985E-2</v>
       </c>
-      <c r="Y14" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA14" s="23" t="e">
-        <f>(Q14*G14+S14*O14-U14)/U14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB14" s="23" t="e">
+      <c r="Y14" s="23">
+        <f t="shared" si="8"/>
+        <v>1764.0909090909092</v>
+      </c>
+      <c r="AA14" s="23">
+        <f t="shared" si="9"/>
+        <v>7.4700757448956118E-3</v>
+      </c>
+      <c r="AB14" s="23">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.98026789008762027</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7698,41 +7605,47 @@
       <c r="H15" s="24">
         <v>5</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="1">
+        <f>'Count-&gt;Actual Activity'!F15</f>
+        <v>0.14863547520190695</v>
+      </c>
+      <c r="J15" s="1">
+        <f>'Count-&gt;Actual Activity'!G15</f>
+        <v>0.12664747232551371</v>
+      </c>
       <c r="K15" s="23">
         <v>10</v>
       </c>
       <c r="L15" s="23">
         <v>0.02</v>
       </c>
-      <c r="M15" s="24" t="e">
+      <c r="M15" s="1">
         <f>'Count-&gt;Actual Activity'!F37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="24" t="e">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="N15" s="1">
         <f>'Count-&gt;Actual Activity'!G37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="24">
-        <v>0.03</v>
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="23" t="e">
+        <v>1.4863547520190696E-2</v>
+      </c>
+      <c r="R15" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" s="23" t="e">
+        <v>1.2664782120691899E-2</v>
+      </c>
+      <c r="S15" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T15" s="23" t="e">
+        <v>1765.4545454545457</v>
+      </c>
+      <c r="T15" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>68.409090909090907</v>
       </c>
       <c r="U15" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B15</f>
@@ -7742,24 +7655,24 @@
         <f>SQRT((C15/B15)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>2.3115774284716652E-2</v>
       </c>
-      <c r="W15" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="W15" s="23">
+        <f t="shared" si="7"/>
+        <v>0.15148024914288299</v>
       </c>
       <c r="X15" s="23">
         <v>2.329792734453592E-2</v>
       </c>
-      <c r="Y15" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA15" s="23" t="e">
-        <f>(Q15*G15+S15*O15-U15)/U15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB15" s="23" t="e">
+      <c r="Y15" s="23">
+        <f t="shared" si="8"/>
+        <v>1765.4545454545457</v>
+      </c>
+      <c r="AA15" s="23">
+        <f t="shared" si="9"/>
+        <v>8.5568272241956112E-3</v>
+      </c>
+      <c r="AB15" s="23">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.98102563388310171</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -7787,41 +7700,47 @@
       <c r="H16" s="24">
         <v>5</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="I16" s="1">
+        <f>'Count-&gt;Actual Activity'!F16</f>
+        <v>0.15166167465163247</v>
+      </c>
+      <c r="J16" s="1">
+        <f>'Count-&gt;Actual Activity'!G16</f>
+        <v>0.12664744210249368</v>
+      </c>
       <c r="K16" s="23">
         <v>10</v>
       </c>
       <c r="L16" s="23">
         <v>0.02</v>
       </c>
-      <c r="M16" s="24" t="e">
+      <c r="M16" s="1">
         <f>'Count-&gt;Actual Activity'!F38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="24" t="e">
+        <v>40.43</v>
+      </c>
+      <c r="N16" s="1">
         <f>'Count-&gt;Actual Activity'!G38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="24">
-        <v>0.03</v>
+        <v>1.591</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P16" s="24"/>
       <c r="Q16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="23" t="e">
+        <v>1.5166167465163246E-2</v>
+      </c>
+      <c r="R16" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="23" t="e">
+        <v>1.2664780533494735E-2</v>
+      </c>
+      <c r="S16" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="23" t="e">
+        <v>1837.7272727272727</v>
+      </c>
+      <c r="T16" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>72.318181818181827</v>
       </c>
       <c r="U16" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B16</f>
@@ -7831,27 +7750,28 @@
         <f>SQRT((C16/B16)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>2.3115774284716652E-2</v>
       </c>
-      <c r="W16" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="W16" s="23">
+        <f t="shared" si="7"/>
+        <v>0.13558024914288302</v>
       </c>
       <c r="X16" s="23">
         <v>2.3297930026256426E-2</v>
       </c>
-      <c r="Y16" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="Y16" s="23">
+        <f t="shared" si="8"/>
+        <v>1837.7272727272727</v>
       </c>
       <c r="Z16" s="23"/>
-      <c r="AA16" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB16" s="23" t="e">
+      <c r="AA16" s="23">
+        <f t="shared" si="9"/>
+        <v>4.9277779994172571E-2</v>
+      </c>
+      <c r="AB16" s="23">
         <f>Y16*E16/U16</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.0211860550436096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>103</v>
       </c>
@@ -7876,11 +7796,11 @@
       <c r="H17" s="24">
         <v>5</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="1">
         <f>'Count-&gt;Actual Activity'!F17</f>
         <v>0.35829846751220068</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="1">
         <f>'Count-&gt;Actual Activity'!G17</f>
         <v>0.12664538008742116</v>
       </c>
@@ -7890,16 +7810,16 @@
       <c r="L17" s="23">
         <v>0.02</v>
       </c>
-      <c r="M17" s="24" t="e">
+      <c r="M17" s="1">
         <f>'Count-&gt;Actual Activity'!F39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="24" t="e">
+        <v>192.2</v>
+      </c>
+      <c r="N17" s="1">
         <f>'Count-&gt;Actual Activity'!G39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="23">
-        <v>0.03</v>
+        <v>6.4370000000000003</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P17" s="23">
         <v>9.0000000000000006E-5</v>
@@ -7912,13 +7832,13 @@
         <f t="shared" si="1"/>
         <v>1.2664740742966144E-2</v>
       </c>
-      <c r="S17" s="23" t="e">
+      <c r="S17" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="23" t="e">
+        <v>8736.363636363636</v>
+      </c>
+      <c r="T17" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>630.7489107340466</v>
       </c>
       <c r="U17" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B17</f>
@@ -7928,30 +7848,34 @@
         <f>SQRT((C17/B17)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>1.9506029550982833E-2</v>
       </c>
-      <c r="W17" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="W17" s="23">
+        <f>Q17</f>
+        <v>3.5829846751220071E-2</v>
       </c>
       <c r="X17" s="23">
         <v>2.3298241351735846E-2</v>
       </c>
-      <c r="Y17" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="Y17" s="23">
+        <f t="shared" si="8"/>
+        <v>8736.363636363636</v>
       </c>
       <c r="Z17" s="23">
         <v>750.18565608355891</v>
       </c>
-      <c r="AA17" s="23" t="e">
-        <f>(Q17*G17+S17*O17-U17)/U17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB17" s="23" t="e">
+      <c r="AA17" s="23">
+        <f t="shared" si="9"/>
+        <v>-1.8289702149226528E-2</v>
+      </c>
+      <c r="AB17" s="23">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.96847055907649071</v>
+      </c>
+      <c r="AC17" s="23">
+        <f>(U17-Q17*G17)/U17</f>
+        <v>0.98676026122571725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>104</v>
       </c>
@@ -7976,11 +7900,11 @@
       <c r="H18" s="24">
         <v>5</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="1">
         <f>'Count-&gt;Actual Activity'!F18</f>
         <v>0.29856392185241143</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="1">
         <f>'Count-&gt;Actual Activity'!G18</f>
         <v>0.1266459758319273</v>
       </c>
@@ -7990,16 +7914,16 @@
       <c r="L18" s="23">
         <v>0.02</v>
       </c>
-      <c r="M18" s="24" t="e">
+      <c r="M18" s="1">
         <f>'Count-&gt;Actual Activity'!F40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="24" t="e">
+        <v>181.3</v>
+      </c>
+      <c r="N18" s="1">
         <f>'Count-&gt;Actual Activity'!G40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="23">
-        <v>0.03</v>
+        <v>6.2560000000000002</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P18" s="23">
         <v>9.0000000000000006E-5</v>
@@ -8012,13 +7936,13 @@
         <f t="shared" si="1"/>
         <v>1.2664738353429511E-2</v>
       </c>
-      <c r="S18" s="23" t="e">
+      <c r="S18" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="23" t="e">
+        <v>8240.9090909090919</v>
+      </c>
+      <c r="T18" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>598.90473317045542</v>
       </c>
       <c r="U18" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B18</f>
@@ -8028,30 +7952,34 @@
         <f>SQRT((C18/B18)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>1.9506029550982833E-2</v>
       </c>
-      <c r="W18" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="W18" s="23">
+        <f>Q18</f>
+        <v>2.9856392185241144E-2</v>
       </c>
       <c r="X18" s="23">
         <v>2.3298125385430756E-2</v>
       </c>
-      <c r="Y18" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="Y18" s="23">
+        <f t="shared" si="8"/>
+        <v>8240.9090909090919</v>
       </c>
       <c r="Z18" s="23">
         <v>696.13408835057783</v>
       </c>
-      <c r="AA18" s="23" t="e">
-        <f>(Q18*G18+S18*O18-U18)/U18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB18" s="23" t="e">
+      <c r="AA18" s="23">
+        <f t="shared" si="9"/>
+        <v>-7.5420663918373487E-2</v>
+      </c>
+      <c r="AB18" s="23">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.91354689053365146</v>
+      </c>
+      <c r="AC18" s="23">
+        <f>(U18-Q18*G18)/U18</f>
+        <v>0.98896755445202489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>105</v>
       </c>
@@ -8076,11 +8004,11 @@
       <c r="H19" s="24">
         <v>5</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="1">
         <f>'Count-&gt;Actual Activity'!F19</f>
         <v>0.2969192482384303</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="1">
         <f>'Count-&gt;Actual Activity'!G19</f>
         <v>0.12664599223852602</v>
       </c>
@@ -8090,16 +8018,16 @@
       <c r="L19" s="23">
         <v>0.02</v>
       </c>
-      <c r="M19" s="24" t="e">
+      <c r="M19" s="1">
         <f>'Count-&gt;Actual Activity'!F41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="24" t="e">
+        <v>197.3</v>
+      </c>
+      <c r="N19" s="1">
         <f>'Count-&gt;Actual Activity'!G41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="23">
-        <v>0.03</v>
+        <v>10.15</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P19" s="23">
         <v>9.0000000000000006E-5</v>
@@ -8112,13 +8040,13 @@
         <f t="shared" si="1"/>
         <v>1.2664738447453501E-2</v>
       </c>
-      <c r="S19" s="23" t="e">
+      <c r="S19" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="23" t="e">
+        <v>8968.1818181818198</v>
+      </c>
+      <c r="T19" s="23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>736.12580972177761</v>
       </c>
       <c r="U19" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B19</f>
@@ -8128,27 +8056,31 @@
         <f>SQRT((C19/B19)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>1.9506029550982833E-2</v>
       </c>
-      <c r="W19" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="W19" s="23">
+        <f>Q19</f>
+        <v>2.969192482384303E-2</v>
       </c>
       <c r="X19" s="23">
         <v>2.3298122491261654E-2</v>
       </c>
-      <c r="Y19" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA19" s="23" t="e">
-        <f>(Q19*G19+S19*O19-U19)/U19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB19" s="23" t="e">
+      <c r="Y19" s="23">
+        <f t="shared" si="8"/>
+        <v>8968.1818181818198</v>
+      </c>
+      <c r="AA19" s="23">
+        <f t="shared" si="9"/>
+        <v>5.1404613681927105E-3</v>
+      </c>
+      <c r="AB19" s="23">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.99416878931213137</v>
+      </c>
+      <c r="AC19" s="23">
+        <f>(U19-Q19*G19)/U19</f>
+        <v>0.98902832794393869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>114</v>
       </c>
@@ -8181,13 +8113,13 @@
       <c r="L20" s="28">
         <v>0.02</v>
       </c>
-      <c r="M20" s="29" t="e">
+      <c r="M20" s="1">
         <f>'Count-&gt;Actual Activity'!F42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
         <f>'Count-&gt;Actual Activity'!G42</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O20" s="28">
         <v>0.03</v>
@@ -8203,9 +8135,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="28" t="e">
+      <c r="S20" s="28">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T20" s="28" t="e">
         <f t="shared" si="3"/>
@@ -8235,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>129</v>
       </c>
@@ -8264,15 +8196,24 @@
         <f>'Count-&gt;Actual Activity'!F20</f>
         <v>0.59185856743363718</v>
       </c>
-      <c r="J21" s="29"/>
+      <c r="J21" s="29">
+        <f>'Count-&gt;Actual Activity'!G20</f>
+        <v>0.12664305342085061</v>
+      </c>
       <c r="K21" s="28">
         <v>10</v>
       </c>
       <c r="L21" s="28">
         <v>0.02</v>
       </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="M21" s="1">
+        <f>'Count-&gt;Actual Activity'!F43</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <f>'Count-&gt;Actual Activity'!G43</f>
+        <v>0</v>
+      </c>
       <c r="O21" s="28">
         <v>0.03</v>
       </c>
@@ -8285,7 +8226,7 @@
       </c>
       <c r="R21" s="28">
         <f t="shared" si="1"/>
-        <v>1.1837171348672744E-4</v>
+        <v>1.2664858532969012E-2</v>
       </c>
       <c r="U21" s="28">
         <f>Parameters!$B$6*'Bottle Results'!B21</f>
@@ -8311,7 +8252,7 @@
         <v>0.97812981763904494</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>133</v>
       </c>
@@ -8344,13 +8285,13 @@
       <c r="L22" s="28">
         <v>0.02</v>
       </c>
-      <c r="M22" s="29" t="e">
+      <c r="M22" s="1">
         <f>'Count-&gt;Actual Activity'!F44</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="29" t="e">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
         <f>'Count-&gt;Actual Activity'!G44</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O22" s="28">
         <v>0.03</v>
@@ -8390,7 +8331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>134</v>
       </c>
@@ -8423,11 +8364,11 @@
       <c r="L23" s="28">
         <v>0.02</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="1">
         <f>'Count-&gt;Actual Activity'!F45</f>
         <v>0</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="1">
         <f>'Count-&gt;Actual Activity'!G45</f>
         <v>0</v>
       </c>
@@ -8479,7 +8420,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8524,19 +8465,19 @@
       </c>
       <c r="B2">
         <f>AVERAGE('Bottle Results'!W2:W4)</f>
-        <v>0</v>
+        <v>1.3857007268434349E-2</v>
       </c>
       <c r="C2">
         <f>_xlfn.STDEV.S('Bottle Results'!W2:W4)</f>
-        <v>0</v>
+        <v>4.1778594670261653E-4</v>
       </c>
       <c r="D2">
         <f>AVERAGE('Bottle Results'!Y2:Y4)</f>
-        <v>0</v>
+        <v>-46.190024228114503</v>
       </c>
       <c r="E2">
         <f>_xlfn.STDEV.S('Bottle Results'!Y2:Y4)</f>
-        <v>0</v>
+        <v>1.3926198223420532</v>
       </c>
       <c r="F2" t="e">
         <f>AVERAGE('Bottle Results'!AB2:AB4)</f>
@@ -8561,27 +8502,27 @@
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>0</v>
+        <v>7.0623517291875521E-3</v>
       </c>
       <c r="C3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>0</v>
+        <v>1.7466038474708571E-2</v>
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!Y5:Y7)</f>
-        <v>90.207839097291824</v>
+        <v>45.223908852763429</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!Y5:Y7)</f>
-        <v>1.7404671430534633E-14</v>
+        <v>1.3820478557270199</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!AB5:AB7)</f>
-        <v>1</v>
+        <v>0.50133014276052101</v>
       </c>
       <c r="G3">
         <f>_xlfn.STDEV.S('Bottle Results'!AB5:AB7)</f>
-        <v>0</v>
+        <v>1.532070682057291E-2</v>
       </c>
       <c r="H3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -8598,27 +8539,27 @@
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>1.3607016879109255E-2</v>
+        <v>-5.051975085711694E-3</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>3.4885694594384543E-4</v>
-      </c>
-      <c r="D4" t="e">
+        <v>2.6767891213168031E-3</v>
+      </c>
+      <c r="D4">
         <f>AVERAGE('Bottle Results'!Y8:Y10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" t="e">
+        <v>268.36363636363637</v>
+      </c>
+      <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!Y8:Y10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" t="e">
+        <v>12.167223278712751</v>
+      </c>
+      <c r="F4">
         <f>AVERAGE('Bottle Results'!AB8:AB10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" t="e">
+        <v>1.4912397895071656</v>
+      </c>
+      <c r="G4">
         <f>_xlfn.STDEV.S('Bottle Results'!AB8:AB10)</f>
-        <v>#DIV/0!</v>
+        <v>6.7610678282986877E-2</v>
       </c>
       <c r="H4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -8633,29 +8574,29 @@
       <c r="A5" s="14">
         <v>50</v>
       </c>
-      <c r="B5" t="e">
+      <c r="B5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" t="e">
+        <v>5.8415154264991866E-2</v>
+      </c>
+      <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" t="e">
+        <v>3.2036437588054936E-3</v>
+      </c>
+      <c r="D5">
         <f>AVERAGE('Bottle Results'!Y11:Y13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" t="e">
+        <v>963.030303030303</v>
+      </c>
+      <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!Y11:Y13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" t="e">
+        <v>14.562017085479523</v>
+      </c>
+      <c r="F5">
         <f>AVERAGE('Bottle Results'!AB11:AB13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" t="e">
+        <v>1.0689179535391036</v>
+      </c>
+      <c r="G5">
         <f>_xlfn.STDEV.S('Bottle Results'!AB11:AB13)</f>
-        <v>#DIV/0!</v>
+        <v>1.6163148193190729E-2</v>
       </c>
       <c r="H5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -8670,29 +8611,29 @@
       <c r="A6" s="14">
         <v>100</v>
       </c>
-      <c r="B6" t="e">
+      <c r="B6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" t="e">
+        <v>0.14628024914288301</v>
+      </c>
+      <c r="C6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" t="e">
+        <v>9.2676857952781171E-3</v>
+      </c>
+      <c r="D6">
         <f>AVERAGE('Bottle Results'!Y14:Y16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" t="e">
+        <v>1789.0909090909092</v>
+      </c>
+      <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!Y14:Y16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" t="e">
+        <v>42.12584452399139</v>
+      </c>
+      <c r="F6">
         <f>AVERAGE('Bottle Results'!AB14:AB16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" t="e">
+        <v>0.99415985967144371</v>
+      </c>
+      <c r="G6">
         <f>_xlfn.STDEV.S('Bottle Results'!AB14:AB16)</f>
-        <v>#DIV/0!</v>
+        <v>2.3408438032806719E-2</v>
       </c>
       <c r="H6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -8707,29 +8648,29 @@
       <c r="A7" s="14">
         <v>500</v>
       </c>
-      <c r="B7" t="e">
+      <c r="B7">
         <f>AVERAGE('Bottle Results'!W17:W19,'Bottle Results'!W21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C7" t="e">
+        <v>3.8641005125916991E-2</v>
+      </c>
+      <c r="C7">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W19,'Bottle Results'!W21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" t="e">
+        <v>1.3991056693009167E-2</v>
+      </c>
+      <c r="D7">
         <f>AVERAGE('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" t="e">
+        <v>8692.2380665097971</v>
+      </c>
+      <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" t="e">
+        <v>315.71028966780398</v>
+      </c>
+      <c r="F7">
         <f>AVERAGE('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" t="e">
+        <v>0.96357901414032965</v>
+      </c>
+      <c r="G7">
         <f>_xlfn.STDEV.S('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>#DIV/0!</v>
+        <v>3.499809914826809E-2</v>
       </c>
       <c r="H7">
         <f>AVERAGE('Bottle Results'!D17:D19,'Bottle Results'!D21)</f>

--- a/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,9 @@
     <sheet name="Count-&gt;Actual Activity" sheetId="2" r:id="rId3"/>
     <sheet name="Calibration Data" sheetId="7" r:id="rId4"/>
     <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
-    <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
+    <sheet name="Averaged Results" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="10" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -113,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="152">
   <si>
     <t>Parameters</t>
   </si>
@@ -554,6 +556,21 @@
   </si>
   <si>
     <t>CPS-&gt;Bq No background</t>
+  </si>
+  <si>
+    <t>TotAct</t>
+  </si>
+  <si>
+    <t>Counted Cw</t>
+  </si>
+  <si>
+    <t>Expected Sample Activity</t>
+  </si>
+  <si>
+    <t>Cw from Mass Balance</t>
+  </si>
+  <si>
+    <t>Detectable</t>
   </si>
 </sst>
 </file>
@@ -2581,7 +2598,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6229,11 +6246,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6425,7 +6442,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W2">
-        <f>Q2</f>
+        <f>(U2-Y2*E2)/G2</f>
         <v>1.3863585962890326E-2</v>
       </c>
       <c r="X2">
@@ -6517,7 +6534,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W23" si="4">Q3</f>
+        <f t="shared" ref="W3:W19" si="4">(U3-Y3*E3)/G3</f>
         <v>1.4271465019157553E-2</v>
       </c>
       <c r="X3">
@@ -6610,7 +6627,7 @@
       </c>
       <c r="W4">
         <f t="shared" si="4"/>
-        <v>1.3435970823255169E-2</v>
+        <v>1.3435970823255171E-2</v>
       </c>
       <c r="X4">
         <v>2.3297915424772112E-2</v>
@@ -6675,9 +6692,11 @@
         <v>0.25219999999999998</v>
       </c>
       <c r="O5" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P5" s="1"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="Q5">
         <f t="shared" si="0"/>
         <v>1.3482021684446649E-2</v>
@@ -6688,11 +6707,11 @@
       </c>
       <c r="S5">
         <f t="shared" si="2"/>
-        <v>126.13636363636364</v>
+        <v>123.33333333333333</v>
       </c>
       <c r="T5">
         <f t="shared" si="3"/>
-        <v>11.463636363636363</v>
+        <v>59.210523589170393</v>
       </c>
       <c r="U5">
         <f>Parameters!$B$6*'Bottle Results'!B5</f>
@@ -6702,9 +6721,9 @@
         <f>SQRT((C5/B5)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>0.12773550438019637</v>
       </c>
-      <c r="W5" s="23">
-        <f>(U5-S5*O5)/G5</f>
-        <v>-6.8764827081244648E-4</v>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>1.3482021684446651E-2</v>
       </c>
       <c r="X5">
         <v>2.3297915790452959E-2</v>
@@ -6769,9 +6788,11 @@
         <v>0.2591</v>
       </c>
       <c r="O6" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P6" s="1"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="Q6">
         <f t="shared" si="0"/>
         <v>1.3916215518537663E-2</v>
@@ -6782,11 +6803,11 @@
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
-        <v>146.59090909090909</v>
+        <v>143.33333333333334</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>11.777272727272726</v>
+        <v>68.542250608792529</v>
       </c>
       <c r="U6">
         <f>Parameters!$B$6*'Bottle Results'!B6</f>
@@ -6796,9 +6817,9 @@
         <f>SQRT((C6/B6)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>0.12773550438019637</v>
       </c>
-      <c r="W6" s="23">
-        <f t="shared" ref="W6:W16" si="7">(U6-S6*O6)/G6</f>
-        <v>-5.1876482708124484E-3</v>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>1.3916215518537662E-2</v>
       </c>
       <c r="X6">
         <v>2.3297919300009583E-2</v>
@@ -6863,9 +6884,11 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P7" s="1"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="Q7">
         <f t="shared" si="0"/>
         <v>1.3087300017091259E-2</v>
@@ -6890,9 +6913,9 @@
         <f>SQRT((C7/B7)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>0.12773550438019637</v>
       </c>
-      <c r="W7" s="23">
-        <f t="shared" si="7"/>
-        <v>2.7062351729187552E-2</v>
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>1.3087300017091259E-2</v>
       </c>
       <c r="X7">
         <v>2.3297912696774961E-2</v>
@@ -6957,10 +6980,10 @@
         <v>0.32490000000000002</v>
       </c>
       <c r="O8" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P8" s="23">
-        <v>9.0000000000000006E-5</v>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q8" s="23">
         <f t="shared" si="0"/>
@@ -6972,11 +6995,11 @@
       </c>
       <c r="S8" s="23">
         <f t="shared" si="2"/>
-        <v>277.81818181818181</v>
+        <v>271.64444444444445</v>
       </c>
       <c r="T8" s="23">
         <f t="shared" si="3"/>
-        <v>23.105142153086835</v>
+        <v>128.86600741125633</v>
       </c>
       <c r="U8" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B8</f>
@@ -6986,24 +7009,24 @@
         <f>SQRT((C8/B8)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>6.6180636102176282E-2</v>
       </c>
-      <c r="W8" s="23">
-        <f t="shared" si="7"/>
-        <v>-7.1319750857116839E-3</v>
+      <c r="W8">
+        <f t="shared" si="4"/>
+        <v>-2.750530841904502E-2</v>
       </c>
       <c r="X8" s="23">
         <v>2.3297913974600508E-2</v>
       </c>
       <c r="Y8" s="23">
-        <f t="shared" ref="Y8:Y19" si="8">S8</f>
-        <v>277.81818181818181</v>
+        <f t="shared" ref="Y8:Y19" si="7">S8</f>
+        <v>271.64444444444445</v>
       </c>
       <c r="AA8" s="23">
         <f>(Q8*G8+S8*E8-U8)/U8</f>
-        <v>0.78923422513237329</v>
+        <v>0.75492807640658366</v>
       </c>
       <c r="AB8" s="23">
         <f t="shared" si="6"/>
-        <v>1.5437766926605345</v>
+        <v>1.5094705439347449</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7054,10 +7077,10 @@
         <v>0.3201</v>
       </c>
       <c r="O9" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P9" s="23">
-        <v>9.0000000000000006E-5</v>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q9" s="23">
         <f t="shared" si="0"/>
@@ -7069,11 +7092,11 @@
       </c>
       <c r="S9" s="23">
         <f t="shared" si="2"/>
-        <v>272.63636363636368</v>
+        <v>266.57777777777778</v>
       </c>
       <c r="T9" s="23">
         <f t="shared" si="3"/>
-        <v>22.710838231515403</v>
+        <v>126.46870742066177</v>
       </c>
       <c r="U9" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B9</f>
@@ -7083,24 +7106,24 @@
         <f>SQRT((C9/B9)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>6.6180636102176282E-2</v>
       </c>
-      <c r="W9" s="23">
-        <f t="shared" si="7"/>
-        <v>-5.9919750857117026E-3</v>
+      <c r="W9">
+        <f t="shared" si="4"/>
+        <v>-2.5985308419045026E-2</v>
       </c>
       <c r="X9" s="23">
         <v>2.3297916895026565E-2</v>
       </c>
       <c r="Y9" s="23">
-        <f t="shared" si="8"/>
-        <v>272.63636363636368</v>
+        <f t="shared" si="7"/>
+        <v>266.57777777777778</v>
       </c>
       <c r="AA9" s="23">
-        <f t="shared" ref="AA9:AA19" si="9">(Q9*G9+S9*E9-U9)/U9</f>
-        <v>0.76726382397587889</v>
+        <f t="shared" ref="AA9:AA19" si="8">(Q9*G9+S9*E9-U9)/U9</f>
+        <v>0.73359754778849562</v>
       </c>
       <c r="AB9" s="23">
-        <f t="shared" si="6"/>
-        <v>1.514982428432246</v>
+        <f>Y9*E9/U9</f>
+        <v>1.4813161522448626</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7151,10 +7174,10 @@
         <v>0.37659999999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P10" s="23">
-        <v>9.0000000000000006E-5</v>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q10" s="23">
         <f t="shared" si="0"/>
@@ -7166,11 +7189,11 @@
       </c>
       <c r="S10" s="23">
         <f t="shared" si="2"/>
-        <v>254.63636363636365</v>
+        <v>248.97777777777779</v>
       </c>
       <c r="T10" s="23">
         <f t="shared" si="3"/>
-        <v>23.628063307376685</v>
+        <v>118.5567124013583</v>
       </c>
       <c r="U10" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B10</f>
@@ -7180,24 +7203,24 @@
         <f>SQRT((C10/B10)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>6.6180636102176282E-2</v>
       </c>
-      <c r="W10" s="23">
-        <f t="shared" si="7"/>
-        <v>-2.0319750857116948E-3</v>
+      <c r="W10">
+        <f t="shared" si="4"/>
+        <v>-2.0705308419045023E-2</v>
       </c>
       <c r="X10" s="23">
         <v>2.3297919570431896E-2</v>
       </c>
       <c r="Y10" s="23">
+        <f t="shared" si="7"/>
+        <v>248.97777777777779</v>
+      </c>
+      <c r="AA10" s="23">
         <f t="shared" si="8"/>
-        <v>254.63636363636365</v>
-      </c>
-      <c r="AA10" s="23">
-        <f t="shared" si="9"/>
-        <v>0.67333437785788086</v>
+        <v>0.64189081680390947</v>
       </c>
       <c r="AB10" s="23">
         <f t="shared" si="6"/>
-        <v>1.4149602474287164</v>
+        <v>1.383516686374745</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7248,9 +7271,11 @@
         <v>1.0509999999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P11" s="24"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="Q11" s="23">
         <f t="shared" si="0"/>
         <v>1.3909636824081686E-2</v>
@@ -7261,11 +7286,11 @@
       </c>
       <c r="S11" s="23">
         <f t="shared" si="2"/>
-        <v>967.27272727272737</v>
+        <v>945.77777777777783</v>
       </c>
       <c r="T11" s="23">
         <f t="shared" si="3"/>
-        <v>47.772727272727273</v>
+        <v>448.28420560915185</v>
       </c>
       <c r="U11" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B11</f>
@@ -7275,24 +7300,24 @@
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.1834127968683831E-2</v>
       </c>
-      <c r="W11" s="23">
-        <f t="shared" si="7"/>
-        <v>5.7481820931658517E-2</v>
+      <c r="W11">
+        <f t="shared" si="4"/>
+        <v>-1.3451512401674819E-2</v>
       </c>
       <c r="X11" s="23">
         <v>2.3297919246001962E-2</v>
       </c>
       <c r="Y11" s="23">
+        <f t="shared" si="7"/>
+        <v>945.77777777777783</v>
+      </c>
+      <c r="AA11" s="23">
         <f t="shared" si="8"/>
-        <v>967.27272727272737</v>
-      </c>
-      <c r="AA11" s="23">
-        <f t="shared" si="9"/>
-        <v>0.12509030003460803</v>
+        <v>0.10123192574122422</v>
       </c>
       <c r="AB11" s="23">
         <f t="shared" si="6"/>
-        <v>1.0736268432022715</v>
+        <v>1.0497684689088878</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7343,9 +7368,11 @@
         <v>0.94069999999999998</v>
       </c>
       <c r="O12" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P12" s="24"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="Q12" s="23">
         <f t="shared" si="0"/>
         <v>1.3718854684859907E-2</v>
@@ -7356,11 +7383,11 @@
       </c>
       <c r="S12" s="23">
         <f t="shared" si="2"/>
-        <v>946.81818181818176</v>
+        <v>925.77777777777771</v>
       </c>
       <c r="T12" s="23">
         <f t="shared" si="3"/>
-        <v>42.759090909090908</v>
+        <v>438.41391355220361</v>
       </c>
       <c r="U12" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B12</f>
@@ -7370,24 +7397,24 @@
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.1834127968683831E-2</v>
       </c>
-      <c r="W12" s="23">
-        <f t="shared" si="7"/>
-        <v>6.1981820931658549E-2</v>
+      <c r="W12">
+        <f t="shared" si="4"/>
+        <v>-7.4515124016747694E-3</v>
       </c>
       <c r="X12" s="23">
         <v>2.3297917690924E-2</v>
       </c>
       <c r="Y12" s="23">
+        <f t="shared" si="7"/>
+        <v>925.77777777777771</v>
+      </c>
+      <c r="AA12" s="23">
         <f t="shared" si="8"/>
-        <v>946.81818181818176</v>
-      </c>
-      <c r="AA12" s="23">
-        <f t="shared" si="9"/>
-        <v>0.10168086112459977</v>
+        <v>7.8327010723698187E-2</v>
       </c>
       <c r="AB12" s="23">
         <f t="shared" si="6"/>
-        <v>1.0509232680405693</v>
+        <v>1.0275694176396677</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7438,9 +7465,11 @@
         <v>1.032</v>
       </c>
       <c r="O13" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P13" s="24"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="Q13" s="23">
         <f t="shared" si="0"/>
         <v>1.4014895935376481E-2</v>
@@ -7451,11 +7480,11 @@
       </c>
       <c r="S13" s="23">
         <f t="shared" si="2"/>
-        <v>975</v>
+        <v>953.33333333333337</v>
       </c>
       <c r="T13" s="23">
         <f t="shared" si="3"/>
-        <v>46.909090909090914</v>
+        <v>451.74017223385897</v>
       </c>
       <c r="U13" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B13</f>
@@ -7465,24 +7494,24 @@
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>3.1834127968683831E-2</v>
       </c>
-      <c r="W13" s="23">
-        <f t="shared" si="7"/>
-        <v>5.5781820931658538E-2</v>
+      <c r="W13">
+        <f t="shared" si="4"/>
+        <v>-1.5718179068341484E-2</v>
       </c>
       <c r="X13" s="23">
         <v>2.3297920113197729E-2</v>
       </c>
       <c r="Y13" s="23">
+        <f t="shared" si="7"/>
+        <v>953.33333333333337</v>
+      </c>
+      <c r="AA13" s="23">
         <f t="shared" si="8"/>
-        <v>975</v>
-      </c>
-      <c r="AA13" s="23">
-        <f t="shared" si="9"/>
-        <v>0.13405664827483743</v>
+        <v>0.11000767606651593</v>
       </c>
       <c r="AB13" s="23">
         <f t="shared" si="6"/>
-        <v>1.0822037493744701</v>
+        <v>1.0581547771661486</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7533,9 +7562,11 @@
         <v>1.6040000000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P14" s="24"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="Q14" s="23">
         <f t="shared" si="0"/>
         <v>1.4685922769880755E-2</v>
@@ -7546,11 +7577,11 @@
       </c>
       <c r="S14" s="23">
         <f t="shared" si="2"/>
-        <v>1764.0909090909092</v>
+        <v>1724.8888888888891</v>
       </c>
       <c r="T14" s="23">
         <f t="shared" si="3"/>
-        <v>72.909090909090907</v>
+        <v>816.23950114982279</v>
       </c>
       <c r="U14" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B14</f>
@@ -7560,24 +7591,24 @@
         <f>SQRT((C14/B14)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>2.3115774284716652E-2</v>
       </c>
-      <c r="W14" s="23">
-        <f t="shared" si="7"/>
-        <v>0.15178024914288302</v>
+      <c r="W14">
+        <f t="shared" si="4"/>
+        <v>2.2413582476216335E-2</v>
       </c>
       <c r="X14" s="23">
         <v>2.3297925795726985E-2</v>
       </c>
       <c r="Y14" s="23">
+        <f t="shared" si="7"/>
+        <v>1724.8888888888891</v>
+      </c>
+      <c r="AA14" s="23">
         <f t="shared" si="8"/>
-        <v>1764.0909090909092</v>
-      </c>
-      <c r="AA14" s="23">
-        <f t="shared" si="9"/>
-        <v>7.4700757448956118E-3</v>
+        <v>-1.4313655145940326E-2</v>
       </c>
       <c r="AB14" s="23">
         <f t="shared" si="6"/>
-        <v>0.98026789008762027</v>
+        <v>0.95848415919678431</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7628,9 +7659,11 @@
         <v>1.5049999999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P15" s="24"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="Q15" s="23">
         <f t="shared" si="0"/>
         <v>1.4863547520190696E-2</v>
@@ -7641,11 +7674,11 @@
       </c>
       <c r="S15" s="23">
         <f t="shared" si="2"/>
-        <v>1765.4545454545457</v>
+        <v>1726.2222222222224</v>
       </c>
       <c r="T15" s="23">
         <f t="shared" si="3"/>
-        <v>68.409090909090907</v>
+        <v>816.49341237723308</v>
       </c>
       <c r="U15" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B15</f>
@@ -7655,24 +7688,24 @@
         <f>SQRT((C15/B15)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>2.3115774284716652E-2</v>
       </c>
-      <c r="W15" s="23">
-        <f t="shared" si="7"/>
-        <v>0.15148024914288299</v>
+      <c r="W15">
+        <f t="shared" si="4"/>
+        <v>2.2013582476216341E-2</v>
       </c>
       <c r="X15" s="23">
         <v>2.329792734453592E-2</v>
       </c>
       <c r="Y15" s="23">
+        <f t="shared" si="7"/>
+        <v>1726.2222222222224</v>
+      </c>
+      <c r="AA15" s="23">
         <f t="shared" si="8"/>
-        <v>1765.4545454545457</v>
-      </c>
-      <c r="AA15" s="23">
-        <f t="shared" si="9"/>
-        <v>8.5568272241956112E-3</v>
+        <v>-1.3243742417651137E-2</v>
       </c>
       <c r="AB15" s="23">
         <f t="shared" si="6"/>
-        <v>0.98102563388310171</v>
+        <v>0.95922506424125498</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -7723,9 +7756,11 @@
         <v>1.591</v>
       </c>
       <c r="O16" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P16" s="24"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="Q16" s="23">
         <f t="shared" si="0"/>
         <v>1.5166167465163246E-2</v>
@@ -7736,11 +7771,11 @@
       </c>
       <c r="S16" s="23">
         <f t="shared" si="2"/>
-        <v>1837.7272727272727</v>
+        <v>1796.8888888888889</v>
       </c>
       <c r="T16" s="23">
         <f t="shared" si="3"/>
-        <v>72.318181818181827</v>
+        <v>850.00783716228841</v>
       </c>
       <c r="U16" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B16</f>
@@ -7750,25 +7785,25 @@
         <f>SQRT((C16/B16)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>2.3115774284716652E-2</v>
       </c>
-      <c r="W16" s="23">
-        <f t="shared" si="7"/>
-        <v>0.13558024914288302</v>
+      <c r="W16">
+        <f t="shared" si="4"/>
+        <v>8.1358247621636797E-4</v>
       </c>
       <c r="X16" s="23">
         <v>2.3297930026256426E-2</v>
       </c>
       <c r="Y16" s="23">
-        <f t="shared" si="8"/>
-        <v>1837.7272727272727</v>
+        <f t="shared" si="7"/>
+        <v>1796.8888888888889</v>
       </c>
       <c r="Z16" s="23"/>
       <c r="AA16" s="23">
-        <f t="shared" si="9"/>
-        <v>4.9277779994172571E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.6584756548759001E-2</v>
       </c>
       <c r="AB16" s="23">
         <f>Y16*E16/U16</f>
-        <v>1.0211860550436096</v>
+        <v>0.99849303159819602</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7819,10 +7854,10 @@
         <v>6.4370000000000003</v>
       </c>
       <c r="O17" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P17" s="23">
-        <v>9.0000000000000006E-5</v>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q17" s="23">
         <f t="shared" si="0"/>
@@ -7834,11 +7869,11 @@
       </c>
       <c r="S17" s="23">
         <f t="shared" si="2"/>
-        <v>8736.363636363636</v>
+        <v>8542.2222222222226</v>
       </c>
       <c r="T17" s="23">
         <f t="shared" si="3"/>
-        <v>630.7489107340466</v>
+        <v>4036.9920410948084</v>
       </c>
       <c r="U17" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B17</f>
@@ -7848,7 +7883,7 @@
         <f>SQRT((C17/B17)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>1.9506029550982833E-2</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17">
         <f>Q17</f>
         <v>3.5829846751220071E-2</v>
       </c>
@@ -7856,19 +7891,19 @@
         <v>2.3298241351735846E-2</v>
       </c>
       <c r="Y17" s="23">
-        <f t="shared" si="8"/>
-        <v>8736.363636363636</v>
+        <f>S17</f>
+        <v>8542.2222222222226</v>
       </c>
       <c r="Z17" s="23">
         <v>750.18565608355891</v>
       </c>
       <c r="AA17" s="23">
-        <f t="shared" si="9"/>
-        <v>-1.8289702149226528E-2</v>
+        <f t="shared" si="8"/>
+        <v>-3.9811270128704064E-2</v>
       </c>
       <c r="AB17" s="23">
         <f t="shared" si="6"/>
-        <v>0.96847055907649071</v>
+        <v>0.94694899109701325</v>
       </c>
       <c r="AC17" s="23">
         <f>(U17-Q17*G17)/U17</f>
@@ -7923,10 +7958,10 @@
         <v>6.2560000000000002</v>
       </c>
       <c r="O18" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P18" s="23">
-        <v>9.0000000000000006E-5</v>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q18" s="23">
         <f t="shared" si="0"/>
@@ -7938,11 +7973,11 @@
       </c>
       <c r="S18" s="23">
         <f t="shared" si="2"/>
-        <v>8240.9090909090919</v>
+        <v>8057.7777777777783</v>
       </c>
       <c r="T18" s="23">
         <f t="shared" si="3"/>
-        <v>598.90473317045542</v>
+        <v>3808.6355656860251</v>
       </c>
       <c r="U18" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B18</f>
@@ -7952,7 +7987,7 @@
         <f>SQRT((C18/B18)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>1.9506029550982833E-2</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18">
         <f>Q18</f>
         <v>2.9856392185241144E-2</v>
       </c>
@@ -7960,19 +7995,19 @@
         <v>2.3298125385430756E-2</v>
       </c>
       <c r="Y18" s="23">
-        <f t="shared" si="8"/>
-        <v>8240.9090909090919</v>
+        <f t="shared" si="7"/>
+        <v>8057.7777777777783</v>
       </c>
       <c r="Z18" s="23">
         <v>696.13408835057783</v>
       </c>
       <c r="AA18" s="23">
-        <f t="shared" si="9"/>
-        <v>-7.5420663918373487E-2</v>
+        <f t="shared" si="8"/>
+        <v>-9.5721705930232437E-2</v>
       </c>
       <c r="AB18" s="23">
         <f t="shared" si="6"/>
-        <v>0.91354689053365146</v>
+        <v>0.89324584852179245</v>
       </c>
       <c r="AC18" s="23">
         <f>(U18-Q18*G18)/U18</f>
@@ -8027,10 +8062,10 @@
         <v>10.15</v>
       </c>
       <c r="O19" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P19" s="23">
-        <v>9.0000000000000006E-5</v>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q19" s="23">
         <f t="shared" si="0"/>
@@ -8042,11 +8077,11 @@
       </c>
       <c r="S19" s="23">
         <f t="shared" si="2"/>
-        <v>8968.1818181818198</v>
+        <v>8768.8888888888905</v>
       </c>
       <c r="T19" s="23">
         <f t="shared" si="3"/>
-        <v>736.12580972177761</v>
+        <v>4158.2359481244393</v>
       </c>
       <c r="U19" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B19</f>
@@ -8056,7 +8091,7 @@
         <f>SQRT((C19/B19)^2+(Parameters!$C$6/Parameters!$B$6))</f>
         <v>1.9506029550982833E-2</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19">
         <f>Q19</f>
         <v>2.969192482384303E-2</v>
       </c>
@@ -8064,16 +8099,16 @@
         <v>2.3298122491261654E-2</v>
       </c>
       <c r="Y19" s="23">
+        <f t="shared" si="7"/>
+        <v>8768.8888888888905</v>
+      </c>
+      <c r="AA19" s="23">
         <f t="shared" si="8"/>
-        <v>8968.1818181818198</v>
-      </c>
-      <c r="AA19" s="23">
-        <f t="shared" si="9"/>
-        <v>5.1404613681927105E-3</v>
+        <v>-1.695217839429896E-2</v>
       </c>
       <c r="AB19" s="23">
         <f t="shared" si="6"/>
-        <v>0.99416878931213137</v>
+        <v>0.97207614954963972</v>
       </c>
       <c r="AC19" s="23">
         <f>(U19-Q19*G19)/U19</f>
@@ -8152,7 +8187,7 @@
         <v>1.9506029550982833E-2</v>
       </c>
       <c r="W20" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W3:W23" si="9">Q20</f>
         <v>0</v>
       </c>
       <c r="X20" s="28">
@@ -8237,7 +8272,7 @@
         <v>1.9506029550982833E-2</v>
       </c>
       <c r="W21" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.918585674336372E-2</v>
       </c>
       <c r="X21" s="28">
@@ -8316,7 +8351,7 @@
         <v>1.9506029550982833E-2</v>
       </c>
       <c r="W22" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X22" s="28">
@@ -8395,7 +8430,7 @@
         <v>1.9506029550982833E-2</v>
       </c>
       <c r="W23" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X23" s="28">
@@ -8417,10 +8452,501 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.3863585962890326E-2</v>
+      </c>
+      <c r="B2">
+        <f>A2*10</f>
+        <v>0.13863585962890326</v>
+      </c>
+      <c r="C2" t="b">
+        <f>B2&gt;0.25</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>'Bottle Results'!W2</f>
+        <v>1.3863585962890326E-2</v>
+      </c>
+      <c r="E2">
+        <f>D2*10</f>
+        <v>0.13863585962890326</v>
+      </c>
+      <c r="F2" t="b">
+        <f>E2&gt;0.25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.4271465019157553E-2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B19" si="0">A3*10</f>
+        <v>0.14271465019157553</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C19" si="1">B3&gt;0.25</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>'Bottle Results'!W3</f>
+        <v>1.4271465019157553E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E19" si="2">D3*10</f>
+        <v>0.14271465019157553</v>
+      </c>
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F19" si="3">E3&gt;0.25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.3435970823255169E-2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.13435970823255169</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>'Bottle Results'!W4</f>
+        <v>1.3435970823255171E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.13435970823255172</v>
+      </c>
+      <c r="F4" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.3482021684446649E-2</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.13482021684446649</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>'Bottle Results'!W5</f>
+        <v>1.3482021684446651E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.13482021684446652</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.3916215518537663E-2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.13916215518537664</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>'Bottle Results'!W6</f>
+        <v>1.3916215518537662E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.13916215518537661</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.3087300017091259E-2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.13087300017091258</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>'Bottle Results'!W7</f>
+        <v>1.3087300017091259E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.13087300017091258</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.3251767378489366E-2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.13251767378489365</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>'Bottle Results'!W8</f>
+        <v>-2.750530841904502E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-0.27505308419045021</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.3620174268021087E-2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.13620174268021087</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>'Bottle Results'!W9</f>
+        <v>-2.5985308419045026E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-0.25985308419045028</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.394910899081731E-2</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.1394910899081731</v>
+      </c>
+      <c r="C10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>'Bottle Results'!W10</f>
+        <v>-2.0705308419045023E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>-0.20705308419045024</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.3909636824081686E-2</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.13909636824081686</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>'Bottle Results'!W11</f>
+        <v>-1.3451512401674819E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>-0.1345151240167482</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.3718854684859907E-2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.13718854684859907</v>
+      </c>
+      <c r="C12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>'Bottle Results'!W12</f>
+        <v>-7.4515124016747694E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>-7.4515124016747689E-2</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.4014895935376481E-2</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.14014895935376481</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>'Bottle Results'!W13</f>
+        <v>-1.5718179068341484E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>-0.15718179068341484</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.4685922769880755E-2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.14685922769880755</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>'Bottle Results'!W14</f>
+        <v>2.2413582476216335E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0.22413582476216334</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.4863547520190696E-2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.14863547520190695</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>'Bottle Results'!W15</f>
+        <v>2.2013582476216341E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0.22013582476216342</v>
+      </c>
+      <c r="F15" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.5166167465163246E-2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.15166167465163247</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>'Bottle Results'!W16</f>
+        <v>8.1358247621636797E-4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>8.1358247621636792E-3</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.5829846751220071E-2</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.35829846751220074</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>'Bottle Results'!W17</f>
+        <v>3.5829846751220071E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0.35829846751220074</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2.9856392185241144E-2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.29856392185241143</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>'Bottle Results'!W18</f>
+        <v>2.9856392185241144E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0.29856392185241143</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.969192482384303E-2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.2969192482384303</v>
+      </c>
+      <c r="C19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>'Bottle Results'!W19</f>
+        <v>2.969192482384303E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0.2969192482384303</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8430,7 +8956,7 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -8447,19 +8973,22 @@
         <v>137</v>
       </c>
       <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
         <v>138</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>139</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>140</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>0</v>
       </c>
@@ -8469,7 +8998,7 @@
       </c>
       <c r="C2">
         <f>_xlfn.STDEV.S('Bottle Results'!W2:W4)</f>
-        <v>4.1778594670261653E-4</v>
+        <v>4.1778594670261561E-4</v>
       </c>
       <c r="D2">
         <f>AVERAGE('Bottle Results'!Y2:Y4)</f>
@@ -8479,34 +9008,38 @@
         <f>_xlfn.STDEV.S('Bottle Results'!Y2:Y4)</f>
         <v>1.3926198223420532</v>
       </c>
-      <c r="F2" t="e">
+      <c r="F2">
+        <f>'Bottle Results'!U3</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="e">
         <f>AVERAGE('Bottle Results'!AB2:AB4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G2" t="e">
+      <c r="H2" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!AB2:AB4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>AVERAGE('Bottle Results'!D2:D4)</f>
         <v>8.9466666666666672</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>_xlfn.STDEV.S('Bottle Results'!D2:D4)</f>
         <v>1.5275252316519917E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>5</v>
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>7.0623517291875521E-3</v>
+        <v>1.3495179073358524E-2</v>
       </c>
       <c r="C3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>1.7466038474708571E-2</v>
+        <v>4.1461435671810639E-4</v>
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!Y5:Y7)</f>
@@ -8517,134 +9050,150 @@
         <v>1.3820478557270199</v>
       </c>
       <c r="F3">
+        <f>'Bottle Results'!U6</f>
+        <v>2.7062351729187553</v>
+      </c>
+      <c r="G3">
         <f>AVERAGE('Bottle Results'!AB5:AB7)</f>
         <v>0.50133014276052101</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!AB5:AB7)</f>
         <v>1.532070682057291E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
         <v>8.9166666666666661</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>_xlfn.STDEV.S('Bottle Results'!D5:D7)</f>
         <v>1.527525231651914E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>10</v>
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>-5.051975085711694E-3</v>
+        <v>-2.4731975085711691E-2</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>2.6767891213168031E-3</v>
+        <v>3.5690521617557413E-3</v>
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!Y8:Y10)</f>
-        <v>268.36363636363637</v>
+        <v>262.39999999999998</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!Y8:Y10)</f>
-        <v>12.167223278712751</v>
+        <v>11.896840539185801</v>
       </c>
       <c r="F4">
+        <f>'Bottle Results'!U9</f>
+        <v>5.3988024914288308</v>
+      </c>
+      <c r="G4">
         <f>AVERAGE('Bottle Results'!AB8:AB10)</f>
-        <v>1.4912397895071656</v>
-      </c>
-      <c r="G4">
+        <v>1.4581011275181173</v>
+      </c>
+      <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!AB8:AB10)</f>
-        <v>6.7610678282986877E-2</v>
-      </c>
-      <c r="H4">
+        <v>6.6108218765587104E-2</v>
+      </c>
+      <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
         <v>8.9066666666666663</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>_xlfn.STDEV.S('Bottle Results'!D8:D10)</f>
         <v>1.154700538379227E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>50</v>
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>5.8415154264991866E-2</v>
+        <v>-1.2207067957230358E-2</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>3.2036437588054936E-3</v>
+        <v>4.2715250117406709E-3</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!Y11:Y13)</f>
-        <v>963.030303030303</v>
+        <v>941.62962962962968</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!Y11:Y13)</f>
-        <v>14.562017085479523</v>
+        <v>14.23841670580221</v>
       </c>
       <c r="F5">
+        <f>'Bottle Results'!U12</f>
+        <v>27.028182093165853</v>
+      </c>
+      <c r="G5">
         <f>AVERAGE('Bottle Results'!AB11:AB13)</f>
-        <v>1.0689179535391036</v>
-      </c>
-      <c r="G5">
+        <v>1.0451642212382346</v>
+      </c>
+      <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!AB11:AB13)</f>
-        <v>1.6163148193190729E-2</v>
-      </c>
-      <c r="H5">
+        <v>1.580396712223104E-2</v>
+      </c>
+      <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
         <v>8.9166666666666661</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f>_xlfn.STDEV.S('Bottle Results'!D11:D13)</f>
         <v>2.5166114784235295E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>100</v>
       </c>
       <c r="B6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>0.14628024914288301</v>
+        <v>1.5080249142883015E-2</v>
       </c>
       <c r="C6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>9.2676857952781171E-3</v>
+        <v>1.2356914393704153E-2</v>
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!Y14:Y16)</f>
-        <v>1789.0909090909092</v>
+        <v>1749.3333333333333</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!Y14:Y16)</f>
-        <v>42.12584452399139</v>
+        <v>41.189714645680461</v>
       </c>
       <c r="F6">
+        <f>'Bottle Results'!U15</f>
+        <v>53.988024914288303</v>
+      </c>
+      <c r="G6">
         <f>AVERAGE('Bottle Results'!AB14:AB16)</f>
-        <v>0.99415985967144371</v>
-      </c>
-      <c r="G6">
+        <v>0.97206741834541177</v>
+      </c>
+      <c r="H6">
         <f>_xlfn.STDEV.S('Bottle Results'!AB14:AB16)</f>
-        <v>2.3408438032806719E-2</v>
-      </c>
-      <c r="H6">
+        <v>2.288825052096655E-2</v>
+      </c>
+      <c r="I6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
         <v>8.8633333333333333</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>_xlfn.STDEV.S('Bottle Results'!D14:D16)</f>
         <v>5.0332229568471415E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>500</v>
       </c>
@@ -8658,54 +9207,58 @@
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>8692.2380665097971</v>
+        <v>8548.0966523683819</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>315.71028966780398</v>
+        <v>348.8275924635368</v>
       </c>
       <c r="F7">
+        <f>'Bottle Results'!U18</f>
+        <v>270.62351729187554</v>
+      </c>
+      <c r="G7">
         <f>AVERAGE('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>0.96357901414032965</v>
-      </c>
-      <c r="G7">
+        <v>0.94760020170187265</v>
+      </c>
+      <c r="H7">
         <f>_xlfn.STDEV.S('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>3.499809914826809E-2</v>
-      </c>
-      <c r="H7">
+        <v>3.8669321419762176E-2</v>
+      </c>
+      <c r="I7">
         <f>AVERAGE('Bottle Results'!D17:D19,'Bottle Results'!D21)</f>
         <v>8.9350000000000005</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>_xlfn.STDEV.S('Bottle Results'!D17:D19,'Bottle Results'!D21)</f>
         <v>4.7258156262525892E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -8732,4 +9285,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -2598,7 +2598,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6246,11 +6246,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6534,7 +6534,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W19" si="4">(U3-Y3*E3)/G3</f>
+        <f t="shared" ref="W3:W16" si="4">(U3-Y3*E3)/G3</f>
         <v>1.4271465019157553E-2</v>
       </c>
       <c r="X3">
@@ -6692,7 +6692,7 @@
         <v>0.25219999999999998</v>
       </c>
       <c r="O5" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P5" s="1">
         <v>5.0000000000000001E-3</v>
@@ -6707,11 +6707,11 @@
       </c>
       <c r="S5">
         <f t="shared" si="2"/>
-        <v>123.33333333333333</v>
+        <v>122.78761061946904</v>
       </c>
       <c r="T5">
         <f t="shared" si="3"/>
-        <v>59.210523589170393</v>
+        <v>58.822652332348568</v>
       </c>
       <c r="U5">
         <f>Parameters!$B$6*'Bottle Results'!B5</f>
@@ -6723,21 +6723,21 @@
       </c>
       <c r="W5">
         <f t="shared" si="4"/>
-        <v>1.3482021684446651E-2</v>
+        <v>-9.7739314566531559E-3</v>
       </c>
       <c r="X5">
         <v>2.3297915790452959E-2</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="5"/>
-        <v>45.267766815803007</v>
+        <f>S5</f>
+        <v>122.78761061946904</v>
       </c>
       <c r="AA5" t="s">
         <v>123</v>
       </c>
       <c r="AB5">
         <f t="shared" si="6"/>
-        <v>0.50181633069583198</v>
+        <v>1.361163418259459</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -6788,7 +6788,7 @@
         <v>0.2591</v>
       </c>
       <c r="O6" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P6" s="1">
         <v>5.0000000000000001E-3</v>
@@ -6803,11 +6803,11 @@
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
-        <v>143.33333333333334</v>
+        <v>142.6991150442478</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>68.542250608792529</v>
+        <v>68.092098449580178</v>
       </c>
       <c r="U6">
         <f>Parameters!$B$6*'Bottle Results'!B6</f>
@@ -6819,21 +6819,21 @@
       </c>
       <c r="W6">
         <f t="shared" si="4"/>
-        <v>1.3916215518537662E-2</v>
+        <v>-1.5747382784086782E-2</v>
       </c>
       <c r="X6">
         <v>2.3297919300009583E-2</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="5"/>
-        <v>43.820454035499637</v>
+        <f>S6</f>
+        <v>142.6991150442478</v>
       </c>
       <c r="AA6" t="s">
         <v>123</v>
       </c>
       <c r="AB6">
         <f t="shared" si="6"/>
-        <v>0.48577212883059939</v>
+        <v>1.5818926212204523</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P7" s="1">
         <v>5.0000000000000001E-3</v>
@@ -6915,21 +6915,21 @@
       </c>
       <c r="W7">
         <f t="shared" si="4"/>
-        <v>1.3087300017091259E-2</v>
+        <v>2.7062351729187552E-2</v>
       </c>
       <c r="X7">
         <v>2.3297912696774961E-2</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="5"/>
-        <v>46.583505706987644</v>
+        <f>S7</f>
+        <v>0</v>
       </c>
       <c r="AA7" t="s">
         <v>123</v>
       </c>
       <c r="AB7">
         <f t="shared" si="6"/>
-        <v>0.51640196875513167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6980,7 +6980,7 @@
         <v>0.32490000000000002</v>
       </c>
       <c r="O8" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P8" s="1">
         <v>5.0000000000000001E-3</v>
@@ -6995,11 +6995,11 @@
       </c>
       <c r="S8" s="23">
         <f t="shared" si="2"/>
-        <v>271.64444444444445</v>
+        <v>270.44247787610624</v>
       </c>
       <c r="T8" s="23">
         <f t="shared" si="3"/>
-        <v>128.86600741125633</v>
+        <v>128.0152206972073</v>
       </c>
       <c r="U8" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B8</f>
@@ -7011,22 +7011,22 @@
       </c>
       <c r="W8">
         <f t="shared" si="4"/>
-        <v>-2.750530841904502E-2</v>
+        <v>-2.7144718448543558E-2</v>
       </c>
       <c r="X8" s="23">
         <v>2.3297913974600508E-2</v>
       </c>
       <c r="Y8" s="23">
         <f t="shared" ref="Y8:Y19" si="7">S8</f>
-        <v>271.64444444444445</v>
+        <v>270.44247787610624</v>
       </c>
       <c r="AA8" s="23">
         <f>(Q8*G8+S8*E8-U8)/U8</f>
-        <v>0.75492807640658366</v>
+        <v>0.74824900320333276</v>
       </c>
       <c r="AB8" s="23">
         <f t="shared" si="6"/>
-        <v>1.5094705439347449</v>
+        <v>1.502791470731494</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7077,7 +7077,7 @@
         <v>0.3201</v>
       </c>
       <c r="O9" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P9" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7092,11 +7092,11 @@
       </c>
       <c r="S9" s="23">
         <f t="shared" si="2"/>
-        <v>266.57777777777778</v>
+        <v>265.39823008849561</v>
       </c>
       <c r="T9" s="23">
         <f t="shared" si="3"/>
-        <v>126.46870742066177</v>
+        <v>125.63377533701315</v>
       </c>
       <c r="U9" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B9</f>
@@ -7108,22 +7108,22 @@
       </c>
       <c r="W9">
         <f t="shared" si="4"/>
-        <v>-2.5985308419045026E-2</v>
+        <v>-2.5631444112260374E-2</v>
       </c>
       <c r="X9" s="23">
         <v>2.3297916895026565E-2</v>
       </c>
       <c r="Y9" s="23">
         <f t="shared" si="7"/>
-        <v>266.57777777777778</v>
+        <v>265.39823008849561</v>
       </c>
       <c r="AA9" s="23">
         <f t="shared" ref="AA9:AA19" si="8">(Q9*G9+S9*E9-U9)/U9</f>
-        <v>0.73359754778849562</v>
+        <v>0.7270430515396249</v>
       </c>
       <c r="AB9" s="23">
         <f>Y9*E9/U9</f>
-        <v>1.4813161522448626</v>
+        <v>1.4747616559959917</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7174,7 +7174,7 @@
         <v>0.37659999999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P10" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7189,11 +7189,11 @@
       </c>
       <c r="S10" s="23">
         <f t="shared" si="2"/>
-        <v>248.97777777777779</v>
+        <v>247.87610619469029</v>
       </c>
       <c r="T10" s="23">
         <f t="shared" si="3"/>
-        <v>118.5567124013583</v>
+        <v>117.77591890366479</v>
       </c>
       <c r="U10" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B10</f>
@@ -7205,22 +7205,22 @@
       </c>
       <c r="W10">
         <f t="shared" si="4"/>
-        <v>-2.0705308419045023E-2</v>
+        <v>-2.0374806944118778E-2</v>
       </c>
       <c r="X10" s="23">
         <v>2.3297919570431896E-2</v>
       </c>
       <c r="Y10" s="23">
         <f t="shared" si="7"/>
-        <v>248.97777777777779</v>
+        <v>247.87610619469029</v>
       </c>
       <c r="AA10" s="23">
         <f t="shared" si="8"/>
-        <v>0.64189081680390947</v>
+        <v>0.63576906155446367</v>
       </c>
       <c r="AB10" s="23">
         <f t="shared" si="6"/>
-        <v>1.383516686374745</v>
+        <v>1.3773949311252993</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7271,7 +7271,7 @@
         <v>1.0509999999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P11" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7286,11 +7286,11 @@
       </c>
       <c r="S11" s="23">
         <f t="shared" si="2"/>
-        <v>945.77777777777783</v>
+        <v>941.59292035398244</v>
       </c>
       <c r="T11" s="23">
         <f t="shared" si="3"/>
-        <v>448.28420560915185</v>
+        <v>445.32290604962822</v>
       </c>
       <c r="U11" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B11</f>
@@ -7302,22 +7302,22 @@
       </c>
       <c r="W11">
         <f t="shared" si="4"/>
-        <v>-1.3451512401674819E-2</v>
+        <v>-1.2196055174536192E-2</v>
       </c>
       <c r="X11" s="23">
         <v>2.3297919246001962E-2</v>
       </c>
       <c r="Y11" s="23">
         <f t="shared" si="7"/>
-        <v>945.77777777777783</v>
+        <v>941.59292035398244</v>
       </c>
       <c r="AA11" s="23">
         <f t="shared" si="8"/>
-        <v>0.10123192574122422</v>
+        <v>9.6586932515963717E-2</v>
       </c>
       <c r="AB11" s="23">
         <f t="shared" si="6"/>
-        <v>1.0497684689088878</v>
+        <v>1.0451234756836272</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7368,7 +7368,7 @@
         <v>0.94069999999999998</v>
       </c>
       <c r="O12" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P12" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7383,11 +7383,11 @@
       </c>
       <c r="S12" s="23">
         <f t="shared" si="2"/>
-        <v>925.77777777777771</v>
+        <v>921.68141592920347</v>
       </c>
       <c r="T12" s="23">
         <f t="shared" si="3"/>
-        <v>438.41391355220361</v>
+        <v>435.51610921147039</v>
       </c>
       <c r="U12" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B12</f>
@@ -7399,22 +7399,22 @@
       </c>
       <c r="W12">
         <f t="shared" si="4"/>
-        <v>-7.4515124016747694E-3</v>
+        <v>-6.2226038471024838E-3</v>
       </c>
       <c r="X12" s="23">
         <v>2.3297917690924E-2</v>
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="7"/>
-        <v>925.77777777777771</v>
+        <v>921.68141592920347</v>
       </c>
       <c r="AA12" s="23">
         <f t="shared" si="8"/>
-        <v>7.8327010723698187E-2</v>
+        <v>7.3780243389009334E-2</v>
       </c>
       <c r="AB12" s="23">
         <f t="shared" si="6"/>
-        <v>1.0275694176396677</v>
+        <v>1.0230226503049789</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7465,7 +7465,7 @@
         <v>1.032</v>
       </c>
       <c r="O13" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P13" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7480,11 +7480,11 @@
       </c>
       <c r="S13" s="23">
         <f t="shared" si="2"/>
-        <v>953.33333333333337</v>
+        <v>949.11504424778764</v>
       </c>
       <c r="T13" s="23">
         <f t="shared" si="3"/>
-        <v>451.74017223385897</v>
+        <v>448.75549602666945</v>
       </c>
       <c r="U13" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B13</f>
@@ -7496,22 +7496,22 @@
       </c>
       <c r="W13">
         <f t="shared" si="4"/>
-        <v>-1.5718179068341484E-2</v>
+        <v>-1.4452692342677764E-2</v>
       </c>
       <c r="X13" s="23">
         <v>2.3297920113197729E-2</v>
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="7"/>
-        <v>953.33333333333337</v>
+        <v>949.11504424778764</v>
       </c>
       <c r="AA13" s="23">
         <f t="shared" si="8"/>
-        <v>0.11000767606651593</v>
+        <v>0.10532557528259491</v>
       </c>
       <c r="AB13" s="23">
         <f t="shared" si="6"/>
-        <v>1.0581547771661486</v>
+        <v>1.0534726763822275</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7562,7 +7562,7 @@
         <v>1.6040000000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P14" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7577,11 +7577,11 @@
       </c>
       <c r="S14" s="23">
         <f t="shared" si="2"/>
-        <v>1724.8888888888891</v>
+        <v>1717.2566371681419</v>
       </c>
       <c r="T14" s="23">
         <f t="shared" si="3"/>
-        <v>816.23950114982279</v>
+        <v>810.84172384303918</v>
       </c>
       <c r="U14" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B14</f>
@@ -7593,22 +7593,22 @@
       </c>
       <c r="W14">
         <f t="shared" si="4"/>
-        <v>2.2413582476216335E-2</v>
+        <v>2.4703257992440511E-2</v>
       </c>
       <c r="X14" s="23">
         <v>2.3297925795726985E-2</v>
       </c>
       <c r="Y14" s="23">
         <f t="shared" si="7"/>
-        <v>1724.8888888888891</v>
+        <v>1717.2566371681419</v>
       </c>
       <c r="AA14" s="23">
         <f t="shared" si="8"/>
-        <v>-1.4313655145940326E-2</v>
+        <v>-1.8554735496368557E-2</v>
       </c>
       <c r="AB14" s="23">
         <f t="shared" si="6"/>
-        <v>0.95848415919678431</v>
+        <v>0.95424307884635617</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7659,7 +7659,7 @@
         <v>1.5049999999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P15" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7674,11 +7674,11 @@
       </c>
       <c r="S15" s="23">
         <f t="shared" si="2"/>
-        <v>1726.2222222222224</v>
+        <v>1718.5840707964605</v>
       </c>
       <c r="T15" s="23">
         <f t="shared" si="3"/>
-        <v>816.49341237723308</v>
+        <v>811.09230368271699</v>
       </c>
       <c r="U15" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B15</f>
@@ -7690,22 +7690,22 @@
       </c>
       <c r="W15">
         <f t="shared" si="4"/>
-        <v>2.2013582476216341E-2</v>
+        <v>2.4305027903944919E-2</v>
       </c>
       <c r="X15" s="23">
         <v>2.329792734453592E-2</v>
       </c>
       <c r="Y15" s="23">
         <f t="shared" si="7"/>
-        <v>1726.2222222222224</v>
+        <v>1718.5840707964605</v>
       </c>
       <c r="AA15" s="23">
         <f t="shared" si="8"/>
-        <v>-1.3243742417651137E-2</v>
+        <v>-1.7488101108984053E-2</v>
       </c>
       <c r="AB15" s="23">
         <f t="shared" si="6"/>
-        <v>0.95922506424125498</v>
+        <v>0.95498070554992198</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>1.591</v>
       </c>
       <c r="O16" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P16" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7771,11 +7771,11 @@
       </c>
       <c r="S16" s="23">
         <f t="shared" si="2"/>
-        <v>1796.8888888888889</v>
+        <v>1788.9380530973453</v>
       </c>
       <c r="T16" s="23">
         <f t="shared" si="3"/>
-        <v>850.00783716228841</v>
+        <v>844.3854227635843</v>
       </c>
       <c r="U16" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B16</f>
@@ -7787,23 +7787,23 @@
       </c>
       <c r="W16">
         <f t="shared" si="4"/>
-        <v>8.1358247621636797E-4</v>
+        <v>3.1988332136794638E-3</v>
       </c>
       <c r="X16" s="23">
         <v>2.3297930026256426E-2</v>
       </c>
       <c r="Y16" s="23">
         <f t="shared" si="7"/>
-        <v>1796.8888888888889</v>
+        <v>1788.9380530973453</v>
       </c>
       <c r="Z16" s="23"/>
       <c r="AA16" s="23">
         <f t="shared" si="8"/>
-        <v>2.6584756548759001E-2</v>
+        <v>2.2166645789475005E-2</v>
       </c>
       <c r="AB16" s="23">
         <f>Y16*E16/U16</f>
-        <v>0.99849303159819602</v>
+        <v>0.99407492083891202</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -7854,7 +7854,7 @@
         <v>6.4370000000000003</v>
       </c>
       <c r="O17" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P17" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7869,11 +7869,11 @@
       </c>
       <c r="S17" s="23">
         <f t="shared" si="2"/>
-        <v>8542.2222222222226</v>
+        <v>8504.424778761062</v>
       </c>
       <c r="T17" s="23">
         <f t="shared" si="3"/>
-        <v>4036.9920410948084</v>
+        <v>4010.2722624893695</v>
       </c>
       <c r="U17" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B17</f>
@@ -7892,18 +7892,18 @@
       </c>
       <c r="Y17" s="23">
         <f>S17</f>
-        <v>8542.2222222222226</v>
+        <v>8504.424778761062</v>
       </c>
       <c r="Z17" s="23">
         <v>750.18565608355891</v>
       </c>
       <c r="AA17" s="23">
         <f t="shared" si="8"/>
-        <v>-3.9811270128704064E-2</v>
+        <v>-4.4001309912319209E-2</v>
       </c>
       <c r="AB17" s="23">
         <f t="shared" si="6"/>
-        <v>0.94694899109701325</v>
+        <v>0.94275895131339815</v>
       </c>
       <c r="AC17" s="23">
         <f>(U17-Q17*G17)/U17</f>
@@ -7958,7 +7958,7 @@
         <v>6.2560000000000002</v>
       </c>
       <c r="O18" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P18" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7973,11 +7973,11 @@
       </c>
       <c r="S18" s="23">
         <f t="shared" si="2"/>
-        <v>8057.7777777777783</v>
+        <v>8022.1238938053111</v>
       </c>
       <c r="T18" s="23">
         <f t="shared" si="3"/>
-        <v>3808.6355656860251</v>
+        <v>3783.4298026536753</v>
       </c>
       <c r="U18" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B18</f>
@@ -7996,18 +7996,18 @@
       </c>
       <c r="Y18" s="23">
         <f t="shared" si="7"/>
-        <v>8057.7777777777783</v>
+        <v>8022.1238938053111</v>
       </c>
       <c r="Z18" s="23">
         <v>696.13408835057783</v>
       </c>
       <c r="AA18" s="23">
         <f t="shared" si="8"/>
-        <v>-9.5721705930232437E-2</v>
+        <v>-9.967412118917833E-2</v>
       </c>
       <c r="AB18" s="23">
         <f t="shared" si="6"/>
-        <v>0.89324584852179245</v>
+        <v>0.8892934332628466</v>
       </c>
       <c r="AC18" s="23">
         <f>(U18-Q18*G18)/U18</f>
@@ -8062,7 +8062,7 @@
         <v>10.15</v>
       </c>
       <c r="O19" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="P19" s="1">
         <v>5.0000000000000001E-3</v>
@@ -8077,11 +8077,11 @@
       </c>
       <c r="S19" s="23">
         <f t="shared" si="2"/>
-        <v>8768.8888888888905</v>
+        <v>8730.0884955752226</v>
       </c>
       <c r="T19" s="23">
         <f t="shared" si="3"/>
-        <v>4158.2359481244393</v>
+        <v>4130.775620894522</v>
       </c>
       <c r="U19" s="23">
         <f>Parameters!$B$6*'Bottle Results'!B19</f>
@@ -8100,15 +8100,15 @@
       </c>
       <c r="Y19" s="23">
         <f t="shared" si="7"/>
-        <v>8768.8888888888905</v>
+        <v>8730.0884955752226</v>
       </c>
       <c r="AA19" s="23">
         <f t="shared" si="8"/>
-        <v>-1.695217839429896E-2</v>
+        <v>-2.1253400294961148E-2</v>
       </c>
       <c r="AB19" s="23">
         <f t="shared" si="6"/>
-        <v>0.97207614954963972</v>
+        <v>0.96777492764897755</v>
       </c>
       <c r="AC19" s="23">
         <f>(U19-Q19*G19)/U19</f>
@@ -8187,7 +8187,7 @@
         <v>1.9506029550982833E-2</v>
       </c>
       <c r="W20" s="28">
-        <f t="shared" ref="W3:W23" si="9">Q20</f>
+        <f t="shared" ref="W20:W23" si="9">Q20</f>
         <v>0</v>
       </c>
       <c r="X20" s="28">
@@ -8455,7 +8455,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8575,11 +8575,11 @@
       </c>
       <c r="D5">
         <f>'Bottle Results'!W5</f>
-        <v>1.3482021684446651E-2</v>
+        <v>-9.7739314566531559E-3</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>0.13482021684446652</v>
+        <v>-9.7739314566531565E-2</v>
       </c>
       <c r="F5" t="b">
         <f t="shared" si="3"/>
@@ -8600,11 +8600,11 @@
       </c>
       <c r="D6">
         <f>'Bottle Results'!W6</f>
-        <v>1.3916215518537662E-2</v>
+        <v>-1.5747382784086782E-2</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>0.13916215518537661</v>
+        <v>-0.15747382784086783</v>
       </c>
       <c r="F6" t="b">
         <f t="shared" si="3"/>
@@ -8625,15 +8625,15 @@
       </c>
       <c r="D7">
         <f>'Bottle Results'!W7</f>
-        <v>1.3087300017091259E-2</v>
+        <v>2.7062351729187552E-2</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>0.13087300017091258</v>
+        <v>0.2706235172918755</v>
       </c>
       <c r="F7" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8650,11 +8650,11 @@
       </c>
       <c r="D8">
         <f>'Bottle Results'!W8</f>
-        <v>-2.750530841904502E-2</v>
+        <v>-2.7144718448543558E-2</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>-0.27505308419045021</v>
+        <v>-0.27144718448543559</v>
       </c>
       <c r="F8" t="b">
         <f t="shared" si="3"/>
@@ -8675,11 +8675,11 @@
       </c>
       <c r="D9">
         <f>'Bottle Results'!W9</f>
-        <v>-2.5985308419045026E-2</v>
+        <v>-2.5631444112260374E-2</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>-0.25985308419045028</v>
+        <v>-0.25631444112260376</v>
       </c>
       <c r="F9" t="b">
         <f t="shared" si="3"/>
@@ -8700,11 +8700,11 @@
       </c>
       <c r="D10">
         <f>'Bottle Results'!W10</f>
-        <v>-2.0705308419045023E-2</v>
+        <v>-2.0374806944118778E-2</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>-0.20705308419045024</v>
+        <v>-0.20374806944118778</v>
       </c>
       <c r="F10" t="b">
         <f t="shared" si="3"/>
@@ -8725,11 +8725,11 @@
       </c>
       <c r="D11">
         <f>'Bottle Results'!W11</f>
-        <v>-1.3451512401674819E-2</v>
+        <v>-1.2196055174536192E-2</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>-0.1345151240167482</v>
+        <v>-0.12196055174536191</v>
       </c>
       <c r="F11" t="b">
         <f t="shared" si="3"/>
@@ -8750,11 +8750,11 @@
       </c>
       <c r="D12">
         <f>'Bottle Results'!W12</f>
-        <v>-7.4515124016747694E-3</v>
+        <v>-6.2226038471024838E-3</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>-7.4515124016747689E-2</v>
+        <v>-6.2226038471024842E-2</v>
       </c>
       <c r="F12" t="b">
         <f t="shared" si="3"/>
@@ -8775,11 +8775,11 @@
       </c>
       <c r="D13">
         <f>'Bottle Results'!W13</f>
-        <v>-1.5718179068341484E-2</v>
+        <v>-1.4452692342677764E-2</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>-0.15718179068341484</v>
+        <v>-0.14452692342677764</v>
       </c>
       <c r="F13" t="b">
         <f t="shared" si="3"/>
@@ -8800,11 +8800,11 @@
       </c>
       <c r="D14">
         <f>'Bottle Results'!W14</f>
-        <v>2.2413582476216335E-2</v>
+        <v>2.4703257992440511E-2</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>0.22413582476216334</v>
+        <v>0.24703257992440511</v>
       </c>
       <c r="F14" t="b">
         <f t="shared" si="3"/>
@@ -8825,11 +8825,11 @@
       </c>
       <c r="D15">
         <f>'Bottle Results'!W15</f>
-        <v>2.2013582476216341E-2</v>
+        <v>2.4305027903944919E-2</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>0.22013582476216342</v>
+        <v>0.2430502790394492</v>
       </c>
       <c r="F15" t="b">
         <f t="shared" si="3"/>
@@ -8850,11 +8850,11 @@
       </c>
       <c r="D16">
         <f>'Bottle Results'!W16</f>
-        <v>8.1358247621636797E-4</v>
+        <v>3.1988332136794638E-3</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>8.1358247621636792E-3</v>
+        <v>3.1988332136794639E-2</v>
       </c>
       <c r="F16" t="b">
         <f t="shared" si="3"/>
@@ -8945,8 +8945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9035,19 +9035,19 @@
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>1.3495179073358524E-2</v>
+        <v>5.1367916281587142E-4</v>
       </c>
       <c r="C3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>4.1461435671810639E-4</v>
+        <v>2.3185006824834382E-2</v>
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!Y5:Y7)</f>
-        <v>45.223908852763429</v>
+        <v>88.495575221238937</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!Y5:Y7)</f>
-        <v>1.3820478557270199</v>
+        <v>77.283356082781296</v>
       </c>
       <c r="F3">
         <f>'Bottle Results'!U6</f>
@@ -9055,11 +9055,11 @@
       </c>
       <c r="G3">
         <f>AVERAGE('Bottle Results'!AB5:AB7)</f>
-        <v>0.50133014276052101</v>
+        <v>0.98101867982663704</v>
       </c>
       <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!AB5:AB7)</f>
-        <v>1.532070682057291E-2</v>
+        <v>0.85672550031299244</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -9076,19 +9076,19 @@
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>-2.4731975085711691E-2</v>
+        <v>-2.4383656501640903E-2</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>3.5690521617557413E-3</v>
+        <v>3.5532598955532839E-3</v>
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!Y8:Y10)</f>
-        <v>262.39999999999998</v>
+        <v>261.2389380530974</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!Y8:Y10)</f>
-        <v>11.896840539185801</v>
+        <v>11.844199651844281</v>
       </c>
       <c r="F4">
         <f>'Bottle Results'!U9</f>
@@ -9096,11 +9096,11 @@
       </c>
       <c r="G4">
         <f>AVERAGE('Bottle Results'!AB8:AB10)</f>
-        <v>1.4581011275181173</v>
+        <v>1.4516493526175951</v>
       </c>
       <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!AB8:AB10)</f>
-        <v>6.6108218765587104E-2</v>
+        <v>6.5815704523261576E-2</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -9117,19 +9117,19 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>-1.2207067957230358E-2</v>
+        <v>-1.0957117121438813E-2</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>4.2715250117406709E-3</v>
+        <v>4.2526244585913853E-3</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!Y11:Y13)</f>
-        <v>941.62962962962968</v>
+        <v>937.46312684365785</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!Y11:Y13)</f>
-        <v>14.23841670580221</v>
+        <v>14.175414861971241</v>
       </c>
       <c r="F5">
         <f>'Bottle Results'!U12</f>
@@ -9137,11 +9137,11 @@
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!AB11:AB13)</f>
-        <v>1.0451642212382346</v>
+        <v>1.0405396007902779</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!AB11:AB13)</f>
-        <v>1.580396712223104E-2</v>
+        <v>1.5734038064168072E-2</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -9158,19 +9158,19 @@
       </c>
       <c r="B6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>1.5080249142883015E-2</v>
+        <v>1.7402373036688297E-2</v>
       </c>
       <c r="C6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>1.2356914393704153E-2</v>
+        <v>1.2302237781342635E-2</v>
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!Y14:Y16)</f>
-        <v>1749.3333333333333</v>
+        <v>1741.5929203539824</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!Y14:Y16)</f>
-        <v>41.189714645680461</v>
+        <v>41.007459271142103</v>
       </c>
       <c r="F6">
         <f>'Bottle Results'!U15</f>
@@ -9178,11 +9178,11 @@
       </c>
       <c r="G6">
         <f>AVERAGE('Bottle Results'!AB14:AB16)</f>
-        <v>0.97206741834541177</v>
+        <v>0.96776623507839676</v>
       </c>
       <c r="H6">
         <f>_xlfn.STDEV.S('Bottle Results'!AB14:AB16)</f>
-        <v>2.288825052096655E-2</v>
+        <v>2.2786975076183512E-2</v>
       </c>
       <c r="I6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -9207,11 +9207,11 @@
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>8548.0966523683819</v>
+        <v>8520.0337221815589</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!Y17:Y19,'Bottle Results'!Y21)</f>
-        <v>348.8275924635368</v>
+        <v>357.94377699140438</v>
       </c>
       <c r="F7">
         <f>'Bottle Results'!U18</f>
@@ -9219,11 +9219,11 @@
       </c>
       <c r="G7">
         <f>AVERAGE('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>0.94760020170187265</v>
+        <v>0.94448928246606678</v>
       </c>
       <c r="H7">
         <f>_xlfn.STDEV.S('Bottle Results'!AB17:AB19,'Bottle Results'!AB21)</f>
-        <v>3.8669321419762176E-2</v>
+        <v>3.9679897065858227E-2</v>
       </c>
       <c r="I7">
         <f>AVERAGE('Bottle Results'!D17:D19,'Bottle Results'!D21)</f>

--- a/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH9/RaFHY_pH9_NoScript.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="138">
   <si>
     <t>Parameters</t>
   </si>
@@ -467,9 +467,6 @@
     <t>500_A_T3</t>
   </si>
   <si>
-    <t>Total Activity</t>
-  </si>
-  <si>
     <t>sCw (Bq/mL)</t>
   </si>
   <si>
@@ -528,6 +525,12 @@
   </si>
   <si>
     <t>Counts below detection</t>
+  </si>
+  <si>
+    <t>MinMass (g)</t>
+  </si>
+  <si>
+    <t>sMinMass (g)</t>
   </si>
 </sst>
 </file>
@@ -728,27 +731,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -964,11 +947,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199989536"/>
-        <c:axId val="199988360"/>
+        <c:axId val="220037328"/>
+        <c:axId val="220039288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199989536"/>
+        <c:axId val="220037328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,12 +979,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199988360"/>
+        <c:crossAx val="220039288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199988360"/>
+        <c:axId val="220039288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199989536"/>
+        <c:crossAx val="220037328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1264,11 +1247,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199987576"/>
-        <c:axId val="199988752"/>
+        <c:axId val="220041248"/>
+        <c:axId val="220049088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199987576"/>
+        <c:axId val="220041248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,12 +1279,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199988752"/>
+        <c:crossAx val="220049088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199988752"/>
+        <c:axId val="220049088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199987576"/>
+        <c:crossAx val="220041248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3298,22 +3281,22 @@
         <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>130</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -3599,7 +3582,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2">
         <v>337473.1</v>
@@ -3643,7 +3626,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="29">
         <v>173514.3</v>
@@ -3672,7 +3655,7 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" s="5">
         <f>AVERAGE(I3:I9)</f>
@@ -3686,7 +3669,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3714,7 +3697,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4764,7 +4747,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -7234,7 +7217,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
@@ -7317,7 +7300,7 @@
         <v>32</v>
       </c>
       <c r="S1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8718,10 +8701,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8729,44 +8712,52 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
         <v>31</v>
       </c>
       <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" t="s">
-        <v>122</v>
-      </c>
       <c r="K1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -8807,13 +8798,21 @@
         <v>1.5275252316519917E-2</v>
       </c>
       <c r="K2">
+        <f>AVERAGE('Bottle Results'!E2:E4)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S('Bottle Results'!E2:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>5</v>
       </c>
@@ -8854,14 +8853,22 @@
         <v>1.527525231651914E-2</v>
       </c>
       <c r="K3">
+        <f>AVERAGE('Bottle Results'!E5:E7)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S('Bottle Results'!E5:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
         <f>COUNT('Bottle Results'!I5:I7)</f>
         <v>3</v>
       </c>
-      <c r="L3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>10</v>
       </c>
@@ -8902,14 +8909,22 @@
         <v>1.154700538379227E-2</v>
       </c>
       <c r="K4">
+        <f>AVERAGE('Bottle Results'!E8:E10)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L4">
+        <f>_xlfn.STDEV.S('Bottle Results'!E8:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
         <f>COUNT('Bottle Results'!I8:I10)</f>
         <v>3</v>
       </c>
-      <c r="L4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>50</v>
       </c>
@@ -8950,14 +8965,22 @@
         <v>2.5166114784235295E-2</v>
       </c>
       <c r="K5">
+        <f>AVERAGE('Bottle Results'!E11:E13)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L5">
+        <f>_xlfn.STDEV.S('Bottle Results'!E11:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
         <f>COUNT('Bottle Results'!I11:I13)</f>
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>100</v>
       </c>
@@ -8998,14 +9021,22 @@
         <v>5.0332229568471415E-2</v>
       </c>
       <c r="K6">
+        <f>AVERAGE('Bottle Results'!E14:E16)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.STDEV.S('Bottle Results'!E14:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
         <f>COUNT('Bottle Results'!I14:I16)</f>
         <v>3</v>
       </c>
-      <c r="L6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>500</v>
       </c>
@@ -9046,35 +9077,43 @@
         <v>4.7258156262525892E-2</v>
       </c>
       <c r="K7">
+        <f>AVERAGE('Bottle Results'!E17:E19,'Bottle Results'!E21)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S('Bottle Results'!E17:E19,'Bottle Results'!E21)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
         <f>COUNT('Bottle Results'!I17:I19,'Bottle Results'!I21)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
